--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1599724016654482</v>
+        <v>0.1608905958825425</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06943309090988045</v>
+        <v>0.02160195939836011</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03501340393616987</v>
+        <v>0.06730918550845451</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03887009438870185</v>
+        <v>0.01981700845933858</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03215882739169344</v>
+        <v>0.04538699800390569</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07211013402412193</v>
+        <v>0.08590950498067046</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06593703450999516</v>
+        <v>0.001495380245149715</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03425838729585178</v>
+        <v>0.06661120915599336</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007163041526259344</v>
+        <v>0.0644326055137785</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01742714678754708</v>
+        <v>0.0008773566032077671</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06815846135359441</v>
+        <v>0.1120726593441186</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08386605085846678</v>
+        <v>0.07702558882502071</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06911426543640227</v>
+        <v>0.03986540839189018</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05824250860013859</v>
+        <v>0.04473917775295613</v>
       </c>
       <c r="S2" t="n">
-        <v>0.004660595784194891</v>
+        <v>0.01600376356039094</v>
       </c>
       <c r="T2" t="n">
-        <v>0.005748165826526065</v>
+        <v>0.007877439886625297</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04844785155420452</v>
+        <v>0.02773762983512594</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02843569507926531</v>
+        <v>0.01947328215478131</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08126070236007811</v>
+        <v>0.09577129239105768</v>
       </c>
       <c r="X2" t="n">
-        <v>0.08484733229447547</v>
+        <v>0.02116845526883812</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.003610567011001501</v>
+        <v>0.00684491065627326</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01144129751762565</v>
+        <v>0.1154347063375872</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07809060452872102</v>
+        <v>0.01704525662596112</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.001704741025084409</v>
+        <v>0.0254992211005147</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.09286142122547612</v>
+        <v>0.08407699145275002</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3390017009155969</v>
+        <v>0.3519422729456488</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01487156839080145</v>
+        <v>0.02001252870709471</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008397519193977847</v>
+        <v>0.01318741297499133</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01154638284202761</v>
+        <v>0.02207553739118496</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05903985888830784</v>
+        <v>0.0346556201067287</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04590784717614927</v>
+        <v>0.05188746510177807</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04570097654909121</v>
+        <v>0.03785822223445478</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007902698860491237</v>
+        <v>0.001652842603341348</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04351458296366348</v>
+        <v>0.06703982105793682</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0982943587999629</v>
+        <v>0.1016424315322698</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08874595544368391</v>
+        <v>0.07181839397089648</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07040794289581304</v>
+        <v>0.09659079093963613</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0535683462089753</v>
+        <v>0.06490263542980963</v>
       </c>
       <c r="R3" t="n">
-        <v>0.006667037600888598</v>
+        <v>0.04134459184255999</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1005756171640251</v>
+        <v>0.03191357765943112</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02148754767246087</v>
+        <v>0.008729865161268956</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1014182632335456</v>
+        <v>0.07123751125352649</v>
       </c>
       <c r="V3" t="n">
-        <v>0.009920586776515718</v>
+        <v>0.02006356897725171</v>
       </c>
       <c r="W3" t="n">
-        <v>0.09257102276225444</v>
+        <v>0.08581552138424103</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02100337787879544</v>
+        <v>0.02122483181215843</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03133064638616513</v>
+        <v>0.03033699815867413</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.01641916064371072</v>
+        <v>0.009779102335598229</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.03741644164937682</v>
+        <v>0.08349584821558932</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01329226001931635</v>
+        <v>0.0127348811495781</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1000778881328883</v>
+        <v>0.09506055060865062</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2028276339134699</v>
+        <v>0.211421108525446</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08482079220548069</v>
+        <v>0.07468842469717124</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07539508247255591</v>
+        <v>0.02508129069730386</v>
       </c>
       <c r="H4" t="n">
-        <v>0.006055309536517284</v>
+        <v>0.002943830479120957</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02513167734886575</v>
+        <v>0.02561338655294882</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08798763039631673</v>
+        <v>0.06806514444335354</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01647427996730266</v>
+        <v>0.04724306226992349</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02003940287824453</v>
+        <v>0.01543961417984636</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002511403945760663</v>
+        <v>0.06415465131582311</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03519122415390796</v>
+        <v>0.08546493931894482</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04721417579786327</v>
+        <v>0.0676983431290194</v>
       </c>
       <c r="P4" t="n">
-        <v>0.09491961298015868</v>
+        <v>0.03837092264391597</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03921830217720746</v>
+        <v>0.05530317081297954</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09230144642074987</v>
+        <v>0.075884402645302</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01024051628376758</v>
+        <v>0.02793009306480749</v>
       </c>
       <c r="T4" t="n">
-        <v>0.006249983408230059</v>
+        <v>0.02652478140629886</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01828426419423489</v>
+        <v>0.08575808401649672</v>
       </c>
       <c r="V4" t="n">
-        <v>0.07864490363698065</v>
+        <v>0.02380799311661861</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0147258257679266</v>
+        <v>0.003734840044212661</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01762145614631565</v>
+        <v>0.03573275233211987</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0923255743984279</v>
+        <v>0.07408866659937642</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.05612742254242503</v>
+        <v>0.0161247825330558</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.070589287458851</v>
+        <v>0.04983174367666472</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.007930425881909075</v>
+        <v>0.01051508002469591</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.008167263470164389</v>
+        <v>-0.0803340366079255</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6500900734094773</v>
+        <v>0.5396147488420352</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05606863308423088</v>
+        <v>0.07371573424034351</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05939710094437939</v>
+        <v>0.08224535472915921</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01109986097104647</v>
+        <v>0.02533377924021601</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03226027565065378</v>
+        <v>0.02541720774316092</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03151473616971991</v>
+        <v>0.0008088809795421237</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05486201428400531</v>
+        <v>0.03420800339417166</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02809021606458473</v>
+        <v>0.005953476685378711</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00140624075623689</v>
+        <v>0.008369997455260479</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02917271934837647</v>
+        <v>0.0806319863776272</v>
       </c>
       <c r="O5" t="n">
-        <v>0.003766040959306974</v>
+        <v>0.06724106319918774</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05605151157162444</v>
+        <v>0.07830445454183697</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08212583325100281</v>
+        <v>0.03344405622868905</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02747826742743211</v>
+        <v>0.07389991617356001</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0360882960456404</v>
+        <v>0.001241315817653638</v>
       </c>
       <c r="T5" t="n">
-        <v>0.009644690908091775</v>
+        <v>0.05167585100611517</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04746567230941947</v>
+        <v>0.06051835533760791</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06703696114064565</v>
+        <v>0.01450572024437581</v>
       </c>
       <c r="W5" t="n">
-        <v>0.09812971157553296</v>
+        <v>0.08190803737069084</v>
       </c>
       <c r="X5" t="n">
-        <v>0.09472067688505548</v>
+        <v>0.04536890237260335</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.07473630733990877</v>
+        <v>0.002581784670742006</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.06992289276892937</v>
+        <v>0.07900411303466293</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.002898457528150501</v>
+        <v>0.052201230704698</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.02606288301602547</v>
+        <v>0.02142077845271681</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.001870473346095512</v>
+        <v>-0.03159704916454497</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1422551514122864</v>
+        <v>0.1458035377555263</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1007795169184415</v>
+        <v>0.04678554651643572</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004841045517494941</v>
+        <v>0.003329467139231124</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09597628948519314</v>
+        <v>0.06452854668812509</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01965677444633371</v>
+        <v>0.05441363206931343</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05695156246415009</v>
+        <v>0.07132646902447293</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07114173315707734</v>
+        <v>0.03043409707230691</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003765873394814214</v>
+        <v>0.0272114639094744</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009565374523171718</v>
+        <v>0.03408765189456342</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0321632697364423</v>
+        <v>0.06873471963872563</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1059327697444957</v>
+        <v>0.05191763147298779</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0342377383700326</v>
+        <v>0.06633742129288482</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02526562814577447</v>
+        <v>0.01866881426302344</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03026178163367322</v>
+        <v>0.05465844150852738</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09763612396140481</v>
+        <v>0.06707492747604378</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01200124905438409</v>
+        <v>0.04664254111165013</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002342053432594924</v>
+        <v>0.06019814142837876</v>
       </c>
       <c r="V6" t="n">
-        <v>0.04612792222354262</v>
+        <v>0.02083797520610983</v>
       </c>
       <c r="W6" t="n">
-        <v>0.06592813819010551</v>
+        <v>0.07176559263446811</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05938684497961075</v>
+        <v>0.06410925756950096</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.007225256972992373</v>
+        <v>0.04369351808358511</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.08221081191255651</v>
+        <v>0.01645030486377603</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0252847415070768</v>
+        <v>0.005154199365481752</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01131750022863665</v>
+        <v>0.01163963977093356</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.02069020098683234</v>
+        <v>0.04167323674598129</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1893078212333055</v>
+        <v>0.1901331160260214</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05507648167029695</v>
+        <v>0.0468843978112591</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001451446776366768</v>
+        <v>0.003256294584009248</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02901918452802257</v>
+        <v>0.06722471166292125</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08253764015577013</v>
+        <v>0.0869836144495633</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01497166695064997</v>
+        <v>0.01101689816485754</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07771744755107018</v>
+        <v>0.04608840336877543</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06507184093010465</v>
+        <v>0.009476335479366983</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06553688910601843</v>
+        <v>0.03166786387045814</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02178359791766258</v>
+        <v>0.01335950611611447</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00380885740471481</v>
+        <v>0.03293284850700466</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0007064929698655211</v>
+        <v>0.0001843636092263242</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01432762223115612</v>
+        <v>0.04748751607846138</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05492566661118089</v>
+        <v>0.08744396422124849</v>
       </c>
       <c r="S7" t="n">
-        <v>0.07378988553531493</v>
+        <v>0.04550352372623517</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004530052336624687</v>
+        <v>0.06770947041897202</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002107407530686485</v>
+        <v>0.07358346329594148</v>
       </c>
       <c r="V7" t="n">
-        <v>0.05039597170705676</v>
+        <v>0.09446557911715596</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09583798641822108</v>
+        <v>0.01843476833044442</v>
       </c>
       <c r="X7" t="n">
-        <v>0.09388396214836571</v>
+        <v>0.03300113820519663</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01644633040142007</v>
+        <v>0.06106127491599316</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.06131940451298469</v>
+        <v>0.005629464787617025</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01303784067709604</v>
+        <v>0.01683603054298687</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1017163239293498</v>
+        <v>0.09976856873619108</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.03495014397508034</v>
+        <v>0.02941654177588967</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1544385553975545</v>
+        <v>0.1489197989551092</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0009091814678878783</v>
+        <v>0.003706209854889616</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00479920500530988</v>
+        <v>0.002751563518729491</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02890379012521595</v>
+        <v>0.007293597805306825</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007060531908512947</v>
+        <v>0.04494817428214044</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0789646417985633</v>
+        <v>0.05002698347348173</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02089500114046605</v>
+        <v>0.07091277329626229</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0438741896274745</v>
+        <v>0.01057846507049658</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01752357986983579</v>
+        <v>0.04725397294624032</v>
       </c>
       <c r="N8" t="n">
-        <v>0.07755854209239296</v>
+        <v>0.08903859884643907</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05803699977396939</v>
+        <v>0.07183564912488423</v>
       </c>
       <c r="P8" t="n">
-        <v>0.06350496261508438</v>
+        <v>0.07800404046223858</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01186920440235477</v>
+        <v>0.0002077835618776806</v>
       </c>
       <c r="R8" t="n">
-        <v>0.04808181436646684</v>
+        <v>0.04426864120278445</v>
       </c>
       <c r="S8" t="n">
-        <v>0.06069393285677613</v>
+        <v>0.07838011861288992</v>
       </c>
       <c r="T8" t="n">
-        <v>0.08283770610763147</v>
+        <v>0.04344830336230193</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08211684985400722</v>
+        <v>0.05985750924456135</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06492035256554655</v>
+        <v>0.03673968236673301</v>
       </c>
       <c r="W8" t="n">
-        <v>0.05365342714141015</v>
+        <v>0.08565465408725095</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0206276700745363</v>
+        <v>0.04238106870535241</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.08329316734430654</v>
+        <v>0.07681433088843363</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.04029210967432584</v>
+        <v>0.009977513813483007</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.02508941162008315</v>
+        <v>0.04255881945498778</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.02449372856784209</v>
+        <v>0.003361546018234796</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.1535731904079918</v>
+        <v>-0.1539740972955305</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5284787607075129</v>
+        <v>0.4821495219045823</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0008613518677849135</v>
+        <v>0.0008076286645165693</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01136501261291497</v>
+        <v>0.04034022715796465</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04154952201751479</v>
+        <v>0.07105624683670224</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02335090599416967</v>
+        <v>0.03347739179888194</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04507114971078542</v>
+        <v>0.02788231974734422</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02978399861055705</v>
+        <v>0.01387373017249597</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02777635594701839</v>
+        <v>0.04517720554976536</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04772994445248641</v>
+        <v>0.01996066419388447</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0001590727659878594</v>
+        <v>0.04616013299416818</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04819484828261543</v>
+        <v>0.0524544081520331</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05005492173644446</v>
+        <v>0.09421078822826592</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1106335960012604</v>
+        <v>0.1002823659788423</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04083810223859698</v>
+        <v>0.02337177258961245</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0247706749210956</v>
+        <v>0.02690166414727841</v>
       </c>
       <c r="T9" t="n">
-        <v>0.05610920408214515</v>
+        <v>0.05113184760539563</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1149417026651749</v>
+        <v>0.09383108803862668</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02022208826762875</v>
+        <v>0.00599610703321035</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02519420201977511</v>
+        <v>0.03387805920227558</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02560832557305099</v>
+        <v>0.02740835290372895</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.04791443928080735</v>
+        <v>0.01228636527097822</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.08704783370531655</v>
+        <v>0.1038322114760842</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.08498362209056158</v>
+        <v>0.02863402708524091</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.03583912515630739</v>
+        <v>0.04704539517270356</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.166050089665557</v>
+        <v>-0.1401472245702647</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1605060128673094</v>
+        <v>0.1609430632234772</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01133335444869059</v>
+        <v>0.07199956357405664</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007112994151145366</v>
+        <v>0.01678579337038824</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03966273403136623</v>
+        <v>0.03560797304665044</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09137591316017282</v>
+        <v>0.06545296008752796</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02450092469319538</v>
+        <v>0.008995422280669829</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04015463470007603</v>
+        <v>0.06106238654987717</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02908870223681531</v>
+        <v>0.05780807220988103</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03092323749050252</v>
+        <v>0.03457534678674103</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0123300732202501</v>
+        <v>0.02609726107505225</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08683324088834914</v>
+        <v>0.018759901898201</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1022698405007547</v>
+        <v>0.07587358150966414</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.06827099412256578</v>
+        <v>0.05948234284094107</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04017367909566988</v>
+        <v>0.06270453757566165</v>
       </c>
       <c r="S10" t="n">
-        <v>0.002373034409437548</v>
+        <v>0.02594456527010119</v>
       </c>
       <c r="T10" t="n">
-        <v>0.05687804135292722</v>
+        <v>0.03821328170179131</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04833244491302257</v>
+        <v>0.002951256340230703</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02028952344486658</v>
+        <v>0.0178144845130696</v>
       </c>
       <c r="W10" t="n">
-        <v>0.07349644680922074</v>
+        <v>0.06133790723899732</v>
       </c>
       <c r="X10" t="n">
-        <v>0.04075816105376066</v>
+        <v>0.06802488710913954</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0569876204580634</v>
+        <v>0.07504978124575437</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.09293621216011194</v>
+        <v>0.07024942298582267</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01201822948538042</v>
+        <v>0.03949505752553897</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01189996317365538</v>
+        <v>0.00571421326424212</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.09481186121839551</v>
+        <v>-0.08264911212201734</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2374694743319262</v>
+        <v>0.2370105159062875</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06420267702511641</v>
+        <v>0.09431089757404479</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003161921247580548</v>
+        <v>0.03145771184677753</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08971209124193635</v>
+        <v>0.0642547358078399</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1166567742088006</v>
+        <v>0.1072384887459817</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01740758579873197</v>
+        <v>0.001923211630656364</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04832558920536629</v>
+        <v>0.0689941563803247</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01238537030443772</v>
+        <v>0.05251373864574276</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01383089509901243</v>
+        <v>0.02358217438143616</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01477263817567265</v>
+        <v>0.02508806982900988</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1159283813758801</v>
+        <v>0.01288780921430657</v>
       </c>
       <c r="P11" t="n">
-        <v>0.00852284055517845</v>
+        <v>0.009204344981549657</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0435821390911891</v>
+        <v>0.0677442315817529</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04699492502169138</v>
+        <v>0.02080087921149108</v>
       </c>
       <c r="S11" t="n">
-        <v>0.05746095668133795</v>
+        <v>0.004943084626693963</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03541887405893031</v>
+        <v>0.02441292913188078</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01732980974163525</v>
+        <v>0.02468871877655577</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02082394318906673</v>
+        <v>0.002618035862324396</v>
       </c>
       <c r="W11" t="n">
-        <v>0.05364239834664479</v>
+        <v>0.09615382857957262</v>
       </c>
       <c r="X11" t="n">
-        <v>0.004491359322638132</v>
+        <v>0.007906877292716922</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001693873149566058</v>
+        <v>0.0410884473256307</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.03141583034162317</v>
+        <v>0.02331932431034397</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.09928823230706156</v>
+        <v>0.09135234952351261</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.08295089451090212</v>
+        <v>0.1035159547398541</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.08083127577275506</v>
+        <v>-0.08259246908123424</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1491342317605564</v>
+        <v>0.1519168707485181</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0289845507223932</v>
+        <v>0.06248764717378365</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06702726530464431</v>
+        <v>0.02382163373597407</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08576669720988833</v>
+        <v>0.06778284021873464</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08292742948719944</v>
+        <v>0.05355934105572581</v>
       </c>
       <c r="J12" t="n">
-        <v>0.003742429349208062</v>
+        <v>0.001226329656803138</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03848612428086593</v>
+        <v>0.0478464665493951</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01038276776992263</v>
+        <v>0.01394015085270452</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01432653028083207</v>
+        <v>0.02212061545937252</v>
       </c>
       <c r="N12" t="n">
-        <v>0.002862210151117369</v>
+        <v>0.0009570594962875577</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05664426125301318</v>
+        <v>0.0473497092624019</v>
       </c>
       <c r="P12" t="n">
-        <v>0.07376288948173861</v>
+        <v>0.04837423278833343</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.03448239223610356</v>
+        <v>0.04775727811657883</v>
       </c>
       <c r="R12" t="n">
-        <v>0.04938441309394703</v>
+        <v>0.0761035102856509</v>
       </c>
       <c r="S12" t="n">
-        <v>0.003983697989892279</v>
+        <v>0.003380469122523717</v>
       </c>
       <c r="T12" t="n">
-        <v>0.05593773606948366</v>
+        <v>0.0802640605445917</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04970815700672087</v>
+        <v>0.05236526526285926</v>
       </c>
       <c r="V12" t="n">
-        <v>0.00390150838797054</v>
+        <v>0.02392830820766861</v>
       </c>
       <c r="W12" t="n">
-        <v>0.05227546473025175</v>
+        <v>0.0616978348056918</v>
       </c>
       <c r="X12" t="n">
-        <v>0.07374432516397417</v>
+        <v>0.06549369804455091</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.07642503600175402</v>
+        <v>0.04650593463969461</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.07265046154486021</v>
+        <v>0.06122025861023073</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02897886032205331</v>
+        <v>0.06167270111196582</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.03361479216216541</v>
+        <v>0.03014465499847685</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.3344222486513176</v>
+        <v>-0.3870528409123202</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1731608994717642</v>
+        <v>0.2180781385147474</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06197133803635945</v>
+        <v>0.05697612528558198</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001740670470082824</v>
+        <v>0.02445696718151332</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07765895164224107</v>
+        <v>0.05689367979245109</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1038121200109924</v>
+        <v>0.08153493997523921</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01530488234361197</v>
+        <v>0.006972832701426659</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0427594737859412</v>
+        <v>0.01260942386728068</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05157356729272647</v>
+        <v>0.109208141616906</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002697726588238655</v>
+        <v>0.02677760144726993</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01954638159971755</v>
+        <v>0.02876787487328181</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05129016647356789</v>
+        <v>0.012006507835023</v>
       </c>
       <c r="P13" t="n">
-        <v>0.002444399319041527</v>
+        <v>0.01482868181915239</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.08453729928585414</v>
+        <v>0.01333322330084768</v>
       </c>
       <c r="R13" t="n">
-        <v>0.06960214003439498</v>
+        <v>0.0515409819367976</v>
       </c>
       <c r="S13" t="n">
-        <v>0.005348363909592046</v>
+        <v>0.1050197852040032</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02798099119871903</v>
+        <v>0.07388773954352129</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01459136610772625</v>
+        <v>0.01454636187085636</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02829429415792878</v>
+        <v>0.02351034343106381</v>
       </c>
       <c r="W13" t="n">
-        <v>0.09400392544697619</v>
+        <v>0.04116415815764196</v>
       </c>
       <c r="X13" t="n">
-        <v>0.009888118179677843</v>
+        <v>0.0008441921237435471</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0003087514090382321</v>
+        <v>0.01254410086756964</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.1194114214821528</v>
+        <v>0.029234878050285</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.02524268884301217</v>
+        <v>0.09026506356468149</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.08999096238240657</v>
+        <v>0.1130763955538625</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.4613820846660743</v>
+        <v>-0.5023355914908951</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.261015827619246</v>
+        <v>0.2607130567395454</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0371150231328105</v>
+        <v>0.01626274517671743</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00604268166808365</v>
+        <v>0.03288103845817276</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08106716090207713</v>
+        <v>0.01234145645052198</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01653112648101075</v>
+        <v>0.009931292379411271</v>
       </c>
       <c r="J14" t="n">
-        <v>0.07297793306758169</v>
+        <v>0.0210801914774871</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00169701183675338</v>
+        <v>0.05082347440342881</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00265183128951016</v>
+        <v>0.0181497157596535</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03954017669716085</v>
+        <v>0.001024634486376827</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02342176793178561</v>
+        <v>0.01706647400175557</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03446605554993477</v>
+        <v>0.006662671390096648</v>
       </c>
       <c r="P14" t="n">
-        <v>0.06402715443906008</v>
+        <v>0.08955217756888831</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.004135224671082227</v>
+        <v>0.08089738111660097</v>
       </c>
       <c r="R14" t="n">
-        <v>0.09326090388460685</v>
+        <v>0.1133961193343686</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06932165636506112</v>
+        <v>0.1015067738633574</v>
       </c>
       <c r="T14" t="n">
-        <v>0.03523244521727558</v>
+        <v>0.05554798651597504</v>
       </c>
       <c r="U14" t="n">
-        <v>0.00706007992401336</v>
+        <v>0.06660142775997714</v>
       </c>
       <c r="V14" t="n">
-        <v>0.004212359703277804</v>
+        <v>0.003735032309445704</v>
       </c>
       <c r="W14" t="n">
-        <v>0.09699093129205531</v>
+        <v>0.06355148844542816</v>
       </c>
       <c r="X14" t="n">
-        <v>0.06021237993463926</v>
+        <v>0.09846884580392368</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.05714237281148096</v>
+        <v>0.061664091723545</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.06200319875339685</v>
+        <v>0.03647104072022006</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.05495523679372942</v>
+        <v>0.03738220025897429</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0759352876536127</v>
+        <v>0.00500174059567374</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.02061690549839621</v>
+        <v>-0.1013673296106214</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3565050439617842</v>
+        <v>0.366417765550333</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0430372563504909</v>
+        <v>0.02678168608515543</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02242500822155316</v>
+        <v>0.02656354765728566</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07210189330961479</v>
+        <v>0.04825526398378728</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01638225184376747</v>
+        <v>0.01595786897653105</v>
       </c>
       <c r="J15" t="n">
-        <v>0.008183960839330621</v>
+        <v>0.01970881942624739</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04773624996652622</v>
+        <v>0.048548942307066</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07234679248912147</v>
+        <v>0.05158900410343954</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03190374712956542</v>
+        <v>0.09603583092816455</v>
       </c>
       <c r="N15" t="n">
-        <v>0.009836362138636541</v>
+        <v>0.03310690308923039</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07458591031273949</v>
+        <v>0.01799060173790345</v>
       </c>
       <c r="P15" t="n">
-        <v>0.06678488578729296</v>
+        <v>0.01696773288931729</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.03772510768384392</v>
+        <v>0.0260396111400052</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02357800694058172</v>
+        <v>0.08279466278722486</v>
       </c>
       <c r="S15" t="n">
-        <v>0.06013767570005105</v>
+        <v>0.06072479995562073</v>
       </c>
       <c r="T15" t="n">
-        <v>0.07174142851768513</v>
+        <v>0.03716020224715324</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0321525799001898</v>
+        <v>0.03163568857948841</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1161786555620047</v>
+        <v>0.130991077713476</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1044355041748229</v>
+        <v>0.02752373656476959</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01797022391709123</v>
+        <v>0.01496787547760785</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.02296972085035131</v>
+        <v>0.08219875175249336</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.04024832744002853</v>
+        <v>0.02794601402844364</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.004150953407691187</v>
+        <v>0.05104921611987336</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.00338749751701963</v>
+        <v>0.02546216244971571</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.00673665435924105</v>
+        <v>0.03268301130920041</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2931130652573164</v>
+        <v>0.2983552434736537</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04412250184274254</v>
+        <v>0.04503700755566444</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01098899252100807</v>
+        <v>0.005514524525087273</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06434328066789954</v>
+        <v>0.07491385636844992</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02589541860166407</v>
+        <v>0.06548407570684536</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02221786661489829</v>
+        <v>0.01586545572687212</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03104098448724072</v>
+        <v>0.01224246299242883</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04322269790671537</v>
+        <v>0.01676608827552915</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03465967929388065</v>
+        <v>0.02657703155089263</v>
       </c>
       <c r="N16" t="n">
-        <v>0.00577082052785587</v>
+        <v>0.00452820022630997</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01617203081148272</v>
+        <v>0.03421689137692211</v>
       </c>
       <c r="P16" t="n">
-        <v>0.06012430997325188</v>
+        <v>0.06088799191258711</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0728403428151375</v>
+        <v>0.03741769583773817</v>
       </c>
       <c r="R16" t="n">
-        <v>0.07286270522778819</v>
+        <v>0.07086114863544261</v>
       </c>
       <c r="S16" t="n">
-        <v>0.09381687736682096</v>
+        <v>0.02780550376217285</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0009765086623720286</v>
+        <v>0.03214799528823053</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09120020198933816</v>
+        <v>0.018409000237046</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0007337912016961561</v>
+        <v>0.03986270593915661</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1061673305128043</v>
+        <v>0.06863190255622663</v>
       </c>
       <c r="X16" t="n">
-        <v>0.06767462163083948</v>
+        <v>0.07825066072846945</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.07532412856683013</v>
+        <v>0.03379479963346984</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.01842509616643847</v>
+        <v>0.08282288166238887</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.001780555402565929</v>
+        <v>0.06499383826681468</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.03963925720872891</v>
+        <v>0.08296828123525492</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.09554047758743031</v>
+        <v>0.1284386701063236</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7396788344102856</v>
+        <v>0.6260908363510386</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0247833839411104</v>
+        <v>0.009372364784185964</v>
       </c>
       <c r="G17" t="n">
-        <v>0.116483469583727</v>
+        <v>0.01337455935246505</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08484841193978898</v>
+        <v>0.04900649883342188</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03225844714811337</v>
+        <v>0.01885573959589182</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01126487149895234</v>
+        <v>0.03254908651092184</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04425357482508514</v>
+        <v>0.01021946508064287</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02317998895362125</v>
+        <v>0.005847247766094218</v>
       </c>
       <c r="M17" t="n">
-        <v>0.005474001128883655</v>
+        <v>0.02349457081536502</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1206740819858069</v>
+        <v>0.1243444858910554</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05150912970890622</v>
+        <v>0.03502854654669549</v>
       </c>
       <c r="P17" t="n">
-        <v>0.02425951878417557</v>
+        <v>0.09055130303373558</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02092439133747883</v>
+        <v>0.09147762448100288</v>
       </c>
       <c r="R17" t="n">
-        <v>0.04133789667061184</v>
+        <v>0.004559045758371801</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0209738572722975</v>
+        <v>0.0459605809759604</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0123806658492425</v>
+        <v>0.03371574143319302</v>
       </c>
       <c r="U17" t="n">
-        <v>0.002747036181091594</v>
+        <v>0.02647059686229672</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0941244391685095</v>
+        <v>0.105149068852713</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1061049362989992</v>
+        <v>0.03353834239814076</v>
       </c>
       <c r="X17" t="n">
-        <v>0.006174260415079238</v>
+        <v>0.02155623216681131</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.00211377703277449</v>
+        <v>0.1311937860823577</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.05572001847951832</v>
+        <v>0.05241312054608118</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.006023687712418569</v>
+        <v>0.0267783256798527</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.09238615408380754</v>
+        <v>0.01454366655274364</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.170513959199198</v>
+        <v>0.1518004176716578</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2849463664018336</v>
+        <v>0.2848206398010609</v>
       </c>
       <c r="F18" t="n">
-        <v>0.101930722387698</v>
+        <v>0.08935554445482205</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04474017859892041</v>
+        <v>0.006320864869167916</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0473082899185834</v>
+        <v>0.03063330166923418</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0324639293980825</v>
+        <v>0.02494172946672731</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04680836624130105</v>
+        <v>0.04481127396205442</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03108044030676353</v>
+        <v>0.007487021527152051</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001735195605078023</v>
+        <v>0.02152380240729006</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03971725928546709</v>
+        <v>0.03938535084760576</v>
       </c>
       <c r="N18" t="n">
-        <v>0.005152875741674845</v>
+        <v>0.05003362128385788</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0555683191687938</v>
+        <v>0.009268467097047341</v>
       </c>
       <c r="P18" t="n">
-        <v>0.100324480634811</v>
+        <v>0.08040981013572013</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.003930346368250454</v>
+        <v>0.05291335029120219</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0667889774207153</v>
+        <v>0.06154351043409737</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1099382106337353</v>
+        <v>0.07455635343835097</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02993404680462724</v>
+        <v>0.01717343461431126</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05012311431592904</v>
+        <v>0.05717641271871226</v>
       </c>
       <c r="V18" t="n">
-        <v>0.01357568189473206</v>
+        <v>0.0267957447226459</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1166407025710269</v>
+        <v>0.08400157141302479</v>
       </c>
       <c r="X18" t="n">
-        <v>0.02948694754260659</v>
+        <v>0.06462217837803355</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.004052599816986587</v>
+        <v>0.05503504506120031</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.02874982995463702</v>
+        <v>0.06872404941198458</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.003653983500622831</v>
+        <v>0.000689124480566319</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.03629550188895714</v>
+        <v>0.03259843731519149</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1477924947506347</v>
+        <v>0.1207208176661175</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.346431568211471</v>
+        <v>0.3573608259864683</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0002981124742118275</v>
+        <v>0.006271749930501151</v>
       </c>
       <c r="G19" t="n">
-        <v>0.006560587920028676</v>
+        <v>0.03723463319075049</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02697632696744248</v>
+        <v>0.03517816369820586</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1123371151002734</v>
+        <v>0.04841221123905827</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01475327700096843</v>
+        <v>0.02440522636082963</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002921061323610487</v>
+        <v>0.05851162530775503</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04247266709023033</v>
+        <v>0.05596057420539621</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02804726199105321</v>
+        <v>0.01722384212157386</v>
       </c>
       <c r="N19" t="n">
-        <v>0.05877268254306202</v>
+        <v>0.04216039358675893</v>
       </c>
       <c r="O19" t="n">
-        <v>0.025201263596531</v>
+        <v>0.03195019652832744</v>
       </c>
       <c r="P19" t="n">
-        <v>0.04933029863051509</v>
+        <v>0.01349517043425178</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.03959927442436193</v>
+        <v>0.1112011735987695</v>
       </c>
       <c r="R19" t="n">
-        <v>0.01045909532060632</v>
+        <v>0.08858054268487556</v>
       </c>
       <c r="S19" t="n">
-        <v>0.07440856340596406</v>
+        <v>0.01419943997229829</v>
       </c>
       <c r="T19" t="n">
-        <v>0.03185957965180752</v>
+        <v>0.002098268676674168</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03689849825475281</v>
+        <v>0.0504920853311917</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1136945084793387</v>
+        <v>0.1182540622721812</v>
       </c>
       <c r="W19" t="n">
-        <v>0.07108621139404489</v>
+        <v>0.001634390081473983</v>
       </c>
       <c r="X19" t="n">
-        <v>0.02102854362855376</v>
+        <v>0.100457044812284</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.03664078181532335</v>
+        <v>0.06080182716338409</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.09517819891984915</v>
+        <v>0.02546445822737228</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.1001152293825532</v>
+        <v>0.05218092213180749</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.00136086068491747</v>
+        <v>0.003831998444279074</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1289239316496003</v>
+        <v>0.1317670490046652</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.2898371692354336</v>
+        <v>0.2943073884761951</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09906991953517735</v>
+        <v>0.01793197654722013</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008720413715847043</v>
+        <v>0.04732159429366185</v>
       </c>
       <c r="H20" t="n">
-        <v>0.007058312944472629</v>
+        <v>0.01324112342992384</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03747460556555399</v>
+        <v>0.03181160488411786</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03867190619175892</v>
+        <v>0.005643986133077403</v>
       </c>
       <c r="K20" t="n">
-        <v>0.006221299873671498</v>
+        <v>0.05929868436122768</v>
       </c>
       <c r="L20" t="n">
-        <v>0.007990290716313376</v>
+        <v>0.007466474512149249</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03321779484347323</v>
+        <v>0.008434473554508074</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01915602711691186</v>
+        <v>0.0005782199040319017</v>
       </c>
       <c r="O20" t="n">
-        <v>0.06953123111493882</v>
+        <v>0.02748529671514165</v>
       </c>
       <c r="P20" t="n">
-        <v>0.08960734821486219</v>
+        <v>0.001374777151906024</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.03575287146091592</v>
+        <v>0.08078588828005769</v>
       </c>
       <c r="R20" t="n">
-        <v>0.04022473659458561</v>
+        <v>0.05930871152398889</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1064585036406401</v>
+        <v>0.07417192568749072</v>
       </c>
       <c r="T20" t="n">
-        <v>0.029470678862899</v>
+        <v>0.009195325970224932</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06581217790846061</v>
+        <v>0.02567202048502422</v>
       </c>
       <c r="V20" t="n">
-        <v>0.01756413053297173</v>
+        <v>0.0219847081633226</v>
       </c>
       <c r="W20" t="n">
-        <v>0.05706640830992237</v>
+        <v>0.09215608157122987</v>
       </c>
       <c r="X20" t="n">
-        <v>0.06656521257189058</v>
+        <v>0.08048229266189741</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.0225912683038964</v>
+        <v>0.06769360811707832</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.05703056856258117</v>
+        <v>0.07263470198762266</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.048013160065523</v>
+        <v>0.08948330300782435</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.03673113335273267</v>
+        <v>0.1058432210572726</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.03745304874645877</v>
+        <v>0.04108054488050385</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.343120178032128</v>
+        <v>0.3254781233353415</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0143685396929222</v>
+        <v>0.03567320383462939</v>
       </c>
       <c r="G21" t="n">
-        <v>0.004236835184829091</v>
+        <v>0.01487939850595451</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0318723293604195</v>
+        <v>0.02565711309220892</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04882218713235977</v>
+        <v>0.02166655116721515</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08446692660614624</v>
+        <v>0.03681563667285948</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05731035865402372</v>
+        <v>0.002435723450599535</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04182705552477833</v>
+        <v>0.01198838213950574</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01697368715061072</v>
+        <v>0.02658761289447379</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02986670243829621</v>
+        <v>0.02600075761965216</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03618006912897577</v>
+        <v>0.09957065873062872</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0186925814565915</v>
+        <v>0.04796591400487538</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0498496478281131</v>
+        <v>0.05979572947681017</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1009407522919473</v>
+        <v>0.1240909503361741</v>
       </c>
       <c r="S21" t="n">
-        <v>0.006498209820498732</v>
+        <v>0.07570835539159687</v>
       </c>
       <c r="T21" t="n">
-        <v>0.03749797203469287</v>
+        <v>0.05728746659276771</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04966625330425384</v>
+        <v>0.01269351644251482</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1054536867182826</v>
+        <v>0.06772369436210152</v>
       </c>
       <c r="W21" t="n">
-        <v>0.08840843574443172</v>
+        <v>0.02702310407196678</v>
       </c>
       <c r="X21" t="n">
-        <v>0.07557792780783308</v>
+        <v>0.01088851149620936</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.004863010651174712</v>
+        <v>0.05991193297303899</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.007399007219954986</v>
+        <v>0.05481459265426544</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.04505293670229992</v>
+        <v>0.0113932229417447</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.04417488754656405</v>
+        <v>0.08942797114820693</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.05125488140918474</v>
+        <v>0.03634350327225206</v>
       </c>
     </row>
     <row r="22">
@@ -2495,76 +2495,76 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.3162433219146574</v>
+        <v>0.3156315895949437</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01051400678526498</v>
+        <v>0.02041142165829045</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01604124963045556</v>
+        <v>0.02784580622813778</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01724834327964606</v>
+        <v>0.03049414857852533</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02588222719236924</v>
+        <v>0.09548194946261519</v>
       </c>
       <c r="J22" t="n">
-        <v>0.08244001760657187</v>
+        <v>0.04470944400158745</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01625601365228262</v>
+        <v>0.004794511974012912</v>
       </c>
       <c r="L22" t="n">
-        <v>0.008667211968953403</v>
+        <v>0.0347138421582003</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01954466620065757</v>
+        <v>0.02290114682913875</v>
       </c>
       <c r="N22" t="n">
-        <v>0.002425350240259615</v>
+        <v>0.004734741779086053</v>
       </c>
       <c r="O22" t="n">
-        <v>0.08568841706918795</v>
+        <v>0.09844475810644705</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0800136284768824</v>
+        <v>0.09376269399534314</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.05342540256886543</v>
+        <v>0.05261648211903117</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0001820219499277668</v>
+        <v>0.009659505964921926</v>
       </c>
       <c r="S22" t="n">
-        <v>0.07782949033297799</v>
+        <v>0.06250463931082054</v>
       </c>
       <c r="T22" t="n">
-        <v>0.06299990741889545</v>
+        <v>0.0151215432899968</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009581982811394522</v>
+        <v>0.01677045162878594</v>
       </c>
       <c r="V22" t="n">
-        <v>0.05253384147204104</v>
+        <v>0.03557813288843002</v>
       </c>
       <c r="W22" t="n">
-        <v>0.07360808810663541</v>
+        <v>0.07629174513363367</v>
       </c>
       <c r="X22" t="n">
-        <v>0.08649496267510243</v>
+        <v>0.06450531719221754</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.08203948320794797</v>
+        <v>0.08124004798619447</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.04588920191767056</v>
+        <v>0.01634969613655568</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.07747283884655919</v>
+        <v>0.0433327134430326</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0132216465894511</v>
+        <v>0.0477352601349953</v>
       </c>
       <c r="AC22" t="inlineStr"/>
     </row>
@@ -2588,76 +2588,76 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.4221379319360357</v>
+        <v>0.3945896890401628</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05381961796557661</v>
+        <v>0.0542025668592871</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02132071878369051</v>
+        <v>0.03303977547458017</v>
       </c>
       <c r="H23" t="n">
-        <v>0.003902687661950399</v>
+        <v>0.05486605344076088</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02394248801780213</v>
+        <v>0.02566612917659424</v>
       </c>
       <c r="J23" t="n">
-        <v>0.00792582892493782</v>
+        <v>0.05755829118050281</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1095828173899254</v>
+        <v>0.01529548064869417</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01200788698379766</v>
+        <v>0.07227254776022811</v>
       </c>
       <c r="M23" t="n">
-        <v>0.06773363209905499</v>
+        <v>0.0413618456530884</v>
       </c>
       <c r="N23" t="n">
-        <v>0.02118553401546279</v>
+        <v>0.0349925626888534</v>
       </c>
       <c r="O23" t="n">
-        <v>0.000499713637946712</v>
+        <v>0.03690980524400927</v>
       </c>
       <c r="P23" t="n">
-        <v>0.04437828211410878</v>
+        <v>0.01835479370221873</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0002775763154328129</v>
+        <v>0.009203543283304885</v>
       </c>
       <c r="R23" t="n">
-        <v>0.01463706076081215</v>
+        <v>0.002937706155258982</v>
       </c>
       <c r="S23" t="n">
-        <v>0.02633941692388278</v>
+        <v>0.07478829481535926</v>
       </c>
       <c r="T23" t="n">
-        <v>0.04802614857019412</v>
+        <v>0.06730631525905054</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07991188688981989</v>
+        <v>0.02504605368182734</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1160267502258195</v>
+        <v>0.09902838025733396</v>
       </c>
       <c r="W23" t="n">
-        <v>0.03045596451295927</v>
+        <v>0.001963381122792929</v>
       </c>
       <c r="X23" t="n">
-        <v>0.04843742453808836</v>
+        <v>0.04812109265403004</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.06295679898920241</v>
+        <v>0.001849595263578212</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.08922498090714592</v>
+        <v>0.07789403636494956</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.004782251334560535</v>
+        <v>0.08023593970345431</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.1126245324378285</v>
+        <v>0.06710580961024265</v>
       </c>
       <c r="AC23" t="inlineStr"/>
     </row>
@@ -2681,79 +2681,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2868750104436324</v>
+        <v>0.2855843993062486</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03289856110996107</v>
+        <v>0.01136925032208348</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001949339004195611</v>
+        <v>0.003394061691008562</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02075967393166689</v>
+        <v>0.01425401579893309</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02507900164435603</v>
+        <v>0.06751110015830709</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0739239392210507</v>
+        <v>0.01136984317866621</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04581744490287389</v>
+        <v>0.009280542356949991</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002391977245728045</v>
+        <v>0.01442055274543797</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01263926216056818</v>
+        <v>0.05039594562106707</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01265820026987006</v>
+        <v>0.01977722112778604</v>
       </c>
       <c r="O24" t="n">
-        <v>0.05209043754514626</v>
+        <v>0.02528389598710972</v>
       </c>
       <c r="P24" t="n">
-        <v>0.08418272834418598</v>
+        <v>0.05504132721512994</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.00089725356477175</v>
+        <v>0.07225015297207296</v>
       </c>
       <c r="R24" t="n">
-        <v>0.09056459776722707</v>
+        <v>0.09314039107234591</v>
       </c>
       <c r="S24" t="n">
-        <v>0.04149545067095335</v>
+        <v>0.09808352357158696</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1099257229382415</v>
+        <v>0.03354993039818805</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03376637101168969</v>
+        <v>0.03361107039985907</v>
       </c>
       <c r="V24" t="n">
-        <v>0.006656239214387268</v>
+        <v>0.03538567411858094</v>
       </c>
       <c r="W24" t="n">
-        <v>0.05070814074011949</v>
+        <v>0.03958335666408396</v>
       </c>
       <c r="X24" t="n">
-        <v>0.004028282609458533</v>
+        <v>0.07913801503352778</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.08902766047733793</v>
+        <v>0.02884988998907903</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.1012790017172263</v>
+        <v>0.07045825518053631</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.001885804924372895</v>
+        <v>0.03738690291630913</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.1053749089846114</v>
+        <v>0.09646508148135059</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1235072555826055</v>
+        <v>0.1112481793794625</v>
       </c>
     </row>
     <row r="25">
@@ -2776,79 +2776,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.315432749549564</v>
+        <v>0.378723844059834</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08676515292442931</v>
+        <v>0.08681852438441577</v>
       </c>
       <c r="G25" t="n">
-        <v>0.005535034973799811</v>
+        <v>0.03979349500902757</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01833615973897901</v>
+        <v>0.01770637680646407</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03682719967141881</v>
+        <v>0.01546093957170626</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0627120841249563</v>
+        <v>0.006919197798876698</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01185816968463597</v>
+        <v>0.01430981340482074</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08410216992143896</v>
+        <v>0.1133975779253173</v>
       </c>
       <c r="M25" t="n">
-        <v>0.007198119218927204</v>
+        <v>0.03928062759395332</v>
       </c>
       <c r="N25" t="n">
-        <v>0.004376841274082117</v>
+        <v>0.0411342834154888</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02237874270588661</v>
+        <v>0.03308625655026968</v>
       </c>
       <c r="P25" t="n">
-        <v>0.04614053799879664</v>
+        <v>0.05741752885131895</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.09001579016328085</v>
+        <v>0.05757585932189307</v>
       </c>
       <c r="R25" t="n">
-        <v>0.06749978831178798</v>
+        <v>0.03963127864202468</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08203042117897764</v>
+        <v>0.05437099860672861</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01552233170921096</v>
+        <v>0.0021666605014291</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02149228697208719</v>
+        <v>0.03846566431752709</v>
       </c>
       <c r="V25" t="n">
-        <v>0.08687621001501346</v>
+        <v>0.1151941439742932</v>
       </c>
       <c r="W25" t="n">
-        <v>0.06416902654767617</v>
+        <v>0.05908062898926823</v>
       </c>
       <c r="X25" t="n">
-        <v>0.006377204342409856</v>
+        <v>0.006281762487249027</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0133523163359358</v>
+        <v>0.01773049687588969</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.08652913026119466</v>
+        <v>0.02110279996614124</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01256090880658576</v>
+        <v>0.04361184559511616</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.06734437311848884</v>
+        <v>0.07946323941078073</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1421105134938156</v>
+        <v>0.1401739454478299</v>
       </c>
     </row>
     <row r="26">
@@ -2871,79 +2871,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.2595260360511611</v>
+        <v>0.2604941018003265</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0708891604291863</v>
+        <v>0.007158485761988411</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02800453217158289</v>
+        <v>0.02826812318904554</v>
       </c>
       <c r="H26" t="n">
-        <v>0.05249429741345221</v>
+        <v>0.0001417112146806111</v>
       </c>
       <c r="I26" t="n">
-        <v>0.09486415039869471</v>
+        <v>0.0463994623123481</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0955726181165784</v>
+        <v>0.06645954956163003</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01180916792585545</v>
+        <v>0.03755322527659509</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03817324514413137</v>
+        <v>0.04686674703629902</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02865404042604492</v>
+        <v>0.01162753362446444</v>
       </c>
       <c r="N26" t="n">
-        <v>0.03842636300403422</v>
+        <v>0.00273748588242956</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01356344645937046</v>
+        <v>0.1009024341058864</v>
       </c>
       <c r="P26" t="n">
-        <v>0.09464402026035336</v>
+        <v>0.106313956195142</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.08870513487651402</v>
+        <v>0.1042256738002397</v>
       </c>
       <c r="R26" t="n">
-        <v>0.05754278778694286</v>
+        <v>0.01917463392524086</v>
       </c>
       <c r="S26" t="n">
-        <v>0.04491765303134126</v>
+        <v>0.09518819851547063</v>
       </c>
       <c r="T26" t="n">
-        <v>0.02746001164736154</v>
+        <v>0.02017007252838854</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01602479115828826</v>
+        <v>0.005284502212363595</v>
       </c>
       <c r="V26" t="n">
-        <v>0.006138753141177234</v>
+        <v>0.003994941954863407</v>
       </c>
       <c r="W26" t="n">
-        <v>0.05954157305746293</v>
+        <v>0.03213725796811787</v>
       </c>
       <c r="X26" t="n">
-        <v>0.009248498241351377</v>
+        <v>0.05945027604624863</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.07737471910465507</v>
+        <v>0.04687229319009197</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.02792924141328403</v>
+        <v>0.1059014423635002</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.008238215499464631</v>
+        <v>0.04890036052484441</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.009783579292872588</v>
+        <v>0.004271632810121077</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.07102960209538932</v>
+        <v>0.06757116481109801</v>
       </c>
     </row>
     <row r="27">
@@ -2966,79 +2966,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.3995897255056916</v>
+        <v>0.4033724307880145</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0703890645173022</v>
+        <v>0.02647522635094346</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08176481743207163</v>
+        <v>0.03059737906519755</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01453330196399866</v>
+        <v>0.02473707189032732</v>
       </c>
       <c r="I27" t="n">
-        <v>0.009264668132150955</v>
+        <v>0.04682919063036687</v>
       </c>
       <c r="J27" t="n">
-        <v>0.02873385028371167</v>
+        <v>0.0003146539168190536</v>
       </c>
       <c r="K27" t="n">
-        <v>0.006349617734345449</v>
+        <v>0.05794222529561151</v>
       </c>
       <c r="L27" t="n">
-        <v>0.08701901516909444</v>
+        <v>0.05068996551895592</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02992254755665358</v>
+        <v>0.05051177486392229</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0151592869091126</v>
+        <v>0.008604513763357441</v>
       </c>
       <c r="O27" t="n">
-        <v>0.03029102134394604</v>
+        <v>0.06333283893512955</v>
       </c>
       <c r="P27" t="n">
-        <v>0.08255277618736553</v>
+        <v>0.107486297696952</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.001249702700392741</v>
+        <v>0.01409345457277475</v>
       </c>
       <c r="R27" t="n">
-        <v>0.07049291052662708</v>
+        <v>0.06355371918628711</v>
       </c>
       <c r="S27" t="n">
-        <v>0.02855176014759683</v>
+        <v>0.0002366592502644064</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0261485355726741</v>
+        <v>0.07210132962955774</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06195619747069971</v>
+        <v>0.03741481218717867</v>
       </c>
       <c r="V27" t="n">
-        <v>0.005011439006665759</v>
+        <v>0.001967011626563214</v>
       </c>
       <c r="W27" t="n">
-        <v>0.002096076842709035</v>
+        <v>0.05921141643538315</v>
       </c>
       <c r="X27" t="n">
-        <v>0.09022022200562223</v>
+        <v>0.1066149472350338</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.1000053494965522</v>
+        <v>0.03079178173313839</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.04240809110850045</v>
+        <v>0.02642001565036597</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.1111120784193646</v>
+        <v>0.1077703210058903</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.004767669472842488</v>
+        <v>0.01230339355997929</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.05307141518690633</v>
+        <v>0.07280490676445721</v>
       </c>
     </row>
     <row r="28">
@@ -3061,79 +3061,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2017115426151402</v>
+        <v>0.2023668888895845</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01370362880654887</v>
+        <v>0.01552001697590921</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03777445997059</v>
+        <v>0.01176123017060222</v>
       </c>
       <c r="H28" t="n">
-        <v>0.03554576154296367</v>
+        <v>0.02885650985473075</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04763051486853442</v>
+        <v>0.04198694199070182</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01075957328202414</v>
+        <v>0.01542934366139448</v>
       </c>
       <c r="K28" t="n">
-        <v>0.001094448097842214</v>
+        <v>0.06040448519826906</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0379291594496387</v>
+        <v>0.04914791934371784</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07920073340313101</v>
+        <v>0.05461832434345629</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0682716108592672</v>
+        <v>0.07941094682033958</v>
       </c>
       <c r="O28" t="n">
-        <v>0.04613374182885526</v>
+        <v>0.009426680745403503</v>
       </c>
       <c r="P28" t="n">
-        <v>0.01327069397796276</v>
+        <v>0.08371072368086147</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02290616825962206</v>
+        <v>0.07363907872110741</v>
       </c>
       <c r="R28" t="n">
-        <v>0.05962853576510015</v>
+        <v>0.0689898661939395</v>
       </c>
       <c r="S28" t="n">
-        <v>0.08112285026993758</v>
+        <v>0.05766841810005446</v>
       </c>
       <c r="T28" t="n">
-        <v>0.03857445628868808</v>
+        <v>0.03338544731653616</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1001934682572839</v>
+        <v>0.06924140445118936</v>
       </c>
       <c r="V28" t="n">
-        <v>0.07785592631731733</v>
+        <v>0.01624812546484906</v>
       </c>
       <c r="W28" t="n">
-        <v>0.07141842630588627</v>
+        <v>0.06323034470707081</v>
       </c>
       <c r="X28" t="n">
-        <v>0.08625498106240907</v>
+        <v>0.05617345046446587</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.03373083294339627</v>
+        <v>0.01368301551729924</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.01632470119787596</v>
+        <v>0.03100285418788539</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.001967219467207127</v>
+        <v>0.007971141948309796</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.01870810777791796</v>
+        <v>0.05849373014190668</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.2452386513473724</v>
+        <v>-0.2511424702665349</v>
       </c>
     </row>
     <row r="29">
@@ -3156,79 +3156,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2445528864025754</v>
+        <v>0.2391363436371227</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09858778199307432</v>
+        <v>0.03026961725005064</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01358916552819872</v>
+        <v>0.004284882009342439</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05787930846464555</v>
+        <v>0.1009234347260379</v>
       </c>
       <c r="I29" t="n">
-        <v>0.002793738215656921</v>
+        <v>0.03691749856303231</v>
       </c>
       <c r="J29" t="n">
-        <v>0.08719103066249509</v>
+        <v>0.06636102929652947</v>
       </c>
       <c r="K29" t="n">
-        <v>0.06148077093128284</v>
+        <v>0.05107406342137914</v>
       </c>
       <c r="L29" t="n">
-        <v>0.06788638177761315</v>
+        <v>0.0501302506630831</v>
       </c>
       <c r="M29" t="n">
-        <v>0.03148255177853782</v>
+        <v>0.001276143415236345</v>
       </c>
       <c r="N29" t="n">
-        <v>0.03755916659594827</v>
+        <v>0.007136002759593296</v>
       </c>
       <c r="O29" t="n">
-        <v>0.05257167474384466</v>
+        <v>0.03539151593751849</v>
       </c>
       <c r="P29" t="n">
-        <v>0.001960649881183934</v>
+        <v>0.09372103866116874</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01021981523729833</v>
+        <v>0.07182979307848421</v>
       </c>
       <c r="R29" t="n">
-        <v>0.02374282164031521</v>
+        <v>0.02335451861684648</v>
       </c>
       <c r="S29" t="n">
-        <v>0.04666454847614507</v>
+        <v>0.0821559216003425</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0236797786794481</v>
+        <v>0.009358007236507808</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04303929267039314</v>
+        <v>0.05512055706361051</v>
       </c>
       <c r="V29" t="n">
-        <v>0.07150922471988912</v>
+        <v>0.05952189246964535</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03167153566328845</v>
+        <v>0.009399755422038502</v>
       </c>
       <c r="X29" t="n">
-        <v>0.06903842841310434</v>
+        <v>0.04749262187162172</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.002875494208408313</v>
+        <v>0.002440471727155924</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.07530752518393841</v>
+        <v>0.05076366472773094</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.01694536083214706</v>
+        <v>0.01491454026645198</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.07232395370314312</v>
+        <v>0.09616277921659232</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.2151914162002302</v>
+        <v>-0.2221356457444656</v>
       </c>
     </row>
     <row r="30">
@@ -3251,79 +3251,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.182822447222791</v>
+        <v>0.1797686503491638</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0777256399681887</v>
+        <v>0.05379110690114045</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0008731145407638574</v>
+        <v>0.07402273130724978</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02837385270811219</v>
+        <v>0.02566202069740788</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03178092245213339</v>
+        <v>0.03877708306023439</v>
       </c>
       <c r="J30" t="n">
-        <v>0.02009770215363768</v>
+        <v>0.006305193324131946</v>
       </c>
       <c r="K30" t="n">
-        <v>0.02414240776099833</v>
+        <v>0.02873853966976123</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02544378716964333</v>
+        <v>0.04019533398754437</v>
       </c>
       <c r="M30" t="n">
-        <v>0.09469106918845814</v>
+        <v>0.05411167061877139</v>
       </c>
       <c r="N30" t="n">
-        <v>0.001182607118437485</v>
+        <v>0.002713765049194608</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0230743094638011</v>
+        <v>0.07535961337030578</v>
       </c>
       <c r="P30" t="n">
-        <v>0.08928620971950192</v>
+        <v>0.07738037421706236</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.08289684347390364</v>
+        <v>0.03654888400263112</v>
       </c>
       <c r="R30" t="n">
-        <v>0.06986243652242104</v>
+        <v>0.09292002426638182</v>
       </c>
       <c r="S30" t="n">
-        <v>0.00198806054693748</v>
+        <v>0.03560568178787535</v>
       </c>
       <c r="T30" t="n">
-        <v>0.02489664366339469</v>
+        <v>0.01166346516257722</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07463276777813338</v>
+        <v>0.01995639632306416</v>
       </c>
       <c r="V30" t="n">
-        <v>0.06279491251302025</v>
+        <v>0.004570140527157911</v>
       </c>
       <c r="W30" t="n">
-        <v>0.07844949802877182</v>
+        <v>0.06283978261106649</v>
       </c>
       <c r="X30" t="n">
-        <v>0.1007634249599671</v>
+        <v>0.07499462075709942</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.003616596008444732</v>
+        <v>0.03920701846626069</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.06120151451499968</v>
+        <v>0.03394562648206183</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.01959166713110693</v>
+        <v>0.02674806309843402</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.002634012615223196</v>
+        <v>0.08394286431258566</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.05790894186927832</v>
+        <v>0.05440179504616999</v>
       </c>
     </row>
     <row r="31">
@@ -3346,79 +3346,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2538888354000039</v>
+        <v>0.260146029746486</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08446893902712757</v>
+        <v>0.01067170866209393</v>
       </c>
       <c r="G31" t="n">
-        <v>0.007479277657059915</v>
+        <v>0.02355711513336122</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0930622853578926</v>
+        <v>0.09534046014401598</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01953405092888288</v>
+        <v>0.01178904731875947</v>
       </c>
       <c r="J31" t="n">
-        <v>0.09674791416295636</v>
+        <v>0.08471527832232206</v>
       </c>
       <c r="K31" t="n">
-        <v>0.04655418787643597</v>
+        <v>0.08613785693918828</v>
       </c>
       <c r="L31" t="n">
-        <v>0.04989021790156319</v>
+        <v>0.06773157676690729</v>
       </c>
       <c r="M31" t="n">
-        <v>0.04957561529639118</v>
+        <v>0.0040323142499401</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0005424096979363639</v>
+        <v>0.02104549003677314</v>
       </c>
       <c r="O31" t="n">
-        <v>0.02927002862945733</v>
+        <v>0.02836903815130273</v>
       </c>
       <c r="P31" t="n">
-        <v>0.01117029808576628</v>
+        <v>0.02332135498955546</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.004144719934520459</v>
+        <v>0.0474531518614418</v>
       </c>
       <c r="R31" t="n">
-        <v>0.06844294481349214</v>
+        <v>0.09126132930916715</v>
       </c>
       <c r="S31" t="n">
-        <v>0.07927924498302441</v>
+        <v>0.09306663413235215</v>
       </c>
       <c r="T31" t="n">
-        <v>0.02752910446371425</v>
+        <v>0.001020914458863934</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01014805538153738</v>
+        <v>0.01101415923163151</v>
       </c>
       <c r="V31" t="n">
-        <v>0.09041655356641688</v>
+        <v>0.09862517113371896</v>
       </c>
       <c r="W31" t="n">
-        <v>0.07199415607278159</v>
+        <v>0.009827320367746105</v>
       </c>
       <c r="X31" t="n">
-        <v>0.01656682402041812</v>
+        <v>0.005697891239280037</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.007952977004678776</v>
+        <v>0.02118014385252554</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.01676921352828797</v>
+        <v>0.02552500067102907</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.09621571424327492</v>
+        <v>0.08188960683978314</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.02224526736638325</v>
+        <v>0.05672743618824076</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.03341692154470394</v>
+        <v>0.0202199629916218</v>
       </c>
     </row>
     <row r="32">
@@ -3441,79 +3441,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1942156521413657</v>
+        <v>0.1985707930219057</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04845803586997784</v>
+        <v>0.09736983001207392</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03724361400621226</v>
+        <v>0.03129349560552295</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04895473094830997</v>
+        <v>0.03850328273621071</v>
       </c>
       <c r="I32" t="n">
-        <v>0.08709736847065444</v>
+        <v>0.03305428572024455</v>
       </c>
       <c r="J32" t="n">
-        <v>0.02092644269488544</v>
+        <v>0.0111011600030369</v>
       </c>
       <c r="K32" t="n">
-        <v>0.03113010784645448</v>
+        <v>0.008286944675957083</v>
       </c>
       <c r="L32" t="n">
-        <v>0.001892716866770745</v>
+        <v>0.01611980207905383</v>
       </c>
       <c r="M32" t="n">
-        <v>0.03877767627498873</v>
+        <v>0.09464355283245533</v>
       </c>
       <c r="N32" t="n">
-        <v>0.001050384722704037</v>
+        <v>0.04025142746015956</v>
       </c>
       <c r="O32" t="n">
-        <v>0.07472244234365273</v>
+        <v>0.08532362379659351</v>
       </c>
       <c r="P32" t="n">
-        <v>0.06843028252344779</v>
+        <v>0.01411302717158999</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.04404958636496428</v>
+        <v>0.009634638355073298</v>
       </c>
       <c r="R32" t="n">
-        <v>0.09275490389716511</v>
+        <v>0.1008798097427402</v>
       </c>
       <c r="S32" t="n">
-        <v>0.03754510288207672</v>
+        <v>0.01848885393849844</v>
       </c>
       <c r="T32" t="n">
-        <v>0.01459145823635967</v>
+        <v>0.03086013581164717</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03465866803084691</v>
+        <v>0.09535850122220456</v>
       </c>
       <c r="V32" t="n">
-        <v>0.04926833551600879</v>
+        <v>0.04227528928458468</v>
       </c>
       <c r="W32" t="n">
-        <v>0.09554673128102828</v>
+        <v>0.06602870691324454</v>
       </c>
       <c r="X32" t="n">
-        <v>0.03912134340177392</v>
+        <v>0.01518189711916596</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.02002004605098529</v>
+        <v>0.0007201631587311048</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.09305752361326973</v>
+        <v>0.0727555278136086</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.01850189347134078</v>
+        <v>0.06083005010964924</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.002200604686121995</v>
+        <v>0.01692599443795396</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.1015477856189285</v>
+        <v>0.1147697996080134</v>
       </c>
     </row>
     <row r="33">
@@ -3536,79 +3536,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.2369726943517158</v>
+        <v>0.2416293936386582</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06345501878050248</v>
+        <v>0.01232671157264533</v>
       </c>
       <c r="G33" t="n">
-        <v>0.006619689127565305</v>
+        <v>0.03018436964160497</v>
       </c>
       <c r="H33" t="n">
-        <v>0.04448881504145036</v>
+        <v>0.1245502399858509</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02958982736902538</v>
+        <v>0.008873173198817155</v>
       </c>
       <c r="J33" t="n">
-        <v>0.05251161955205024</v>
+        <v>0.04808207623322724</v>
       </c>
       <c r="K33" t="n">
-        <v>0.04755030605111828</v>
+        <v>0.02308990289290997</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03363299671715721</v>
+        <v>0.001847916791499592</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1145788220294881</v>
+        <v>0.08562544135413892</v>
       </c>
       <c r="N33" t="n">
-        <v>0.05771635721866567</v>
+        <v>0.0812956629659331</v>
       </c>
       <c r="O33" t="n">
-        <v>0.02700931423129402</v>
+        <v>0.00589232285425255</v>
       </c>
       <c r="P33" t="n">
-        <v>0.003967459262845802</v>
+        <v>0.05158121079756213</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.01439171685407393</v>
+        <v>0.0001790228888958266</v>
       </c>
       <c r="R33" t="n">
-        <v>0.08419864866020016</v>
+        <v>0.1118933708721168</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0979512856239302</v>
+        <v>0.09237050194824807</v>
       </c>
       <c r="T33" t="n">
-        <v>0.02140803193511881</v>
+        <v>0.05100879317308456</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02558032879822342</v>
+        <v>0.006363368949203183</v>
       </c>
       <c r="V33" t="n">
-        <v>0.07533839577405617</v>
+        <v>0.1308596868121217</v>
       </c>
       <c r="W33" t="n">
-        <v>0.1022587592699707</v>
+        <v>0.01442468860145445</v>
       </c>
       <c r="X33" t="n">
-        <v>0.007402387503772314</v>
+        <v>0.04117240663182801</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.01371280121560373</v>
+        <v>0.0466012956206923</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.05932696042394117</v>
+        <v>0.0188380153137635</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.01613910524538734</v>
+        <v>0.00466989318391268</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.001171353314559194</v>
+        <v>0.008269927716236853</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.1255211020138767</v>
+        <v>0.1148658987707932</v>
       </c>
     </row>
     <row r="34">
@@ -3631,79 +3631,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.2357388124215415</v>
+        <v>0.2339511416155963</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02972202181535586</v>
+        <v>0.04620337302731979</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07910142009276329</v>
+        <v>0.0766837326647572</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0186855871628416</v>
+        <v>0.003599811010236571</v>
       </c>
       <c r="I34" t="n">
-        <v>0.08790976398207016</v>
+        <v>0.02060430613520431</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01877986616550831</v>
+        <v>0.02068963902888834</v>
       </c>
       <c r="K34" t="n">
-        <v>0.007432328518749731</v>
+        <v>0.01578583541351392</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0578619387232459</v>
+        <v>0.07628242097495765</v>
       </c>
       <c r="M34" t="n">
-        <v>0.06016147314051112</v>
+        <v>0.08055428039347945</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0101232121747765</v>
+        <v>0.004550905801146119</v>
       </c>
       <c r="O34" t="n">
-        <v>0.07977716544170683</v>
+        <v>0.03784552258191404</v>
       </c>
       <c r="P34" t="n">
-        <v>0.005661772668823906</v>
+        <v>0.03734922135733117</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.09253580831956154</v>
+        <v>0.03431165420790275</v>
       </c>
       <c r="R34" t="n">
-        <v>0.07405943576521798</v>
+        <v>0.06613405482077266</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0773013476049301</v>
+        <v>0.07513927426934346</v>
       </c>
       <c r="T34" t="n">
-        <v>0.04853721607585249</v>
+        <v>0.03900123189634805</v>
       </c>
       <c r="U34" t="n">
-        <v>0.007658574479779448</v>
+        <v>0.008826963976888513</v>
       </c>
       <c r="V34" t="n">
-        <v>0.004986259587343007</v>
+        <v>0.05121825807138017</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0007092471389120113</v>
+        <v>0.001453204403499198</v>
       </c>
       <c r="X34" t="n">
-        <v>0.02545507811800526</v>
+        <v>0.07707757079893626</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.08931832120235583</v>
+        <v>0.04318253447744251</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.08030246834925661</v>
+        <v>0.08393551309347598</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.0427568760958122</v>
+        <v>0.06039161309255147</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.001162817376620313</v>
+        <v>0.0391790785027104</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.0349750771785217</v>
+        <v>0.006739757988254588</v>
       </c>
     </row>
     <row r="35">
@@ -3726,79 +3726,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.4821622418162361</v>
+        <v>0.4862042293079697</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04559930099894342</v>
+        <v>0.02221617290916481</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03139866476319231</v>
+        <v>0.01879957417808666</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01576530350805542</v>
+        <v>0.01153044877425248</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01879566712771092</v>
+        <v>0.07746251224048252</v>
       </c>
       <c r="J35" t="n">
-        <v>0.04946618711417567</v>
+        <v>0.05738016521304571</v>
       </c>
       <c r="K35" t="n">
-        <v>0.01204094271356711</v>
+        <v>0.05813901609399837</v>
       </c>
       <c r="L35" t="n">
-        <v>0.00492274758976703</v>
+        <v>0.03231915828830341</v>
       </c>
       <c r="M35" t="n">
-        <v>0.03373633647028685</v>
+        <v>0.02263908818276978</v>
       </c>
       <c r="N35" t="n">
-        <v>0.05854768095401071</v>
+        <v>0.09991527586392084</v>
       </c>
       <c r="O35" t="n">
-        <v>0.03610658188494059</v>
+        <v>0.03404997825999311</v>
       </c>
       <c r="P35" t="n">
-        <v>0.08150460306945252</v>
+        <v>0.01845821725806722</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01032257443744147</v>
+        <v>0.03712957096553997</v>
       </c>
       <c r="R35" t="n">
-        <v>0.09961702088106048</v>
+        <v>0.02421712636834709</v>
       </c>
       <c r="S35" t="n">
-        <v>0.09241734616404322</v>
+        <v>0.08793761463258168</v>
       </c>
       <c r="T35" t="n">
-        <v>0.07385745828374239</v>
+        <v>0.001948767791805409</v>
       </c>
       <c r="U35" t="n">
-        <v>0.109912257924108</v>
+        <v>0.1100162367423361</v>
       </c>
       <c r="V35" t="n">
-        <v>0.007942019479695759</v>
+        <v>0.03870537748551654</v>
       </c>
       <c r="W35" t="n">
-        <v>0.009479419726890249</v>
+        <v>0.001604118090955384</v>
       </c>
       <c r="X35" t="n">
-        <v>0.007869254973145848</v>
+        <v>0.001596891912889157</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.04399875498914391</v>
+        <v>0.0607174966286364</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01242791660965961</v>
+        <v>0.03265734489101119</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.09417414976751882</v>
+        <v>0.06516409236164916</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.05009781056944772</v>
+        <v>0.08539575486664691</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.02175900263570801</v>
+        <v>0.006582357565931249</v>
       </c>
     </row>
     <row r="36">
@@ -3821,79 +3821,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.2094115217323856</v>
+        <v>0.2119038866988405</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01899947342184571</v>
+        <v>0.09759416390125379</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00139220651391183</v>
+        <v>0.006561889633008991</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03666303567969416</v>
+        <v>0.04580426666544747</v>
       </c>
       <c r="I36" t="n">
-        <v>0.06460217465918644</v>
+        <v>0.03731612447598827</v>
       </c>
       <c r="J36" t="n">
-        <v>0.04162018398499723</v>
+        <v>0.06288931877131393</v>
       </c>
       <c r="K36" t="n">
-        <v>0.005554029271366005</v>
+        <v>0.01647280406981881</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02695227982284671</v>
+        <v>0.01272695844390673</v>
       </c>
       <c r="M36" t="n">
-        <v>0.04253077975774747</v>
+        <v>0.08317245036152877</v>
       </c>
       <c r="N36" t="n">
-        <v>0.07123897705073064</v>
+        <v>0.02658432813482903</v>
       </c>
       <c r="O36" t="n">
-        <v>0.000238565554047259</v>
+        <v>0.001486016175386951</v>
       </c>
       <c r="P36" t="n">
-        <v>0.07883216007430362</v>
+        <v>0.02947759333457269</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.06384429826129051</v>
+        <v>0.0319244949414439</v>
       </c>
       <c r="R36" t="n">
-        <v>0.0922524580137076</v>
+        <v>0.1012118795787646</v>
       </c>
       <c r="S36" t="n">
-        <v>0.07059176918915797</v>
+        <v>0.0748325902422199</v>
       </c>
       <c r="T36" t="n">
-        <v>0.05149468054803833</v>
+        <v>0.03233080691684564</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06357620157112996</v>
+        <v>0.0712339312495657</v>
       </c>
       <c r="V36" t="n">
-        <v>0.007916694954700283</v>
+        <v>0.06042318825020038</v>
       </c>
       <c r="W36" t="n">
-        <v>0.07315390646065141</v>
+        <v>0.0163027778932284</v>
       </c>
       <c r="X36" t="n">
-        <v>0.02972112122696844</v>
+        <v>0.01559507471848934</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.004045753016345304</v>
+        <v>0.03267503634507488</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.08020559633242537</v>
+        <v>0.02389404598603121</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.03657162827429088</v>
+        <v>0.09126446265654027</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.03800202636061681</v>
+        <v>0.02822579725454057</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.04969676838589746</v>
+        <v>0.05956327806959027</v>
       </c>
     </row>
     <row r="37">
@@ -3916,79 +3916,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.9967192402014692</v>
+        <v>0.8488096522843566</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08714046361279473</v>
+        <v>0.05017273032213898</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03995890900320061</v>
+        <v>0.000899653572879856</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01331919286532702</v>
+        <v>0.01620792329889193</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1102729430463544</v>
+        <v>0.1066905084733683</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01170470011668294</v>
+        <v>0.004476566404054727</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0350107342976986</v>
+        <v>0.009313650452192838</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01416046829207722</v>
+        <v>0.008062798196082448</v>
       </c>
       <c r="M37" t="n">
-        <v>0.02900117557071166</v>
+        <v>0.03192133358717338</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0942893408247039</v>
+        <v>0.00371965384842939</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1331845137177066</v>
+        <v>0.1129577918237021</v>
       </c>
       <c r="P37" t="n">
-        <v>0.019791681029979</v>
+        <v>0.1072277960605922</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.02440845317523278</v>
+        <v>0.08428357146228767</v>
       </c>
       <c r="R37" t="n">
-        <v>0.03113823991081798</v>
+        <v>0.1145500354092779</v>
       </c>
       <c r="S37" t="n">
-        <v>0.02234860770215161</v>
+        <v>0.04502267677512128</v>
       </c>
       <c r="T37" t="n">
-        <v>0.02231524192096914</v>
+        <v>0.01768212021852427</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0101871053979666</v>
+        <v>0.02826706878380107</v>
       </c>
       <c r="V37" t="n">
-        <v>0.002713123112280513</v>
+        <v>0.00995705472658924</v>
       </c>
       <c r="W37" t="n">
-        <v>0.05105614748291484</v>
+        <v>0.03666562565336801</v>
       </c>
       <c r="X37" t="n">
-        <v>0.00974901745290894</v>
+        <v>0.0225835432926051</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.02679987074595773</v>
+        <v>0.02977526766005649</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.07714925993852689</v>
+        <v>0.06368848592575027</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.01985505353691068</v>
+        <v>0.0906290773976821</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.1144457572461256</v>
+        <v>0.005245066655430642</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.09419931585721013</v>
+        <v>0.01330912456872372</v>
       </c>
     </row>
     <row r="38">
@@ -4011,79 +4011,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2189163736176243</v>
+        <v>0.2204474985379685</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02508238356715174</v>
+        <v>0.01015504044615423</v>
       </c>
       <c r="G38" t="n">
-        <v>0.08105127007347429</v>
+        <v>0.04123144087751889</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00987970163591375</v>
+        <v>0.06491160388314339</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0126994733877708</v>
+        <v>0.002294338430625904</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01532658653263842</v>
+        <v>0.05184677703741102</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01944468125947657</v>
+        <v>0.02072594578782357</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01681211404335024</v>
+        <v>0.03868537951017645</v>
       </c>
       <c r="M38" t="n">
-        <v>0.08597411573840349</v>
+        <v>0.05716734990373518</v>
       </c>
       <c r="N38" t="n">
-        <v>0.03949442959471001</v>
+        <v>0.02927104457789897</v>
       </c>
       <c r="O38" t="n">
-        <v>0.02235701832237335</v>
+        <v>0.03352477667670894</v>
       </c>
       <c r="P38" t="n">
-        <v>0.03389639234457284</v>
+        <v>0.05928255332598055</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.06022792938588797</v>
+        <v>0.07266754571864634</v>
       </c>
       <c r="R38" t="n">
-        <v>0.09811799469295401</v>
+        <v>0.09344178100838553</v>
       </c>
       <c r="S38" t="n">
-        <v>0.07969325972509321</v>
+        <v>0.02320443984844904</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0275610708054797</v>
+        <v>0.003089902035817267</v>
       </c>
       <c r="U38" t="n">
-        <v>0.07999219937255973</v>
+        <v>0.07933517051955964</v>
       </c>
       <c r="V38" t="n">
-        <v>0.08697469646260324</v>
+        <v>0.07858789030421902</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01329906085576443</v>
+        <v>0.0105345388826494</v>
       </c>
       <c r="X38" t="n">
-        <v>0.05007422984031948</v>
+        <v>0.07472425927082785</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.01853987692983818</v>
+        <v>0.02114253833197625</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.03271267567125379</v>
+        <v>0.08517334153238519</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.08153663424093865</v>
+        <v>0.04826229947100199</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.009252205517472061</v>
+        <v>0.0007400426189054998</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.02036833662359807</v>
+        <v>0.00593796508307031</v>
       </c>
     </row>
     <row r="39">
@@ -4106,79 +4106,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.3643633766364308</v>
+        <v>0.3776708344022621</v>
       </c>
       <c r="F39" t="n">
-        <v>0.06751306147689277</v>
+        <v>0.03925584132833797</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02525453400746225</v>
+        <v>0.05638852767230079</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01451814304073443</v>
+        <v>0.02909797738637005</v>
       </c>
       <c r="I39" t="n">
-        <v>0.09338599954824889</v>
+        <v>0.02179379364897693</v>
       </c>
       <c r="J39" t="n">
-        <v>0.03491835721646276</v>
+        <v>0.01719546101079212</v>
       </c>
       <c r="K39" t="n">
-        <v>0.07548340288567569</v>
+        <v>0.1021906595252999</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02882718544096426</v>
+        <v>0.08459195098905467</v>
       </c>
       <c r="M39" t="n">
-        <v>0.02365713606983462</v>
+        <v>0.01352724301040077</v>
       </c>
       <c r="N39" t="n">
-        <v>0.00931133779146656</v>
+        <v>0.06269869510199159</v>
       </c>
       <c r="O39" t="n">
-        <v>0.02707364606568169</v>
+        <v>0.07303514074525735</v>
       </c>
       <c r="P39" t="n">
-        <v>0.07078190449032948</v>
+        <v>0.04634517048105756</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.06140098218036568</v>
+        <v>0.03712744155622127</v>
       </c>
       <c r="R39" t="n">
-        <v>0.004002334538601751</v>
+        <v>0.03256636529329308</v>
       </c>
       <c r="S39" t="n">
-        <v>0.03802539645224656</v>
+        <v>0.04770472644328553</v>
       </c>
       <c r="T39" t="n">
-        <v>0.01957773909331382</v>
+        <v>0.07537271072426927</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1053873081245251</v>
+        <v>0.004206104124782806</v>
       </c>
       <c r="V39" t="n">
-        <v>0.0100159805143112</v>
+        <v>0.008089024225915072</v>
       </c>
       <c r="W39" t="n">
-        <v>0.1124123929822558</v>
+        <v>0.1151968028929591</v>
       </c>
       <c r="X39" t="n">
-        <v>0.06398619670147615</v>
+        <v>0.07937767945329351</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.01693852217173689</v>
+        <v>0.007964964907991196</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.002889497341210487</v>
+        <v>0.03813214697564916</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.07778977037429537</v>
+        <v>0.003609432415061152</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.0168491714919076</v>
+        <v>0.004532140087439292</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.04903404027363369</v>
+        <v>0.04721442479372522</v>
       </c>
     </row>
     <row r="40">
@@ -4201,79 +4201,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.2275047700948337</v>
+        <v>0.2299711055239891</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0003019469947300626</v>
+        <v>0.001351150457210742</v>
       </c>
       <c r="G40" t="n">
-        <v>0.09324874401393098</v>
+        <v>0.0549834153454049</v>
       </c>
       <c r="H40" t="n">
-        <v>0.07734145315217973</v>
+        <v>0.06077320773529898</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01991198780975628</v>
+        <v>0.07064666515548551</v>
       </c>
       <c r="J40" t="n">
-        <v>0.002630296764623635</v>
+        <v>0.07260913346157347</v>
       </c>
       <c r="K40" t="n">
-        <v>0.04555695889328425</v>
+        <v>0.02507166666695057</v>
       </c>
       <c r="L40" t="n">
-        <v>0.004842417537581772</v>
+        <v>0.03009872666691893</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06787538990683913</v>
+        <v>0.009035067081986221</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0004140980518087376</v>
+        <v>0.001367235408991978</v>
       </c>
       <c r="O40" t="n">
-        <v>0.02265879094410837</v>
+        <v>0.05681525900568753</v>
       </c>
       <c r="P40" t="n">
-        <v>0.06847360615615815</v>
+        <v>0.06463957923124219</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.02215144808342751</v>
+        <v>0.081935445673518</v>
       </c>
       <c r="R40" t="n">
-        <v>0.08466843462365237</v>
+        <v>0.07612148371457191</v>
       </c>
       <c r="S40" t="n">
-        <v>0.0699776158914124</v>
+        <v>0.0190211421742541</v>
       </c>
       <c r="T40" t="n">
-        <v>0.00199807679743079</v>
+        <v>0.007045600924551954</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003433681973173095</v>
+        <v>0.001700778841013275</v>
       </c>
       <c r="V40" t="n">
-        <v>0.03846162475736326</v>
+        <v>0.06355549720435015</v>
       </c>
       <c r="W40" t="n">
-        <v>0.06863278584859513</v>
+        <v>0.07069519441647916</v>
       </c>
       <c r="X40" t="n">
-        <v>0.09093054079135078</v>
+        <v>0.03053869822236192</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.05565589413633234</v>
+        <v>0.0438095698393364</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.09415377086145334</v>
+        <v>0.06716005713368585</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.007165507192315965</v>
+        <v>0.04279976993065978</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.05951492881849194</v>
+        <v>0.0482256557084666</v>
       </c>
       <c r="AC40" t="n">
-        <v>-0.01229753419120021</v>
+        <v>-0.001755392655731389</v>
       </c>
     </row>
     <row r="41">
@@ -4296,79 +4296,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.9649174116959521</v>
+        <v>1.087141317423701</v>
       </c>
       <c r="F41" t="n">
-        <v>0.06794949689329279</v>
+        <v>0.08203714281076835</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0006707066865020516</v>
+        <v>0.001802135903613799</v>
       </c>
       <c r="H41" t="n">
-        <v>0.007422620462687405</v>
+        <v>0.02286150630051855</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02560749444054583</v>
+        <v>0.02219796588891356</v>
       </c>
       <c r="J41" t="n">
-        <v>0.04651593746494545</v>
+        <v>0.04172545144518642</v>
       </c>
       <c r="K41" t="n">
-        <v>0.002998556674860446</v>
+        <v>0.06680677317361064</v>
       </c>
       <c r="L41" t="n">
-        <v>0.09833495780045724</v>
+        <v>0.04872446994553904</v>
       </c>
       <c r="M41" t="n">
-        <v>0.06460439047517037</v>
+        <v>0.108675238607033</v>
       </c>
       <c r="N41" t="n">
-        <v>0.002089505096674881</v>
+        <v>0.01122670385864533</v>
       </c>
       <c r="O41" t="n">
-        <v>0.05645282983980936</v>
+        <v>0.05118357181453567</v>
       </c>
       <c r="P41" t="n">
-        <v>0.02064216336002346</v>
+        <v>0.0112398049209683</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.07180525521370149</v>
+        <v>0.01019401688167643</v>
       </c>
       <c r="R41" t="n">
-        <v>0.03208964920862382</v>
+        <v>0.02313070182903344</v>
       </c>
       <c r="S41" t="n">
-        <v>0.009360414366889388</v>
+        <v>0.03839581793643091</v>
       </c>
       <c r="T41" t="n">
-        <v>0.06410915269630217</v>
+        <v>0.002245840282841505</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1033972831223942</v>
+        <v>0.1117077724272735</v>
       </c>
       <c r="V41" t="n">
-        <v>0.07155458046123743</v>
+        <v>0.02530884823343701</v>
       </c>
       <c r="W41" t="n">
-        <v>0.06360782611735892</v>
+        <v>0.07421603550167204</v>
       </c>
       <c r="X41" t="n">
-        <v>0.004896332539150498</v>
+        <v>0.03342073342029612</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.07410286395918299</v>
+        <v>0.03655932467488616</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.02529252137898883</v>
+        <v>0.09615770560027358</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.0167786573727386</v>
+        <v>0.05773924735627534</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.06971680436846225</v>
+        <v>0.02244319118657142</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.01887494637970947</v>
+        <v>0.03052246486384081</v>
       </c>
     </row>
     <row r="42">
@@ -4391,79 +4391,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2139169545607353</v>
+        <v>0.2096773303683666</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02384499375805073</v>
+        <v>0.03985874981843887</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04602489394368436</v>
+        <v>0.04662115233563489</v>
       </c>
       <c r="H42" t="n">
-        <v>0.005626139382626883</v>
+        <v>0.01213220348204381</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0327598450664675</v>
+        <v>0.07034185465684208</v>
       </c>
       <c r="J42" t="n">
-        <v>0.01643004136691791</v>
+        <v>0.04767982773867609</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01972770202355243</v>
+        <v>0.003832593508470356</v>
       </c>
       <c r="L42" t="n">
-        <v>0.008465853074647874</v>
+        <v>0.001606226303620601</v>
       </c>
       <c r="M42" t="n">
-        <v>0.03809469205418604</v>
+        <v>0.05508986886244966</v>
       </c>
       <c r="N42" t="n">
-        <v>0.03802268050068034</v>
+        <v>0.04262189081154008</v>
       </c>
       <c r="O42" t="n">
-        <v>0.01489920029925215</v>
+        <v>0.005208494368760624</v>
       </c>
       <c r="P42" t="n">
-        <v>0.06392589852137184</v>
+        <v>0.05778497927232582</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.0524660590705947</v>
+        <v>0.07723842675869289</v>
       </c>
       <c r="R42" t="n">
-        <v>0.08565190886545368</v>
+        <v>0.09247080393672698</v>
       </c>
       <c r="S42" t="n">
-        <v>0.06546509500172665</v>
+        <v>0.06579087428324033</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0762676643729216</v>
+        <v>0.0630598418925253</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0009375922712040683</v>
+        <v>0.01318428022275039</v>
       </c>
       <c r="V42" t="n">
-        <v>0.04638411900862471</v>
+        <v>0.02074513332797916</v>
       </c>
       <c r="W42" t="n">
-        <v>0.09540958892338654</v>
+        <v>0.07247865648447031</v>
       </c>
       <c r="X42" t="n">
-        <v>0.02269456645164671</v>
+        <v>0.06280861551293854</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.08487712553905105</v>
+        <v>0.04721470832811038</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.09724794897456304</v>
+        <v>0.08394862071612415</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.04999142559244403</v>
+        <v>0.006272754674216455</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.01478496593694544</v>
+        <v>0.01200944270342244</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.1357777311718231</v>
+        <v>0.1289266584298991</v>
       </c>
     </row>
     <row r="43">
@@ -4486,79 +4486,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.6674757627082671</v>
+        <v>0.6102402494989445</v>
       </c>
       <c r="F43" t="n">
-        <v>0.09305207885601662</v>
+        <v>0.06377159813677313</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08484770359583983</v>
+        <v>0.09255251589761813</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1103910589433894</v>
+        <v>0.01519529552787159</v>
       </c>
       <c r="I43" t="n">
-        <v>0.05689334686788384</v>
+        <v>0.04702869579635899</v>
       </c>
       <c r="J43" t="n">
-        <v>0.02275275893145937</v>
+        <v>0.0571118210699209</v>
       </c>
       <c r="K43" t="n">
-        <v>0.003350516170267691</v>
+        <v>0.006809388597704618</v>
       </c>
       <c r="L43" t="n">
-        <v>0.1058947167510321</v>
+        <v>0.09780821269417313</v>
       </c>
       <c r="M43" t="n">
-        <v>0.01974485808691455</v>
+        <v>0.01440233771655671</v>
       </c>
       <c r="N43" t="n">
-        <v>0.03842204290542197</v>
+        <v>0.01097523661016342</v>
       </c>
       <c r="O43" t="n">
-        <v>0.009542365053303912</v>
+        <v>0.003557512568729554</v>
       </c>
       <c r="P43" t="n">
-        <v>0.01368218349431273</v>
+        <v>0.0555081365169199</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.04301757602456368</v>
+        <v>0.02200186979368419</v>
       </c>
       <c r="R43" t="n">
-        <v>0.05209721787568519</v>
+        <v>0.02092144879314221</v>
       </c>
       <c r="S43" t="n">
-        <v>0.02604221987660935</v>
+        <v>0.03148200597677103</v>
       </c>
       <c r="T43" t="n">
-        <v>0.06017550543988996</v>
+        <v>0.04763926738118227</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08733558015851932</v>
+        <v>0.02197551524330913</v>
       </c>
       <c r="V43" t="n">
-        <v>0.006459279533928972</v>
+        <v>0.0270195003594158</v>
       </c>
       <c r="W43" t="n">
-        <v>0.09724565261151713</v>
+        <v>0.09011270988126281</v>
       </c>
       <c r="X43" t="n">
-        <v>0.003551369285239028</v>
+        <v>0.02994147605226326</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0227620864134463</v>
+        <v>0.08860702398810247</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.01122497439657812</v>
+        <v>0.103348279035931</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.02369738340814439</v>
+        <v>0.05197216803197612</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.007817525320036616</v>
+        <v>0.0002579843301693887</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.1310625997664646</v>
+        <v>0.1494987561138102</v>
       </c>
     </row>
     <row r="44">
@@ -4581,79 +4581,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.18653179050857</v>
+        <v>0.1902473800676793</v>
       </c>
       <c r="F44" t="n">
-        <v>0.02078474246037504</v>
+        <v>0.00277180531703385</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01429950176472747</v>
+        <v>0.04866835004577667</v>
       </c>
       <c r="H44" t="n">
-        <v>0.05444702338378508</v>
+        <v>0.05876590183864973</v>
       </c>
       <c r="I44" t="n">
-        <v>0.02859550276911822</v>
+        <v>0.01968254123704634</v>
       </c>
       <c r="J44" t="n">
-        <v>0.03270072770434638</v>
+        <v>0.05070681896815056</v>
       </c>
       <c r="K44" t="n">
-        <v>0.05513806575004506</v>
+        <v>0.01547481121922203</v>
       </c>
       <c r="L44" t="n">
-        <v>0.002072434420660095</v>
+        <v>0.004956717467721617</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04225909992372355</v>
+        <v>0.04644241500696834</v>
       </c>
       <c r="N44" t="n">
-        <v>0.03570842297766616</v>
+        <v>0.06827267024821188</v>
       </c>
       <c r="O44" t="n">
-        <v>0.07445314930244352</v>
+        <v>0.03632675532780924</v>
       </c>
       <c r="P44" t="n">
-        <v>0.07649349932803928</v>
+        <v>0.07550852310509279</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.03315752035148309</v>
+        <v>0.04249033854152304</v>
       </c>
       <c r="R44" t="n">
-        <v>0.07077164349210745</v>
+        <v>0.07437929350662346</v>
       </c>
       <c r="S44" t="n">
-        <v>0.0615964689955622</v>
+        <v>0.03571983226964862</v>
       </c>
       <c r="T44" t="n">
-        <v>0.007959679037749417</v>
+        <v>0.06841513471494128</v>
       </c>
       <c r="U44" t="n">
-        <v>0.008380695583638902</v>
+        <v>0.007817909992818365</v>
       </c>
       <c r="V44" t="n">
-        <v>0.07568430388167206</v>
+        <v>0.002572370839663858</v>
       </c>
       <c r="W44" t="n">
-        <v>0.06657380015966802</v>
+        <v>0.07998032770096983</v>
       </c>
       <c r="X44" t="n">
-        <v>0.0007133131661919951</v>
+        <v>0.00673567226781952</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.04606707327044413</v>
+        <v>0.05284546245947326</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.05857374576412325</v>
+        <v>0.07340189590359217</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.0855970049913516</v>
+        <v>0.05185072872759366</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.04797258152107797</v>
+        <v>0.07621372329364989</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.0002909665001172991</v>
+        <v>-0.001494510762795267</v>
       </c>
     </row>
     <row r="45">
@@ -4676,79 +4676,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.5818431994745531</v>
+        <v>0.5395576336402835</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01434016692408173</v>
+        <v>0.06727546821177618</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08050230442870535</v>
+        <v>0.05403844829021532</v>
       </c>
       <c r="H45" t="n">
-        <v>0.003108796669500439</v>
+        <v>0.0008176653328074589</v>
       </c>
       <c r="I45" t="n">
-        <v>0.04484562692423386</v>
+        <v>0.003441089183608616</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01641150066998632</v>
+        <v>0.01905003049772472</v>
       </c>
       <c r="K45" t="n">
-        <v>0.01830827999816421</v>
+        <v>0.1000682311904871</v>
       </c>
       <c r="L45" t="n">
-        <v>0.02165070819914088</v>
+        <v>0.001324098923066105</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1037138189984068</v>
+        <v>0.04469430633222592</v>
       </c>
       <c r="N45" t="n">
-        <v>0.01648214045191357</v>
+        <v>0.0009566193983234317</v>
       </c>
       <c r="O45" t="n">
-        <v>0.01423930397675437</v>
+        <v>0.0373128757530302</v>
       </c>
       <c r="P45" t="n">
-        <v>0.04812294916912949</v>
+        <v>0.004929526899599935</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0707241255390921</v>
+        <v>0.02057795371129578</v>
       </c>
       <c r="R45" t="n">
-        <v>0.01291007564789076</v>
+        <v>0.01719938705532334</v>
       </c>
       <c r="S45" t="n">
-        <v>0.02000104071926284</v>
+        <v>0.1069908933588789</v>
       </c>
       <c r="T45" t="n">
-        <v>0.01152465622292601</v>
+        <v>0.1040205615034042</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1135335117284819</v>
+        <v>0.1056620511875299</v>
       </c>
       <c r="V45" t="n">
-        <v>0.08231957690680189</v>
+        <v>0.02859949467463834</v>
       </c>
       <c r="W45" t="n">
-        <v>0.06898591132701563</v>
+        <v>0.009864654586539</v>
       </c>
       <c r="X45" t="n">
-        <v>0.01409993996096934</v>
+        <v>0.02214104220354935</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.04918320254342846</v>
+        <v>0.1028795175832589</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.06590170770814778</v>
+        <v>0.052800798942691</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.09892823542436632</v>
+        <v>0.08966814674454787</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.0101624198616</v>
+        <v>0.005687138435478348</v>
       </c>
       <c r="AC45" t="n">
-        <v>-0.01328793486685519</v>
+        <v>0.00404352435017862</v>
       </c>
     </row>
     <row r="46">
@@ -4771,79 +4771,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1599645108150703</v>
+        <v>0.1559444314254955</v>
       </c>
       <c r="F46" t="n">
-        <v>0.06912961005314462</v>
+        <v>0.07559025781577092</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01759169728786544</v>
+        <v>0.009377074873980635</v>
       </c>
       <c r="H46" t="n">
-        <v>0.04093494989550232</v>
+        <v>0.0829613259827352</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0626583971523077</v>
+        <v>0.01111782354421262</v>
       </c>
       <c r="J46" t="n">
-        <v>0.03469213114929198</v>
+        <v>0.02612753828794583</v>
       </c>
       <c r="K46" t="n">
-        <v>0.07025037342894833</v>
+        <v>0.03148509147836478</v>
       </c>
       <c r="L46" t="n">
-        <v>0.03357666508502264</v>
+        <v>0.05520702831374405</v>
       </c>
       <c r="M46" t="n">
-        <v>0.06501875508785877</v>
+        <v>0.04120685464959156</v>
       </c>
       <c r="N46" t="n">
-        <v>0.00573751511709557</v>
+        <v>0.003224508820978031</v>
       </c>
       <c r="O46" t="n">
-        <v>0.02267679338661474</v>
+        <v>0.03398629676882053</v>
       </c>
       <c r="P46" t="n">
-        <v>0.005918057298620384</v>
+        <v>0.04557951366194262</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.08155551392436247</v>
+        <v>0.06209145429965073</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1079024104696609</v>
+        <v>0.08337291082806045</v>
       </c>
       <c r="S46" t="n">
-        <v>0.06856077820403018</v>
+        <v>0.096164136178464</v>
       </c>
       <c r="T46" t="n">
-        <v>0.02331418907095132</v>
+        <v>0.09711688451911532</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03717929133614551</v>
+        <v>0.07861172040294084</v>
       </c>
       <c r="V46" t="n">
-        <v>0.001362846931226599</v>
+        <v>0.001365192898245257</v>
       </c>
       <c r="W46" t="n">
-        <v>0.01405027688269297</v>
+        <v>0.01101625942802813</v>
       </c>
       <c r="X46" t="n">
-        <v>0.05661596471668564</v>
+        <v>0.002964177531851559</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.05037166281269995</v>
+        <v>0.03604745505214747</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.1065226840193357</v>
+        <v>0.02102881043088264</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.009920710643482624</v>
+        <v>0.06161565611700154</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.01445872604645352</v>
+        <v>0.03274202811552532</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.004638473512697241</v>
+        <v>-0.02747829481516197</v>
       </c>
     </row>
     <row r="47">
@@ -4866,79 +4866,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1730604113487106</v>
+        <v>0.1993252399343835</v>
       </c>
       <c r="F47" t="n">
-        <v>0.07719004980871771</v>
+        <v>0.01736010644363729</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02487577702897361</v>
+        <v>0.0346394413646492</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01202166687504039</v>
+        <v>0.04428564622243766</v>
       </c>
       <c r="I47" t="n">
-        <v>0.08962243561818252</v>
+        <v>0.06766242896691678</v>
       </c>
       <c r="J47" t="n">
-        <v>0.01434275744582767</v>
+        <v>0.009916563917066797</v>
       </c>
       <c r="K47" t="n">
-        <v>0.09056393712362905</v>
+        <v>0.1110280342334441</v>
       </c>
       <c r="L47" t="n">
-        <v>0.05278923757479464</v>
+        <v>0.04481224938648133</v>
       </c>
       <c r="M47" t="n">
-        <v>0.05689668037046421</v>
+        <v>0.08192006708553996</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0004107258119967094</v>
+        <v>0.02236252841063119</v>
       </c>
       <c r="O47" t="n">
-        <v>0.05326197386822802</v>
+        <v>0.06797023365836453</v>
       </c>
       <c r="P47" t="n">
-        <v>0.07799348057231827</v>
+        <v>0.09450407734775858</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.05381262425881626</v>
+        <v>0.008409769422138285</v>
       </c>
       <c r="R47" t="n">
-        <v>0.05939698574079785</v>
+        <v>0.0206742897691954</v>
       </c>
       <c r="S47" t="n">
-        <v>0.05070424112033044</v>
+        <v>0.1048196027064514</v>
       </c>
       <c r="T47" t="n">
-        <v>0.06813484309924366</v>
+        <v>0.002282037389350752</v>
       </c>
       <c r="U47" t="n">
-        <v>0.04305288866505921</v>
+        <v>0.01586700250322881</v>
       </c>
       <c r="V47" t="n">
-        <v>0.02747022435196935</v>
+        <v>0.1219864205428552</v>
       </c>
       <c r="W47" t="n">
-        <v>0.02802928573575127</v>
+        <v>0.03263120822165633</v>
       </c>
       <c r="X47" t="n">
-        <v>0.02164727365263258</v>
+        <v>0.04742293663517892</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.01700024234233861</v>
+        <v>0.00461227965950913</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.02695695422993934</v>
+        <v>0.006003359277400902</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.01429149099059695</v>
+        <v>0.0361101883847058</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.03953422371435181</v>
+        <v>0.002719528451401681</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.02649542906772791</v>
+        <v>-0.005188237060141277</v>
       </c>
     </row>
     <row r="48">
@@ -4961,79 +4961,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1275045724928222</v>
+        <v>0.1265174179473477</v>
       </c>
       <c r="F48" t="n">
-        <v>0.006237481051053829</v>
+        <v>0.03909534870473877</v>
       </c>
       <c r="G48" t="n">
-        <v>0.07569603511744727</v>
+        <v>0.03467545383918445</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01509508410903953</v>
+        <v>0.005216948616068292</v>
       </c>
       <c r="I48" t="n">
-        <v>0.095388263402547</v>
+        <v>0.08091717565014511</v>
       </c>
       <c r="J48" t="n">
-        <v>0.01725407170325767</v>
+        <v>0.001245584871086186</v>
       </c>
       <c r="K48" t="n">
-        <v>0.01556483070390031</v>
+        <v>0.001635361986514388</v>
       </c>
       <c r="L48" t="n">
-        <v>0.005866581086026796</v>
+        <v>0.00239042613572666</v>
       </c>
       <c r="M48" t="n">
-        <v>0.008173927728023835</v>
+        <v>0.03838905322321253</v>
       </c>
       <c r="N48" t="n">
-        <v>0.02134293849435213</v>
+        <v>0.03342549909374273</v>
       </c>
       <c r="O48" t="n">
-        <v>0.01685822579082314</v>
+        <v>0.03734057527004691</v>
       </c>
       <c r="P48" t="n">
-        <v>0.110854748913812</v>
+        <v>0.05580139388192205</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.03515768715038646</v>
+        <v>0.08054917127926826</v>
       </c>
       <c r="R48" t="n">
-        <v>0.09855178366404177</v>
+        <v>0.07171351324062945</v>
       </c>
       <c r="S48" t="n">
-        <v>0.07806150399963944</v>
+        <v>0.08324283477041629</v>
       </c>
       <c r="T48" t="n">
-        <v>0.03503907060166731</v>
+        <v>0.02235155203055698</v>
       </c>
       <c r="U48" t="n">
-        <v>0.07536491412464351</v>
+        <v>0.08546305110863496</v>
       </c>
       <c r="V48" t="n">
-        <v>0.01782707404847288</v>
+        <v>0.0341041085047636</v>
       </c>
       <c r="W48" t="n">
-        <v>0.1063845491439713</v>
+        <v>0.05954098330514323</v>
       </c>
       <c r="X48" t="n">
-        <v>0.01341626229264774</v>
+        <v>0.05442028313634962</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.03357642375257394</v>
+        <v>0.04411604900646583</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.05290107503686663</v>
+        <v>0.06343807607602368</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.05237999214921647</v>
+        <v>0.02117250067550985</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.013007475935589</v>
+        <v>0.04975505559385023</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.07859714930593836</v>
+        <v>0.06605263008404766</v>
       </c>
     </row>
     <row r="49">
@@ -5056,79 +5056,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.14647627230174</v>
+        <v>0.1564125053042748</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03330339811243075</v>
+        <v>0.06991303516377986</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03546049360588784</v>
+        <v>0.009043639214486296</v>
       </c>
       <c r="H49" t="n">
-        <v>0.03230761198783492</v>
+        <v>0.004507698471728354</v>
       </c>
       <c r="I49" t="n">
-        <v>0.07863777709251642</v>
+        <v>0.1337907512243838</v>
       </c>
       <c r="J49" t="n">
-        <v>0.02335674634074666</v>
+        <v>0.003891749122559768</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0718605577270621</v>
+        <v>0.09213083438949014</v>
       </c>
       <c r="L49" t="n">
-        <v>0.06239266698728443</v>
+        <v>0.009809311771600803</v>
       </c>
       <c r="M49" t="n">
-        <v>0.05422650353389818</v>
+        <v>0.01987469182373921</v>
       </c>
       <c r="N49" t="n">
-        <v>0.006452987474094557</v>
+        <v>0.01793770094789705</v>
       </c>
       <c r="O49" t="n">
-        <v>0.07285352858649528</v>
+        <v>0.135692593201778</v>
       </c>
       <c r="P49" t="n">
-        <v>0.07856279488796858</v>
+        <v>0.1332374057800794</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.02831195644523735</v>
+        <v>0.0487716480000264</v>
       </c>
       <c r="R49" t="n">
-        <v>0.07165274103386644</v>
+        <v>0.05810019800213363</v>
       </c>
       <c r="S49" t="n">
-        <v>0.03755440061949309</v>
+        <v>0.004971223848470422</v>
       </c>
       <c r="T49" t="n">
-        <v>0.001179411983278965</v>
+        <v>0.009553497582169411</v>
       </c>
       <c r="U49" t="n">
-        <v>0.03532232666433305</v>
+        <v>0.0005676667789259139</v>
       </c>
       <c r="V49" t="n">
-        <v>0.06933504243919808</v>
+        <v>0.001061055981531973</v>
       </c>
       <c r="W49" t="n">
-        <v>0.03789472355913232</v>
+        <v>0.002424852223943571</v>
       </c>
       <c r="X49" t="n">
-        <v>0.06199934864539744</v>
+        <v>0.03918730356214345</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.00694367342911455</v>
+        <v>0.005152550895630353</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.01103941194541249</v>
+        <v>0.02080343579220452</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.0869661025922889</v>
+        <v>0.1219680084580176</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.002385794307027452</v>
+        <v>0.05760914776328013</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.06889451463488115</v>
+        <v>0.06842467974841773</v>
       </c>
     </row>
     <row r="50">
@@ -5151,79 +5151,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1692226629563598</v>
+        <v>0.1721006389960774</v>
       </c>
       <c r="F50" t="n">
-        <v>0.09015849786461637</v>
+        <v>0.05657009651543461</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03364108631338648</v>
+        <v>0.04639164324602071</v>
       </c>
       <c r="H50" t="n">
-        <v>0.04609409748435132</v>
+        <v>0.05791942629568564</v>
       </c>
       <c r="I50" t="n">
-        <v>0.005630300097563583</v>
+        <v>0.01147761865922458</v>
       </c>
       <c r="J50" t="n">
-        <v>0.01965936021365687</v>
+        <v>0.009435372366484963</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0441461116876491</v>
+        <v>0.0505677708587198</v>
       </c>
       <c r="L50" t="n">
-        <v>0.03273641873969529</v>
+        <v>0.0556242476179066</v>
       </c>
       <c r="M50" t="n">
-        <v>0.03752089713168002</v>
+        <v>0.07261350287085717</v>
       </c>
       <c r="N50" t="n">
-        <v>0.04342862045716801</v>
+        <v>0.07014502749680793</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0633043148276686</v>
+        <v>0.01515800376574872</v>
       </c>
       <c r="P50" t="n">
-        <v>0.02799642280876842</v>
+        <v>0.01617471958719323</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.06962696223872665</v>
+        <v>0.04821117395130587</v>
       </c>
       <c r="R50" t="n">
-        <v>0.009372232960611392</v>
+        <v>0.0005341494356708971</v>
       </c>
       <c r="S50" t="n">
-        <v>0.002709911358144956</v>
+        <v>0.005203885261135997</v>
       </c>
       <c r="T50" t="n">
-        <v>0.07243446117708556</v>
+        <v>0.07076230345227592</v>
       </c>
       <c r="U50" t="n">
-        <v>0.08817097774787938</v>
+        <v>0.02869415156656271</v>
       </c>
       <c r="V50" t="n">
-        <v>0.007034867650164195</v>
+        <v>0.05465091010906935</v>
       </c>
       <c r="W50" t="n">
-        <v>0.001486606848047562</v>
+        <v>0.02094410284893748</v>
       </c>
       <c r="X50" t="n">
-        <v>0.09197648946523097</v>
+        <v>0.07778446202568381</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.03168398553806364</v>
+        <v>0.06763608632644053</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.01052716854782441</v>
+        <v>0.05963766235552751</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.08832816053602337</v>
+        <v>0.04539574494920095</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.08233204830599396</v>
+        <v>0.05846793843810495</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.1419786942393796</v>
+        <v>0.1427981168115234</v>
       </c>
     </row>
     <row r="51">
@@ -5246,79 +5246,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.4926287867581162</v>
+        <v>0.4612588368482596</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04615533072309096</v>
+        <v>0.05080754513965993</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0103047989680468</v>
+        <v>0.02800015153814911</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01152551168960485</v>
+        <v>0.05700416829053074</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1430898223913078</v>
+        <v>0.1307806693289405</v>
       </c>
       <c r="J51" t="n">
-        <v>0.02640623355324797</v>
+        <v>0.009718084748098828</v>
       </c>
       <c r="K51" t="n">
-        <v>0.145536596748252</v>
+        <v>0.03989349178088182</v>
       </c>
       <c r="L51" t="n">
-        <v>0.08805865545184813</v>
+        <v>0.0719230759735478</v>
       </c>
       <c r="M51" t="n">
-        <v>0.01641810599518317</v>
+        <v>0.0127418957113703</v>
       </c>
       <c r="N51" t="n">
-        <v>0.07503203387354268</v>
+        <v>0.005463097973284921</v>
       </c>
       <c r="O51" t="n">
-        <v>0.03740047233791595</v>
+        <v>0.01550453586735981</v>
       </c>
       <c r="P51" t="n">
-        <v>0.008316899941774583</v>
+        <v>0.02429025410097981</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.01412028330524337</v>
+        <v>0.01428914627905094</v>
       </c>
       <c r="R51" t="n">
-        <v>0.01106656678909194</v>
+        <v>0.0175283202601523</v>
       </c>
       <c r="S51" t="n">
-        <v>0.007642976855503861</v>
+        <v>0.01016995525342492</v>
       </c>
       <c r="T51" t="n">
-        <v>0.0776360340786079</v>
+        <v>0.04130434372995598</v>
       </c>
       <c r="U51" t="n">
-        <v>0.00780898372508522</v>
+        <v>0.02625906166848761</v>
       </c>
       <c r="V51" t="n">
-        <v>0.04793728027554786</v>
+        <v>0.1169993126755371</v>
       </c>
       <c r="W51" t="n">
-        <v>0.04417297895431393</v>
+        <v>0.006695632285409586</v>
       </c>
       <c r="X51" t="n">
-        <v>0.01878858319166283</v>
+        <v>0.03123196823250679</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.02437277012152524</v>
+        <v>0.06959343110056213</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.04594941413881402</v>
+        <v>0.1207606927011243</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.02929135475430022</v>
+        <v>0.09447236966277368</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.06296831213648899</v>
+        <v>0.00456879569821101</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1663780198323195</v>
+        <v>0.1400383794659987</v>
       </c>
     </row>
     <row r="52">
@@ -5341,79 +5341,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.306393096880336</v>
+        <v>0.3275735260828835</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01461377106309367</v>
+        <v>0.03434691782129043</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04158774311356768</v>
+        <v>0.006376414987128444</v>
       </c>
       <c r="H52" t="n">
-        <v>0.002065533821677392</v>
+        <v>0.03819368125018289</v>
       </c>
       <c r="I52" t="n">
-        <v>0.008984328253776576</v>
+        <v>0.02353628719039426</v>
       </c>
       <c r="J52" t="n">
-        <v>0.06765868882418634</v>
+        <v>0.0584892687941337</v>
       </c>
       <c r="K52" t="n">
-        <v>0.08187755713064555</v>
+        <v>0.06766461009955312</v>
       </c>
       <c r="L52" t="n">
-        <v>0.00518414981697387</v>
+        <v>0.01846982152038944</v>
       </c>
       <c r="M52" t="n">
-        <v>0.1084029501487371</v>
+        <v>0.09453149739086919</v>
       </c>
       <c r="N52" t="n">
-        <v>0.06289606494655262</v>
+        <v>0.04721507038965166</v>
       </c>
       <c r="O52" t="n">
-        <v>0.002392485641440349</v>
+        <v>0.05183919953871639</v>
       </c>
       <c r="P52" t="n">
-        <v>0.104803266999841</v>
+        <v>0.07728159406874238</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.002656384983413046</v>
+        <v>0.09450898093811753</v>
       </c>
       <c r="R52" t="n">
-        <v>0.001621590458988462</v>
+        <v>0.01863127052179285</v>
       </c>
       <c r="S52" t="n">
-        <v>0.01547369833783416</v>
+        <v>0.01795504495222334</v>
       </c>
       <c r="T52" t="n">
-        <v>0.09580725409060309</v>
+        <v>0.03746227951221459</v>
       </c>
       <c r="U52" t="n">
-        <v>0.09626167842256578</v>
+        <v>0.0495915973160822</v>
       </c>
       <c r="V52" t="n">
-        <v>0.04523713739183154</v>
+        <v>0.09579372388510683</v>
       </c>
       <c r="W52" t="n">
-        <v>0.005716274025482698</v>
+        <v>0.0006082828838406336</v>
       </c>
       <c r="X52" t="n">
-        <v>0.09834436348671516</v>
+        <v>0.04200986376170967</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.06211132714124429</v>
+        <v>0.02418068145280378</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.005671231300519141</v>
+        <v>0.006843343462486877</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.06860424724238062</v>
+        <v>0.01617011182748826</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.002028273357929759</v>
+        <v>0.07830045643508139</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.1359450400434207</v>
+        <v>-0.1752230513571305</v>
       </c>
     </row>
     <row r="53">
@@ -5436,79 +5436,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.8340361173487594</v>
+        <v>0.7271382887447865</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002906633537520537</v>
+        <v>0.002054496656555555</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06850586436392667</v>
+        <v>0.1247431543509998</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01765002733300888</v>
+        <v>0.02176984122633213</v>
       </c>
       <c r="I53" t="n">
-        <v>0.02151230082465764</v>
+        <v>0.0277020740340068</v>
       </c>
       <c r="J53" t="n">
-        <v>0.07501635039684741</v>
+        <v>0.1376160164603992</v>
       </c>
       <c r="K53" t="n">
-        <v>0.06869437223437078</v>
+        <v>0.01776293572417588</v>
       </c>
       <c r="L53" t="n">
-        <v>0.08693448405538484</v>
+        <v>0.1115920249010691</v>
       </c>
       <c r="M53" t="n">
-        <v>0.03142602558846488</v>
+        <v>0.0748425294606879</v>
       </c>
       <c r="N53" t="n">
-        <v>0.01093850356535859</v>
+        <v>0.05281490616845918</v>
       </c>
       <c r="O53" t="n">
-        <v>0.007071661674089597</v>
+        <v>0.03672296089294463</v>
       </c>
       <c r="P53" t="n">
-        <v>0.06676467883597904</v>
+        <v>0.1268406144884308</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.02278385397273408</v>
+        <v>0.01603886918690375</v>
       </c>
       <c r="R53" t="n">
-        <v>0.07062262383353492</v>
+        <v>0.009858555776480657</v>
       </c>
       <c r="S53" t="n">
-        <v>0.08242082647140944</v>
+        <v>0.04357956254709838</v>
       </c>
       <c r="T53" t="n">
-        <v>0.06949695319258579</v>
+        <v>0.06071339578999076</v>
       </c>
       <c r="U53" t="n">
-        <v>0.0045327904127653</v>
+        <v>0.05366466239110081</v>
       </c>
       <c r="V53" t="n">
-        <v>0.0101616599397398</v>
+        <v>0.0224382865007562</v>
       </c>
       <c r="W53" t="n">
-        <v>0.03936124749404477</v>
+        <v>0.01206332783634053</v>
       </c>
       <c r="X53" t="n">
-        <v>0.08723805408986879</v>
+        <v>0.03133098436439511</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.0005533316356111982</v>
+        <v>0.005403651784893406</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.001177877749785601</v>
+        <v>0.002596046325076305</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.0813685028598124</v>
+        <v>0.002492336865582092</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.07286137593849897</v>
+        <v>0.005358766267321087</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.1403630692481873</v>
+        <v>-0.144913957043227</v>
       </c>
     </row>
     <row r="54">
@@ -5531,79 +5531,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1634197601765885</v>
+        <v>0.1651598852025603</v>
       </c>
       <c r="F54" t="n">
-        <v>0.05447866229255113</v>
+        <v>0.07467982746023873</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06657715927357889</v>
+        <v>0.07192196449139909</v>
       </c>
       <c r="H54" t="n">
-        <v>0.07860796969783374</v>
+        <v>0.05436402118431464</v>
       </c>
       <c r="I54" t="n">
-        <v>0.03817877519638371</v>
+        <v>0.03819384941207558</v>
       </c>
       <c r="J54" t="n">
-        <v>0.005405367721703591</v>
+        <v>0.006300321412536633</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0001817970692533807</v>
+        <v>0.03487726086119058</v>
       </c>
       <c r="L54" t="n">
-        <v>0.04045406242418862</v>
+        <v>0.004223260588039119</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0162745183209308</v>
+        <v>0.02438452326176025</v>
       </c>
       <c r="N54" t="n">
-        <v>0.04712184768317917</v>
+        <v>0.02896023321320488</v>
       </c>
       <c r="O54" t="n">
-        <v>0.06999129810812772</v>
+        <v>0.05951030292209082</v>
       </c>
       <c r="P54" t="n">
-        <v>0.01253284271864419</v>
+        <v>0.04518553327414106</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.03602639039077592</v>
+        <v>0.07076378534326058</v>
       </c>
       <c r="R54" t="n">
-        <v>0.04541631106609854</v>
+        <v>0.06982584259346061</v>
       </c>
       <c r="S54" t="n">
-        <v>0.08424801229803225</v>
+        <v>0.02606952330128721</v>
       </c>
       <c r="T54" t="n">
-        <v>0.007531291659868228</v>
+        <v>0.03275427858065875</v>
       </c>
       <c r="U54" t="n">
-        <v>0.08580941892384275</v>
+        <v>0.05356305490848872</v>
       </c>
       <c r="V54" t="n">
-        <v>0.07924011631264971</v>
+        <v>0.05255666604904195</v>
       </c>
       <c r="W54" t="n">
-        <v>0.005550340636572652</v>
+        <v>0.0036905441333501</v>
       </c>
       <c r="X54" t="n">
-        <v>0.04461710906826934</v>
+        <v>0.06772562913645261</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.0001854324980583407</v>
+        <v>0.0225919897163108</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.08345569233835301</v>
+        <v>0.04386085002883297</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.07917491507651367</v>
+        <v>0.05160898849242415</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.01894066922459045</v>
+        <v>0.0623877496354401</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.1073916485102838</v>
+        <v>0.09126263002600364</v>
       </c>
     </row>
     <row r="55">
@@ -5626,79 +5626,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.2177931022054195</v>
+        <v>0.2587409962005723</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06055611527697628</v>
+        <v>0.02950560915992342</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03268662509088292</v>
+        <v>0.09630572990457285</v>
       </c>
       <c r="H55" t="n">
-        <v>0.04867862445808442</v>
+        <v>0.002364924929802551</v>
       </c>
       <c r="I55" t="n">
-        <v>0.04540841076237677</v>
+        <v>0.0008187575166941939</v>
       </c>
       <c r="J55" t="n">
-        <v>0.01976669955156992</v>
+        <v>0.01038644016121977</v>
       </c>
       <c r="K55" t="n">
-        <v>0.01733148370981038</v>
+        <v>0.02201389648764121</v>
       </c>
       <c r="L55" t="n">
-        <v>0.09790215447772559</v>
+        <v>0.05207617437283615</v>
       </c>
       <c r="M55" t="n">
-        <v>0.005892881109083128</v>
+        <v>0.07777469854299232</v>
       </c>
       <c r="N55" t="n">
-        <v>0.002649548908331562</v>
+        <v>0.005010378001577682</v>
       </c>
       <c r="O55" t="n">
-        <v>0.001817950080087506</v>
+        <v>0.02609336059378198</v>
       </c>
       <c r="P55" t="n">
-        <v>0.02977946918352831</v>
+        <v>0.07760097943451841</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.01511468854957391</v>
+        <v>0.0155239023385764</v>
       </c>
       <c r="R55" t="n">
-        <v>0.101492515594356</v>
+        <v>0.02762604597104358</v>
       </c>
       <c r="S55" t="n">
-        <v>0.09424053244695872</v>
+        <v>0.09529974461011177</v>
       </c>
       <c r="T55" t="n">
-        <v>0.09692296635856743</v>
+        <v>0.08648929547632644</v>
       </c>
       <c r="U55" t="n">
-        <v>0.009724768549271309</v>
+        <v>0.01071108614198027</v>
       </c>
       <c r="V55" t="n">
-        <v>0.06167658567197974</v>
+        <v>0.08223778564968624</v>
       </c>
       <c r="W55" t="n">
-        <v>0.08476242624193216</v>
+        <v>0.1059986350760722</v>
       </c>
       <c r="X55" t="n">
-        <v>0.07250287148310249</v>
+        <v>0.06631367911124662</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.001964409293102226</v>
+        <v>0.02573925757606568</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.03350817219744957</v>
+        <v>0.04924448422013843</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.01688781937077577</v>
+        <v>0.002431760965555976</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.04873228163447393</v>
+        <v>0.03243337375763589</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.1158581448550996</v>
+        <v>0.1208028971734723</v>
       </c>
     </row>
     <row r="56">
@@ -5721,79 +5721,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.1848136660937717</v>
+        <v>0.1841884811085364</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02900945181790417</v>
+        <v>0.06611222722428088</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1204183562162364</v>
+        <v>0.09435775770191224</v>
       </c>
       <c r="H56" t="n">
-        <v>0.001028235678335069</v>
+        <v>0.003706049141837909</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01156530420833492</v>
+        <v>0.01941287045249829</v>
       </c>
       <c r="J56" t="n">
-        <v>0.08634818407909776</v>
+        <v>0.0777431132347719</v>
       </c>
       <c r="K56" t="n">
-        <v>0.09883241686585087</v>
+        <v>0.01038467193345049</v>
       </c>
       <c r="L56" t="n">
-        <v>0.01424108352122781</v>
+        <v>0.006240994639919138</v>
       </c>
       <c r="M56" t="n">
-        <v>0.1078190716787561</v>
+        <v>0.0677870494167027</v>
       </c>
       <c r="N56" t="n">
-        <v>0.02222240539225761</v>
+        <v>0.01614062485632416</v>
       </c>
       <c r="O56" t="n">
-        <v>0.02506924741410827</v>
+        <v>0.01660817017330397</v>
       </c>
       <c r="P56" t="n">
-        <v>0.05573519662076033</v>
+        <v>0.02707851288827038</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.01780994074854034</v>
+        <v>0.003211207429110853</v>
       </c>
       <c r="R56" t="n">
-        <v>0.06979696139628387</v>
+        <v>0.07906910208418876</v>
       </c>
       <c r="S56" t="n">
-        <v>0.004352616681599234</v>
+        <v>0.04035331390916158</v>
       </c>
       <c r="T56" t="n">
-        <v>0.08238896598339862</v>
+        <v>0.07058476793327827</v>
       </c>
       <c r="U56" t="n">
-        <v>0.02897374535187664</v>
+        <v>0.05210968796590939</v>
       </c>
       <c r="V56" t="n">
-        <v>0.001415780871682737</v>
+        <v>0.005281164932585082</v>
       </c>
       <c r="W56" t="n">
-        <v>0.03365145598823313</v>
+        <v>0.001491912759060918</v>
       </c>
       <c r="X56" t="n">
-        <v>0.07390964765671898</v>
+        <v>0.0970627518329535</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.0001926625038941084</v>
+        <v>0.0361415351805516</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.001015615239158512</v>
+        <v>0.05830336506332631</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.1061512463626397</v>
+        <v>0.09275640099570327</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.008052407723104777</v>
+        <v>0.05806274825089869</v>
       </c>
       <c r="AC56" t="n">
-        <v>-0.03887810358799041</v>
+        <v>-0.0073564917752215</v>
       </c>
     </row>
     <row r="57">
@@ -5816,79 +5816,79 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.1998485493908673</v>
+        <v>0.2019712286266767</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0655067855366686</v>
+        <v>0.08581703421300788</v>
       </c>
       <c r="G57" t="n">
-        <v>0.006408768345791394</v>
+        <v>0.04462902764762094</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0649066540619966</v>
+        <v>0.0105030445745586</v>
       </c>
       <c r="I57" t="n">
-        <v>0.05122263998301629</v>
+        <v>0.06687010614842633</v>
       </c>
       <c r="J57" t="n">
-        <v>0.03908760727105119</v>
+        <v>0.03049040791090532</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0495713619367985</v>
+        <v>0.02913325530901843</v>
       </c>
       <c r="L57" t="n">
-        <v>0.02311905992573658</v>
+        <v>0.01836579388634015</v>
       </c>
       <c r="M57" t="n">
-        <v>0.0966022735376051</v>
+        <v>0.08621502904801297</v>
       </c>
       <c r="N57" t="n">
-        <v>0.03638259759579755</v>
+        <v>0.07093029805891402</v>
       </c>
       <c r="O57" t="n">
-        <v>0.01910237287025827</v>
+        <v>0.02372493572735349</v>
       </c>
       <c r="P57" t="n">
-        <v>0.03526016232900268</v>
+        <v>0.08474980801142165</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.01299542206894691</v>
+        <v>0.01954207183155432</v>
       </c>
       <c r="R57" t="n">
-        <v>0.08715437738583848</v>
+        <v>0.003856877261849925</v>
       </c>
       <c r="S57" t="n">
-        <v>0.09601907713109852</v>
+        <v>0.08250249237733027</v>
       </c>
       <c r="T57" t="n">
-        <v>0.0448425288376452</v>
+        <v>0.07515294252822965</v>
       </c>
       <c r="U57" t="n">
-        <v>0.0105645873539628</v>
+        <v>0.01868189033919097</v>
       </c>
       <c r="V57" t="n">
-        <v>0.01152268465053746</v>
+        <v>0.09127427301317438</v>
       </c>
       <c r="W57" t="n">
-        <v>0.003483232420586278</v>
+        <v>0.0003716956999918465</v>
       </c>
       <c r="X57" t="n">
-        <v>0.02275587425331597</v>
+        <v>0.02551531205684324</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.001601956998385809</v>
+        <v>0.005955846359030667</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.05577925787618229</v>
+        <v>0.03271922213023656</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.0803919275312337</v>
+        <v>0.07842849698232503</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.0857187900985439</v>
+        <v>0.01457013888466348</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.01286113508969415</v>
+        <v>-0.02343193090678332</v>
       </c>
     </row>
     <row r="58">
@@ -5911,79 +5911,79 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.1952260719734499</v>
+        <v>0.1947322959675353</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0319065141132658</v>
+        <v>0.02656065546564324</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0787132048190359</v>
+        <v>0.08598081686754908</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0778745836905816</v>
+        <v>0.04096772524924259</v>
       </c>
       <c r="I58" t="n">
-        <v>0.009093773726852208</v>
+        <v>0.05764491338125968</v>
       </c>
       <c r="J58" t="n">
-        <v>0.03779606108940253</v>
+        <v>0.006159913817698609</v>
       </c>
       <c r="K58" t="n">
-        <v>0.03566909326482925</v>
+        <v>0.06381300137415048</v>
       </c>
       <c r="L58" t="n">
-        <v>0.06175074411797037</v>
+        <v>0.03278560639652551</v>
       </c>
       <c r="M58" t="n">
-        <v>0.06451229253946772</v>
+        <v>0.06720827925225642</v>
       </c>
       <c r="N58" t="n">
-        <v>0.06863570669069932</v>
+        <v>0.01642504586940615</v>
       </c>
       <c r="O58" t="n">
-        <v>0.01169021151680067</v>
+        <v>0.0869781202901941</v>
       </c>
       <c r="P58" t="n">
-        <v>0.03381918511477756</v>
+        <v>0.0065324283087535</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.0008058228360626783</v>
+        <v>0.04805206744440003</v>
       </c>
       <c r="R58" t="n">
-        <v>0.09756044262723031</v>
+        <v>0.09034791083474503</v>
       </c>
       <c r="S58" t="n">
-        <v>0.01382567478854389</v>
+        <v>0.006962482674527818</v>
       </c>
       <c r="T58" t="n">
-        <v>0.01804068228045937</v>
+        <v>0.05502997120411206</v>
       </c>
       <c r="U58" t="n">
-        <v>0.07312653603867056</v>
+        <v>0.05242434785887543</v>
       </c>
       <c r="V58" t="n">
-        <v>0.01999154572687016</v>
+        <v>0.01670222987987314</v>
       </c>
       <c r="W58" t="n">
-        <v>0.09514549179880928</v>
+        <v>0.08437781032464907</v>
       </c>
       <c r="X58" t="n">
-        <v>0.09442707030446568</v>
+        <v>0.06889695246436663</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.01512169122612852</v>
+        <v>0.006055269661108325</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.04036239519349076</v>
+        <v>0.002610045870521571</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.003321106650809239</v>
+        <v>0.06475964738023923</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.01681016984477655</v>
+        <v>0.01272475812990237</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.02283734469307781</v>
+        <v>0.03185962551019064</v>
       </c>
     </row>
     <row r="59">
@@ -6006,79 +6006,79 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.2076217321152169</v>
+        <v>0.2146188151740346</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0935368404222755</v>
+        <v>0.09602327314509891</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01851203048263289</v>
+        <v>0.02557741960199235</v>
       </c>
       <c r="H59" t="n">
-        <v>0.02313153487094896</v>
+        <v>0.04711559727908767</v>
       </c>
       <c r="I59" t="n">
-        <v>0.08312355248509294</v>
+        <v>0.01719142151595663</v>
       </c>
       <c r="J59" t="n">
-        <v>0.006347390529964873</v>
+        <v>0.0445273484160517</v>
       </c>
       <c r="K59" t="n">
-        <v>0.03417904907761782</v>
+        <v>0.03657298856622945</v>
       </c>
       <c r="L59" t="n">
-        <v>0.0308245508933584</v>
+        <v>0.002306891090230181</v>
       </c>
       <c r="M59" t="n">
-        <v>0.001345308244326454</v>
+        <v>0.009364801532751018</v>
       </c>
       <c r="N59" t="n">
-        <v>0.007552571313431009</v>
+        <v>0.00452034614242256</v>
       </c>
       <c r="O59" t="n">
-        <v>0.03686808666701843</v>
+        <v>0.09203862384331364</v>
       </c>
       <c r="P59" t="n">
-        <v>0.01497692107454646</v>
+        <v>0.04696023295525225</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.04321819044074376</v>
+        <v>0.0005660642745359259</v>
       </c>
       <c r="R59" t="n">
-        <v>0.03615455276401549</v>
+        <v>0.09163759069396513</v>
       </c>
       <c r="S59" t="n">
-        <v>0.09296203582453386</v>
+        <v>0.08128631732254511</v>
       </c>
       <c r="T59" t="n">
-        <v>0.07810905869629572</v>
+        <v>0.09177050812176571</v>
       </c>
       <c r="U59" t="n">
-        <v>0.09294735915617341</v>
+        <v>0.02470080434300104</v>
       </c>
       <c r="V59" t="n">
-        <v>0.09388738317473425</v>
+        <v>0.08515075471402667</v>
       </c>
       <c r="W59" t="n">
-        <v>0.01808137561929825</v>
+        <v>0.08539062970446878</v>
       </c>
       <c r="X59" t="n">
-        <v>0.06653095552005592</v>
+        <v>0.03392627670343191</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.01242469513180282</v>
+        <v>0.002466215125778252</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.03731387958404824</v>
+        <v>0.01434212901416701</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.07537372811575271</v>
+        <v>0.05876830239393824</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.002598949911331833</v>
+        <v>0.007795463499989776</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.06803815594893901</v>
+        <v>0.07433733047692882</v>
       </c>
     </row>
     <row r="60">
@@ -6101,79 +6101,79 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.209638248920526</v>
+        <v>0.2112990241420752</v>
       </c>
       <c r="F60" t="n">
-        <v>7.596059570796894e-05</v>
+        <v>0.0335349025007351</v>
       </c>
       <c r="G60" t="n">
-        <v>0.07688668252632266</v>
+        <v>0.04400944900004858</v>
       </c>
       <c r="H60" t="n">
-        <v>0.07112982405359883</v>
+        <v>0.02785545969655645</v>
       </c>
       <c r="I60" t="n">
-        <v>0.01685264844487754</v>
+        <v>0.03254687075726311</v>
       </c>
       <c r="J60" t="n">
-        <v>0.04718623090923877</v>
+        <v>0.01968175770826678</v>
       </c>
       <c r="K60" t="n">
-        <v>0.02324551725456478</v>
+        <v>0.03191104544940387</v>
       </c>
       <c r="L60" t="n">
-        <v>0.04996742012677913</v>
+        <v>0.0475111974636343</v>
       </c>
       <c r="M60" t="n">
-        <v>0.07908557243152309</v>
+        <v>0.06884742138284539</v>
       </c>
       <c r="N60" t="n">
-        <v>0.01991353263802086</v>
+        <v>0.001482397777698701</v>
       </c>
       <c r="O60" t="n">
-        <v>0.0536487615461777</v>
+        <v>0.07189417604373187</v>
       </c>
       <c r="P60" t="n">
-        <v>0.11534293634545</v>
+        <v>0.05200414502600397</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.07014683592944727</v>
+        <v>0.0419792051546164</v>
       </c>
       <c r="R60" t="n">
-        <v>0.03929976942866752</v>
+        <v>0.03327306776742045</v>
       </c>
       <c r="S60" t="n">
-        <v>0.01053720815495927</v>
+        <v>0.02400885803117432</v>
       </c>
       <c r="T60" t="n">
-        <v>0.06791991125360022</v>
+        <v>0.02373331472508322</v>
       </c>
       <c r="U60" t="n">
-        <v>0.08448573637940619</v>
+        <v>0.0847278495632245</v>
       </c>
       <c r="V60" t="n">
-        <v>0.005776536769215204</v>
+        <v>0.00429191209405813</v>
       </c>
       <c r="W60" t="n">
-        <v>0.004518915678613925</v>
+        <v>0.06647312447199344</v>
       </c>
       <c r="X60" t="n">
-        <v>0.07218297846495428</v>
+        <v>0.09009268661234705</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.002771118356748773</v>
+        <v>0.002114416480175016</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.0748917322598241</v>
+        <v>0.09767296252975731</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.01192602429427266</v>
+        <v>0.0960665307697449</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.002208146158029144</v>
+        <v>0.004287248994217175</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.07683231224373661</v>
+        <v>0.06637762220727771</v>
       </c>
     </row>
     <row r="61">
@@ -6196,79 +6196,79 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.2889785826644439</v>
+        <v>0.2346707886165187</v>
       </c>
       <c r="F61" t="n">
-        <v>0.09631270354128771</v>
+        <v>0.05169404337202049</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01167581207882419</v>
+        <v>0.01552440293972328</v>
       </c>
       <c r="H61" t="n">
-        <v>0.01871562232432613</v>
+        <v>0.07115381267198922</v>
       </c>
       <c r="I61" t="n">
-        <v>0.02984461621016037</v>
+        <v>0.001380241607768783</v>
       </c>
       <c r="J61" t="n">
-        <v>0.02210611278363515</v>
+        <v>0.005711479223420356</v>
       </c>
       <c r="K61" t="n">
-        <v>0.06801697512972039</v>
+        <v>0.03628013366491052</v>
       </c>
       <c r="L61" t="n">
-        <v>0.09512590424871789</v>
+        <v>0.02325854722457934</v>
       </c>
       <c r="M61" t="n">
-        <v>0.04118029813676281</v>
+        <v>0.1084444277113878</v>
       </c>
       <c r="N61" t="n">
-        <v>0.01259829055965931</v>
+        <v>0.02899815458970648</v>
       </c>
       <c r="O61" t="n">
-        <v>0.03493732027542908</v>
+        <v>0.02656908343762674</v>
       </c>
       <c r="P61" t="n">
-        <v>0.002485517666485468</v>
+        <v>0.08884943188224</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.007831048441802569</v>
+        <v>0.006076808394774058</v>
       </c>
       <c r="R61" t="n">
-        <v>0.04404353787233092</v>
+        <v>0.0007076717659629581</v>
       </c>
       <c r="S61" t="n">
-        <v>0.1068815977940201</v>
+        <v>0.0701891132112217</v>
       </c>
       <c r="T61" t="n">
-        <v>0.02989375472300992</v>
+        <v>0.02790517061179192</v>
       </c>
       <c r="U61" t="n">
-        <v>0.05047172806555578</v>
+        <v>0.1129019191860845</v>
       </c>
       <c r="V61" t="n">
-        <v>0.07944615863033183</v>
+        <v>0.08216153337884412</v>
       </c>
       <c r="W61" t="n">
-        <v>0.02770056390284174</v>
+        <v>0.07654171835033285</v>
       </c>
       <c r="X61" t="n">
-        <v>0.02031824781085169</v>
+        <v>0.0823973227764145</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.01211636701200967</v>
+        <v>0.001610500183624999</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.09064015613332364</v>
+        <v>0.04811132251110786</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.05937728847156414</v>
+        <v>0.02181319888430108</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.03828037818734942</v>
+        <v>0.01171996242016634</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.07001996881488549</v>
+        <v>0.0791779447804694</v>
       </c>
     </row>
     <row r="62">
@@ -6291,79 +6291,79 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.2012365779699531</v>
+        <v>0.1991714689567153</v>
       </c>
       <c r="F62" t="n">
-        <v>0.08024224179872613</v>
+        <v>0.09315770324350897</v>
       </c>
       <c r="G62" t="n">
-        <v>0.07136324782702903</v>
+        <v>0.00577778783982729</v>
       </c>
       <c r="H62" t="n">
-        <v>0.05376583565743574</v>
+        <v>0.02866588262464833</v>
       </c>
       <c r="I62" t="n">
-        <v>0.05972506162243339</v>
+        <v>0.08700416348358368</v>
       </c>
       <c r="J62" t="n">
-        <v>0.05954851167573256</v>
+        <v>0.00394350345355656</v>
       </c>
       <c r="K62" t="n">
-        <v>3.662612819242605e-05</v>
+        <v>0.03861883898172776</v>
       </c>
       <c r="L62" t="n">
-        <v>0.01531361540968955</v>
+        <v>0.0408060784260248</v>
       </c>
       <c r="M62" t="n">
-        <v>0.06776105631298548</v>
+        <v>0.09254890897545968</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0006264436500091022</v>
+        <v>0.0004140155594207263</v>
       </c>
       <c r="O62" t="n">
-        <v>0.008037252178513235</v>
+        <v>0.003250594151441944</v>
       </c>
       <c r="P62" t="n">
-        <v>0.05967543141536061</v>
+        <v>0.03653704605274578</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.06576397354963696</v>
+        <v>0.06744594770366065</v>
       </c>
       <c r="R62" t="n">
-        <v>0.07702065548816346</v>
+        <v>0.08390629037950134</v>
       </c>
       <c r="S62" t="n">
-        <v>0.02555386839802506</v>
+        <v>0.05476080274621355</v>
       </c>
       <c r="T62" t="n">
-        <v>0.01505308630704766</v>
+        <v>0.01011326637689025</v>
       </c>
       <c r="U62" t="n">
-        <v>0.09072807211778891</v>
+        <v>0.04564573929601518</v>
       </c>
       <c r="V62" t="n">
-        <v>0.02465590309521997</v>
+        <v>0.003484480600139733</v>
       </c>
       <c r="W62" t="n">
-        <v>0.006344157968589021</v>
+        <v>0.06585307921796786</v>
       </c>
       <c r="X62" t="n">
-        <v>0.07737501855275099</v>
+        <v>0.08705279535002189</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.00874075681313744</v>
+        <v>0.02594051036516248</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.0723507170344249</v>
+        <v>0.04570612242760067</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.05688953801521947</v>
+        <v>0.070044428795959</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.003428928983888879</v>
+        <v>0.009322013948922014</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.06529810902313384</v>
+        <v>0.07224223508638043</v>
       </c>
     </row>
     <row r="63">
@@ -6386,79 +6386,79 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.3673204427834132</v>
+        <v>0.2959720851141662</v>
       </c>
       <c r="F63" t="n">
-        <v>0.05317140048910959</v>
+        <v>0.1029696287711917</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02577028316664921</v>
+        <v>0.0003667819358801902</v>
       </c>
       <c r="H63" t="n">
-        <v>0.09124734792248151</v>
+        <v>0.01789720274528726</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0505343679530033</v>
+        <v>0.03119292565177135</v>
       </c>
       <c r="J63" t="n">
-        <v>0.007989671686632069</v>
+        <v>0.05567473043568383</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0454125604721129</v>
+        <v>0.02662868586309869</v>
       </c>
       <c r="L63" t="n">
-        <v>0.01974152407768081</v>
+        <v>0.02501964526663593</v>
       </c>
       <c r="M63" t="n">
-        <v>0.01023576320732642</v>
+        <v>0.0275120051545339</v>
       </c>
       <c r="N63" t="n">
-        <v>0.008852479391716437</v>
+        <v>0.003479196503186556</v>
       </c>
       <c r="O63" t="n">
-        <v>0.1166817061107576</v>
+        <v>0.0825300110851747</v>
       </c>
       <c r="P63" t="n">
-        <v>0.0009118911801710839</v>
+        <v>0.002530121219526772</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.05364550401530407</v>
+        <v>0.03657460793647525</v>
       </c>
       <c r="R63" t="n">
-        <v>0.08760505077662736</v>
+        <v>0.04121962060383456</v>
       </c>
       <c r="S63" t="n">
-        <v>0.09877314679626208</v>
+        <v>0.03225224284606665</v>
       </c>
       <c r="T63" t="n">
-        <v>0.04318800768294557</v>
+        <v>0.02481719444360563</v>
       </c>
       <c r="U63" t="n">
-        <v>0.1045076453868493</v>
+        <v>0.1129753397638537</v>
       </c>
       <c r="V63" t="n">
-        <v>0.05115700504515747</v>
+        <v>0.1153934573931712</v>
       </c>
       <c r="W63" t="n">
-        <v>0.009519649125879727</v>
+        <v>0.09817676287478026</v>
       </c>
       <c r="X63" t="n">
-        <v>0.01433585734111699</v>
+        <v>0.008727094545658409</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.004309892507311593</v>
+        <v>0.006667874136482934</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.01123221977923151</v>
+        <v>0.02263245965527051</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.08509197880385669</v>
+        <v>0.1036316725771945</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.006085047081816691</v>
+        <v>0.02113073859163549</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.05833120012411428</v>
+        <v>0.08046696407190683</v>
       </c>
     </row>
     <row r="64">
@@ -6481,79 +6481,79 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.2119569098585112</v>
+        <v>0.2146743781471737</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01231422960305526</v>
+        <v>0.03811768674261843</v>
       </c>
       <c r="G64" t="n">
-        <v>0.07238870223672297</v>
+        <v>0.06224167227670208</v>
       </c>
       <c r="H64" t="n">
-        <v>0.03341169033883223</v>
+        <v>0.04588376647674217</v>
       </c>
       <c r="I64" t="n">
-        <v>0.02304791077128776</v>
+        <v>0.06482874208554087</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1029160498433012</v>
+        <v>0.06872542465697644</v>
       </c>
       <c r="K64" t="n">
-        <v>0.03742958372883237</v>
+        <v>0.02892711767508427</v>
       </c>
       <c r="L64" t="n">
-        <v>0.06824944571281813</v>
+        <v>0.04305693324570461</v>
       </c>
       <c r="M64" t="n">
-        <v>0.04949454316421764</v>
+        <v>0.07167196317284504</v>
       </c>
       <c r="N64" t="n">
-        <v>0.02865255985781939</v>
+        <v>0.01074687476351212</v>
       </c>
       <c r="O64" t="n">
-        <v>0.03606287785896373</v>
+        <v>0.04845584955097712</v>
       </c>
       <c r="P64" t="n">
-        <v>0.08613248673016463</v>
+        <v>0.07527584176295693</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.02092182767796631</v>
+        <v>0.03694129993414549</v>
       </c>
       <c r="R64" t="n">
-        <v>0.05570163271947124</v>
+        <v>0.05032822562104301</v>
       </c>
       <c r="S64" t="n">
-        <v>0.03762664336412727</v>
+        <v>0.02433992638993095</v>
       </c>
       <c r="T64" t="n">
-        <v>0.0690230922083703</v>
+        <v>0.05715773938650472</v>
       </c>
       <c r="U64" t="n">
-        <v>0.06943240654369981</v>
+        <v>0.06094691392842733</v>
       </c>
       <c r="V64" t="n">
-        <v>0.001180745121035879</v>
+        <v>0.007592589166919376</v>
       </c>
       <c r="W64" t="n">
-        <v>0.0537330847538901</v>
+        <v>0.03739220175059082</v>
       </c>
       <c r="X64" t="n">
-        <v>0.07506599011078743</v>
+        <v>0.06621562775198563</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.01776151874958383</v>
+        <v>0.0137501813194209</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.004317703835735748</v>
+        <v>0.03351142718199119</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.03616805952887083</v>
+        <v>0.03225652285263222</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.00896721554044598</v>
+        <v>0.02163547230674822</v>
       </c>
       <c r="AC64" t="n">
-        <v>-0.05284523191236774</v>
+        <v>-0.03535014524168426</v>
       </c>
     </row>
     <row r="65">
@@ -6576,79 +6576,79 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.2633442611666252</v>
+        <v>0.2828899031833945</v>
       </c>
       <c r="F65" t="n">
-        <v>0.07880868454583184</v>
+        <v>0.05215261357820092</v>
       </c>
       <c r="G65" t="n">
-        <v>0.04704482664486329</v>
+        <v>0.06702654393823179</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0530826339064682</v>
+        <v>0.05734725200965329</v>
       </c>
       <c r="I65" t="n">
-        <v>0.01404503671718443</v>
+        <v>0.005212555111377935</v>
       </c>
       <c r="J65" t="n">
-        <v>0.007891802970763553</v>
+        <v>0.001244619955368925</v>
       </c>
       <c r="K65" t="n">
-        <v>0.0373059163126102</v>
+        <v>0.005427442092851681</v>
       </c>
       <c r="L65" t="n">
-        <v>0.02516976825328727</v>
+        <v>0.03974807984496635</v>
       </c>
       <c r="M65" t="n">
-        <v>0.01706878345745383</v>
+        <v>0.004199414593320282</v>
       </c>
       <c r="N65" t="n">
-        <v>0.00576213673752082</v>
+        <v>0.009410831320792587</v>
       </c>
       <c r="O65" t="n">
-        <v>0.04172190573864634</v>
+        <v>0.06623912423623911</v>
       </c>
       <c r="P65" t="n">
-        <v>0.04286093966098656</v>
+        <v>0.04731729510111459</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.08289694760185758</v>
+        <v>0.09259455960335417</v>
       </c>
       <c r="R65" t="n">
-        <v>0.03209970270087115</v>
+        <v>0.02149962156205264</v>
       </c>
       <c r="S65" t="n">
-        <v>0.05570382199105837</v>
+        <v>0.02479898883526245</v>
       </c>
       <c r="T65" t="n">
-        <v>0.06395083822308838</v>
+        <v>0.09104123527025368</v>
       </c>
       <c r="U65" t="n">
-        <v>0.06528367815718622</v>
+        <v>0.08314732479139939</v>
       </c>
       <c r="V65" t="n">
-        <v>0.01928153104975907</v>
+        <v>0.04213971984694347</v>
       </c>
       <c r="W65" t="n">
-        <v>0.002495799509388647</v>
+        <v>0.0019510924682792</v>
       </c>
       <c r="X65" t="n">
-        <v>0.01244838500199412</v>
+        <v>0.06505131804737344</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.08396672324081271</v>
+        <v>0.09203172401784784</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.0607045788331382</v>
+        <v>0.05520490719512125</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.0828680032890169</v>
+        <v>0.06961528121401217</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.06753755545621234</v>
+        <v>0.0055984553659828</v>
       </c>
       <c r="AC65" t="n">
-        <v>0.001608724902461403</v>
+        <v>0.01803228992548703</v>
       </c>
     </row>
     <row r="66">
@@ -6671,79 +6671,79 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.1824437794192038</v>
+        <v>0.1899909107348107</v>
       </c>
       <c r="F66" t="n">
-        <v>0.007719405755708654</v>
+        <v>0.01451019501770528</v>
       </c>
       <c r="G66" t="n">
-        <v>0.00542710171664732</v>
+        <v>0.004958757440072579</v>
       </c>
       <c r="H66" t="n">
-        <v>0.03941367833948967</v>
+        <v>0.02995668000541575</v>
       </c>
       <c r="I66" t="n">
-        <v>0.08376242686871399</v>
+        <v>0.07249882368008695</v>
       </c>
       <c r="J66" t="n">
-        <v>0.03292840821057479</v>
+        <v>0.05652402211359169</v>
       </c>
       <c r="K66" t="n">
-        <v>0.106234143172804</v>
+        <v>0.07761296424154168</v>
       </c>
       <c r="L66" t="n">
-        <v>0.02862720165209492</v>
+        <v>0.00546308001648103</v>
       </c>
       <c r="M66" t="n">
-        <v>0.04445446944991253</v>
+        <v>0.05110759021104988</v>
       </c>
       <c r="N66" t="n">
-        <v>0.001355906168885657</v>
+        <v>0.06971862628463743</v>
       </c>
       <c r="O66" t="n">
-        <v>0.004479960382916405</v>
+        <v>0.00412607240873717</v>
       </c>
       <c r="P66" t="n">
-        <v>0.06145864151661601</v>
+        <v>0.03785178372229388</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.001792121546197419</v>
+        <v>0.04006672524818895</v>
       </c>
       <c r="R66" t="n">
-        <v>0.02398811915305639</v>
+        <v>0.004959545250061547</v>
       </c>
       <c r="S66" t="n">
-        <v>0.1107348701779022</v>
+        <v>0.09400271439624976</v>
       </c>
       <c r="T66" t="n">
-        <v>0.05287922970483654</v>
+        <v>0.0164554921004249</v>
       </c>
       <c r="U66" t="n">
-        <v>0.07332913619151539</v>
+        <v>0.09231645081206537</v>
       </c>
       <c r="V66" t="n">
-        <v>0.029866278963737</v>
+        <v>0.03746694105841361</v>
       </c>
       <c r="W66" t="n">
-        <v>0.03720101284837994</v>
+        <v>0.08651744349888542</v>
       </c>
       <c r="X66" t="n">
-        <v>0.1092463341077321</v>
+        <v>0.07574250399060921</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.02203644570883216</v>
+        <v>0.01985887936862446</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.01743564438921246</v>
+        <v>0.0008980578887034435</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.1026524199614724</v>
+        <v>0.09076591187844242</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.002977044012761971</v>
+        <v>0.01662073936771778</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.03275665826033555</v>
+        <v>0.03136840711406265</v>
       </c>
     </row>
     <row r="67">
@@ -6766,79 +6766,79 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.662275307171763</v>
+        <v>0.5857580700758762</v>
       </c>
       <c r="F67" t="n">
-        <v>0.03964089413550966</v>
+        <v>0.03744566509852985</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0137179618347105</v>
+        <v>0.006124158662890073</v>
       </c>
       <c r="H67" t="n">
-        <v>0.03271280253086625</v>
+        <v>0.06645357223295494</v>
       </c>
       <c r="I67" t="n">
-        <v>0.01596238852799568</v>
+        <v>0.03893597364278408</v>
       </c>
       <c r="J67" t="n">
-        <v>0.02264727205407514</v>
+        <v>0.06929117277571023</v>
       </c>
       <c r="K67" t="n">
-        <v>0.02722603958202735</v>
+        <v>0.006970864887002198</v>
       </c>
       <c r="L67" t="n">
-        <v>0.01585625962748666</v>
+        <v>0.007848740568899601</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0780082129312081</v>
+        <v>0.0853975571285296</v>
       </c>
       <c r="N67" t="n">
-        <v>0.03845278417386198</v>
+        <v>0.04794112819567007</v>
       </c>
       <c r="O67" t="n">
-        <v>0.1271903641630592</v>
+        <v>0.1117194314928444</v>
       </c>
       <c r="P67" t="n">
-        <v>0.006396058558197303</v>
+        <v>0.01674372819104821</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.03309702116678944</v>
+        <v>0.11143654090111</v>
       </c>
       <c r="R67" t="n">
-        <v>0.1151155423641055</v>
+        <v>0.06012014316290915</v>
       </c>
       <c r="S67" t="n">
-        <v>0.08932654674551363</v>
+        <v>0.03333122159615327</v>
       </c>
       <c r="T67" t="n">
-        <v>0.003051348198670361</v>
+        <v>0.05503069722835029</v>
       </c>
       <c r="U67" t="n">
-        <v>0.0191849816479736</v>
+        <v>0.008835766639109927</v>
       </c>
       <c r="V67" t="n">
-        <v>0.06339356747434773</v>
+        <v>0.01146493205599259</v>
       </c>
       <c r="W67" t="n">
-        <v>0.04622226036568632</v>
+        <v>0.05647155480675262</v>
       </c>
       <c r="X67" t="n">
-        <v>0.04131718558387775</v>
+        <v>0.06446271039746901</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.01515322580995585</v>
+        <v>0.03266695799699706</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.04261901948008309</v>
+        <v>0.0003123475825263096</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.1006951302327194</v>
+        <v>0.006878114511118813</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.01301313281127919</v>
+        <v>0.06411702024464785</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.05213184903263229</v>
+        <v>0.05162462178504321</v>
       </c>
     </row>
     <row r="68">
@@ -6861,79 +6861,79 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.1612142601959872</v>
+        <v>0.157488079759207</v>
       </c>
       <c r="F68" t="n">
-        <v>0.05710343290698917</v>
+        <v>0.08399868908697627</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03701585305678665</v>
+        <v>0.07992821526957687</v>
       </c>
       <c r="H68" t="n">
-        <v>0.02367326672774199</v>
+        <v>0.03723073167515971</v>
       </c>
       <c r="I68" t="n">
-        <v>0.04710733848128347</v>
+        <v>0.08806343271108101</v>
       </c>
       <c r="J68" t="n">
-        <v>0.06223511333256251</v>
+        <v>0.05217779754432295</v>
       </c>
       <c r="K68" t="n">
-        <v>0.03676729099448861</v>
+        <v>0.03187443884838933</v>
       </c>
       <c r="L68" t="n">
-        <v>0.07640457115079589</v>
+        <v>0.01511039939492898</v>
       </c>
       <c r="M68" t="n">
-        <v>0.06738907516516775</v>
+        <v>0.01793790016855227</v>
       </c>
       <c r="N68" t="n">
-        <v>0.01628634403129632</v>
+        <v>0.02692845387435423</v>
       </c>
       <c r="O68" t="n">
-        <v>0.002151869225597607</v>
+        <v>0.01002730734924879</v>
       </c>
       <c r="P68" t="n">
-        <v>0.08518005483775949</v>
+        <v>0.07974211271518465</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.04286212511393626</v>
+        <v>0.02642521154079931</v>
       </c>
       <c r="R68" t="n">
-        <v>0.05669481485279261</v>
+        <v>0.05134363100745147</v>
       </c>
       <c r="S68" t="n">
-        <v>0.03508100081679155</v>
+        <v>0.04981855328014066</v>
       </c>
       <c r="T68" t="n">
-        <v>0.07738413507498694</v>
+        <v>0.06375509769737132</v>
       </c>
       <c r="U68" t="n">
-        <v>0.05948623866059218</v>
+        <v>0.06758791498364083</v>
       </c>
       <c r="V68" t="n">
-        <v>0.06428413222732245</v>
+        <v>0.005201279491089777</v>
       </c>
       <c r="W68" t="n">
-        <v>0.003881946123690557</v>
+        <v>0.001890147943066146</v>
       </c>
       <c r="X68" t="n">
-        <v>0.06607487968979069</v>
+        <v>0.06895244819230149</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.01340291387100935</v>
+        <v>0.05185670286481863</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.03714522913945346</v>
+        <v>0.004434225816770849</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.03197855161276413</v>
+        <v>0.07717739774826381</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.0004098229064003089</v>
+        <v>0.008537910796510574</v>
       </c>
       <c r="AC68" t="n">
-        <v>-0.005866924987479663</v>
+        <v>-0.001515185505012106</v>
       </c>
     </row>
     <row r="69">
@@ -6956,79 +6956,79 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.3907938291051651</v>
+        <v>0.4385599114181533</v>
       </c>
       <c r="F69" t="n">
-        <v>0.03225097826350511</v>
+        <v>0.03595853444813892</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0004020703278785154</v>
+        <v>0.03148485049949164</v>
       </c>
       <c r="H69" t="n">
-        <v>0.05525536691655427</v>
+        <v>0.01811540884415333</v>
       </c>
       <c r="I69" t="n">
-        <v>0.09025105186628855</v>
+        <v>0.04717016988747169</v>
       </c>
       <c r="J69" t="n">
-        <v>0.01845453244891159</v>
+        <v>0.00774338669591896</v>
       </c>
       <c r="K69" t="n">
-        <v>0.04896723555480904</v>
+        <v>0.01836871333471972</v>
       </c>
       <c r="L69" t="n">
-        <v>0.01544645337847784</v>
+        <v>0.01124952617332395</v>
       </c>
       <c r="M69" t="n">
-        <v>0.06217742746353771</v>
+        <v>0.02410667630104833</v>
       </c>
       <c r="N69" t="n">
-        <v>0.0151914682804663</v>
+        <v>0.01549548399417052</v>
       </c>
       <c r="O69" t="n">
-        <v>0.1204710594155554</v>
+        <v>0.136171990736735</v>
       </c>
       <c r="P69" t="n">
-        <v>0.05782923137373562</v>
+        <v>0.003402668689710957</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.01733745869101605</v>
+        <v>0.05695457083109419</v>
       </c>
       <c r="R69" t="n">
-        <v>0.006858668862868941</v>
+        <v>0.1383998826395165</v>
       </c>
       <c r="S69" t="n">
-        <v>0.08038205388295039</v>
+        <v>0.01355176490881982</v>
       </c>
       <c r="T69" t="n">
-        <v>0.07911525033155209</v>
+        <v>0.05196592808194147</v>
       </c>
       <c r="U69" t="n">
-        <v>0.0008303805995855542</v>
+        <v>0.05655243313069507</v>
       </c>
       <c r="V69" t="n">
-        <v>0.002258990004073591</v>
+        <v>0.003341983508646569</v>
       </c>
       <c r="W69" t="n">
-        <v>0.02190176265989767</v>
+        <v>0.01017146175476837</v>
       </c>
       <c r="X69" t="n">
-        <v>0.02340002566000871</v>
+        <v>0.0508745392421134</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.07530343480980446</v>
+        <v>0.06679521434620189</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.1196012026750802</v>
+        <v>0.1211597512513137</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.04443637116003035</v>
+        <v>0.05058538509091447</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.01187752537341203</v>
+        <v>0.03037967560909145</v>
       </c>
       <c r="AC69" t="n">
-        <v>-0.01250008701664291</v>
+        <v>-0.01414314016496307</v>
       </c>
     </row>
     <row r="70">
@@ -7051,79 +7051,79 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.1327443909534743</v>
+        <v>0.1328091887376507</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0583218092215533</v>
+        <v>0.0698449711760593</v>
       </c>
       <c r="G70" t="n">
-        <v>0.05109311983711461</v>
+        <v>0.003073638509330678</v>
       </c>
       <c r="H70" t="n">
-        <v>0.01629238417891079</v>
+        <v>0.01042198569082931</v>
       </c>
       <c r="I70" t="n">
-        <v>0.03508059651901011</v>
+        <v>0.006545284304321586</v>
       </c>
       <c r="J70" t="n">
-        <v>0.05912906735636894</v>
+        <v>0.03669090520828692</v>
       </c>
       <c r="K70" t="n">
-        <v>0.0114467169463808</v>
+        <v>0.0218071269252153</v>
       </c>
       <c r="L70" t="n">
-        <v>0.07282665454825031</v>
+        <v>0.1242047708769078</v>
       </c>
       <c r="M70" t="n">
-        <v>0.07047353152409287</v>
+        <v>0.04877345008847378</v>
       </c>
       <c r="N70" t="n">
-        <v>0.005193978957558698</v>
+        <v>0.005497889690663701</v>
       </c>
       <c r="O70" t="n">
-        <v>0.01665788524937982</v>
+        <v>0.002865059918995163</v>
       </c>
       <c r="P70" t="n">
-        <v>0.01547788214315192</v>
+        <v>0.1209176586211276</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.01501873088006532</v>
+        <v>0.02145453575405506</v>
       </c>
       <c r="R70" t="n">
-        <v>0.06724917243726158</v>
+        <v>0.09094271939998154</v>
       </c>
       <c r="S70" t="n">
-        <v>0.07158711154651853</v>
+        <v>0.01462238112437115</v>
       </c>
       <c r="T70" t="n">
-        <v>0.06769267047266173</v>
+        <v>0.08920600725367983</v>
       </c>
       <c r="U70" t="n">
-        <v>0.08614882774999924</v>
+        <v>0.06077103514546464</v>
       </c>
       <c r="V70" t="n">
-        <v>0.004188592696719539</v>
+        <v>0.05311578962767483</v>
       </c>
       <c r="W70" t="n">
-        <v>0.09110789635013439</v>
+        <v>0.07693110496294209</v>
       </c>
       <c r="X70" t="n">
-        <v>0.01517024859419991</v>
+        <v>0.1102758093197801</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.04995294611339673</v>
+        <v>0.007997396998530285</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.01501195345306715</v>
+        <v>0.001686790475262238</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.08216757269139749</v>
+        <v>0.01829772261975964</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.02271065053280626</v>
+        <v>0.004055966308287345</v>
       </c>
       <c r="AC70" t="n">
-        <v>-0.03121010987896173</v>
+        <v>-0.0482052701084016</v>
       </c>
     </row>
     <row r="71">
@@ -7146,79 +7146,79 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.1587055439371859</v>
+        <v>0.1600251441004328</v>
       </c>
       <c r="F71" t="n">
-        <v>0.06322551717092269</v>
+        <v>0.04533603026533322</v>
       </c>
       <c r="G71" t="n">
-        <v>0.01899245076068308</v>
+        <v>0.07588176310207796</v>
       </c>
       <c r="H71" t="n">
-        <v>0.002134308074209463</v>
+        <v>0.002661115184450025</v>
       </c>
       <c r="I71" t="n">
-        <v>0.05056622545762285</v>
+        <v>0.02903263975614801</v>
       </c>
       <c r="J71" t="n">
-        <v>0.01053760641111251</v>
+        <v>0.007496830100072997</v>
       </c>
       <c r="K71" t="n">
-        <v>0.004985249835207877</v>
+        <v>0.1044773441271831</v>
       </c>
       <c r="L71" t="n">
-        <v>0.03589096524859701</v>
+        <v>0.01198672164546872</v>
       </c>
       <c r="M71" t="n">
-        <v>0.09377833605214064</v>
+        <v>0.03665567955344894</v>
       </c>
       <c r="N71" t="n">
-        <v>0.04283060257826756</v>
+        <v>0.09647789255717854</v>
       </c>
       <c r="O71" t="n">
-        <v>0.004954076086516214</v>
+        <v>0.04073782870460798</v>
       </c>
       <c r="P71" t="n">
-        <v>0.01873152164930809</v>
+        <v>0.05414131009790261</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.1151873060327849</v>
+        <v>0.02978006290565613</v>
       </c>
       <c r="R71" t="n">
-        <v>0.01216297207042389</v>
+        <v>0.03853235240225628</v>
       </c>
       <c r="S71" t="n">
-        <v>0.01420933890167289</v>
+        <v>0.004363661495295686</v>
       </c>
       <c r="T71" t="n">
-        <v>0.1041700609993696</v>
+        <v>0.01038646855712034</v>
       </c>
       <c r="U71" t="n">
-        <v>0.05431216101268087</v>
+        <v>0.06747866992644883</v>
       </c>
       <c r="V71" t="n">
-        <v>0.06052187140333612</v>
+        <v>0.1024793293348981</v>
       </c>
       <c r="W71" t="n">
-        <v>5.047123195358061e-05</v>
+        <v>0.0113839810080885</v>
       </c>
       <c r="X71" t="n">
-        <v>0.08365707282385751</v>
+        <v>0.0947005069124414</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.1124330391714713</v>
+        <v>0.104470703640038</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.01682457247623542</v>
+        <v>0.0009571337317933925</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.004450809163049979</v>
+        <v>0.0267303224074171</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.07539346538857575</v>
+        <v>0.003851652584674399</v>
       </c>
       <c r="AC71" t="n">
-        <v>-0.0518786885780458</v>
+        <v>-0.06732241194170754</v>
       </c>
     </row>
     <row r="72">
@@ -7241,79 +7241,79 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.1172312414544226</v>
+        <v>0.1170472760574884</v>
       </c>
       <c r="F72" t="n">
-        <v>0.003013136087832684</v>
+        <v>0.04939040383702031</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06449587699315766</v>
+        <v>0.008430625036413158</v>
       </c>
       <c r="H72" t="n">
-        <v>0.07184603597262104</v>
+        <v>0.04882577736854377</v>
       </c>
       <c r="I72" t="n">
-        <v>0.03124600281992317</v>
+        <v>0.01484339868526165</v>
       </c>
       <c r="J72" t="n">
-        <v>0.06572954049527319</v>
+        <v>0.08240451680457307</v>
       </c>
       <c r="K72" t="n">
-        <v>0.02987146577047951</v>
+        <v>0.1004006730245698</v>
       </c>
       <c r="L72" t="n">
-        <v>0.04508640982641984</v>
+        <v>0.05340969959388196</v>
       </c>
       <c r="M72" t="n">
-        <v>0.02741118015147997</v>
+        <v>0.005825290620730257</v>
       </c>
       <c r="N72" t="n">
-        <v>0.0008707737138889382</v>
+        <v>0.03709892373981419</v>
       </c>
       <c r="O72" t="n">
-        <v>0.0489845129528936</v>
+        <v>0.1037500366925393</v>
       </c>
       <c r="P72" t="n">
-        <v>0.09433752307595608</v>
+        <v>0.09745868523594908</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.01373005467095389</v>
+        <v>0.001823187575251691</v>
       </c>
       <c r="R72" t="n">
-        <v>0.0933625872077965</v>
+        <v>0.003461957492091339</v>
       </c>
       <c r="S72" t="n">
-        <v>0.01563901980087804</v>
+        <v>0.04845461826896148</v>
       </c>
       <c r="T72" t="n">
-        <v>0.0286061348200457</v>
+        <v>0.0166364473953375</v>
       </c>
       <c r="U72" t="n">
-        <v>0.07908805706993852</v>
+        <v>0.0864043006854377</v>
       </c>
       <c r="V72" t="n">
-        <v>0.0009017590823773453</v>
+        <v>0.009305432679249681</v>
       </c>
       <c r="W72" t="n">
-        <v>0.03573489149124916</v>
+        <v>0.09643685295682608</v>
       </c>
       <c r="X72" t="n">
-        <v>0.02576764401925143</v>
+        <v>0.04456476177042737</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.04948158304457032</v>
+        <v>0.02657173131106226</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.045760576203218</v>
+        <v>0.01897468656139723</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.0750878014903776</v>
+        <v>0.02170619160889732</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.05394743323941796</v>
+        <v>0.02382180105576379</v>
       </c>
       <c r="AC72" t="n">
-        <v>-0.1616761618339957</v>
+        <v>-0.1623879228114489</v>
       </c>
     </row>
     <row r="73">
@@ -7336,79 +7336,79 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.1431356251462119</v>
+        <v>0.1468888664420256</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0806472705598808</v>
+        <v>0.0257973450023402</v>
       </c>
       <c r="G73" t="n">
-        <v>0.07231939348656466</v>
+        <v>0.1100024023517591</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02194487552803703</v>
+        <v>0.007990726029315281</v>
       </c>
       <c r="I73" t="n">
-        <v>0.01515092279190337</v>
+        <v>0.001855966331247206</v>
       </c>
       <c r="J73" t="n">
-        <v>0.004526145816649198</v>
+        <v>0.005053591681697704</v>
       </c>
       <c r="K73" t="n">
-        <v>0.06399578051507544</v>
+        <v>0.1086041833911194</v>
       </c>
       <c r="L73" t="n">
-        <v>0.03455886833744177</v>
+        <v>0.01759598510543091</v>
       </c>
       <c r="M73" t="n">
-        <v>0.06282387193368753</v>
+        <v>0.02560760623701687</v>
       </c>
       <c r="N73" t="n">
-        <v>0.01461952776536318</v>
+        <v>0.03440097530503303</v>
       </c>
       <c r="O73" t="n">
-        <v>0.01287578678222457</v>
+        <v>0.01935768658599991</v>
       </c>
       <c r="P73" t="n">
-        <v>0.0138111080732613</v>
+        <v>0.008043642355148073</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.0784053851410807</v>
+        <v>0.09970164440116493</v>
       </c>
       <c r="R73" t="n">
-        <v>0.02631193478583904</v>
+        <v>0.00562142054687178</v>
       </c>
       <c r="S73" t="n">
-        <v>0.07137537941441584</v>
+        <v>0.03944717345943065</v>
       </c>
       <c r="T73" t="n">
-        <v>0.0165426551534331</v>
+        <v>0.00984838600108252</v>
       </c>
       <c r="U73" t="n">
-        <v>0.02738070636218314</v>
+        <v>0.01205527964432636</v>
       </c>
       <c r="V73" t="n">
-        <v>0.04505220154014822</v>
+        <v>0.05972164304428979</v>
       </c>
       <c r="W73" t="n">
-        <v>0.0166284538167275</v>
+        <v>0.1144948896874927</v>
       </c>
       <c r="X73" t="n">
-        <v>0.07844991195912662</v>
+        <v>0.00294933401862269</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.08911490187387175</v>
+        <v>0.1309738468733194</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.07713305300644055</v>
+        <v>0.09604831519086217</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.005085893680664492</v>
+        <v>0.03704925965468642</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.07124597167598039</v>
+        <v>0.02777869710174286</v>
       </c>
       <c r="AC73" t="n">
-        <v>-0.1581730378272771</v>
+        <v>-0.1501816591960114</v>
       </c>
     </row>
     <row r="74">
@@ -7431,79 +7431,79 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.1248285596229338</v>
+        <v>0.1256635312225801</v>
       </c>
       <c r="F74" t="n">
-        <v>0.03129323662265982</v>
+        <v>0.06671304468634916</v>
       </c>
       <c r="G74" t="n">
-        <v>0.07991615104434271</v>
+        <v>0.00369510739289338</v>
       </c>
       <c r="H74" t="n">
-        <v>0.01129870627402815</v>
+        <v>0.05304211874520784</v>
       </c>
       <c r="I74" t="n">
-        <v>0.008336577300158004</v>
+        <v>0.001278063752562664</v>
       </c>
       <c r="J74" t="n">
-        <v>0.02226300914541839</v>
+        <v>0.08464512081314447</v>
       </c>
       <c r="K74" t="n">
-        <v>0.001335830952638896</v>
+        <v>0.00969807184861834</v>
       </c>
       <c r="L74" t="n">
-        <v>0.05937553758422324</v>
+        <v>0.02193359210836059</v>
       </c>
       <c r="M74" t="n">
-        <v>0.07703677436310898</v>
+        <v>0.07167665891575752</v>
       </c>
       <c r="N74" t="n">
-        <v>0.008697812750979332</v>
+        <v>0.0170793781609913</v>
       </c>
       <c r="O74" t="n">
-        <v>0.01268920903074124</v>
+        <v>0.08186270135907672</v>
       </c>
       <c r="P74" t="n">
-        <v>0.0865677113767343</v>
+        <v>0.05096749496462998</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.07650277487619769</v>
+        <v>0.04069105543058639</v>
       </c>
       <c r="R74" t="n">
-        <v>0.03230210586546937</v>
+        <v>0.02203488461158831</v>
       </c>
       <c r="S74" t="n">
-        <v>0.03468262998159059</v>
+        <v>0.007701274072489758</v>
       </c>
       <c r="T74" t="n">
-        <v>0.0927449955694119</v>
+        <v>0.04731576637886872</v>
       </c>
       <c r="U74" t="n">
-        <v>0.07044000696268871</v>
+        <v>0.07144483892561054</v>
       </c>
       <c r="V74" t="n">
-        <v>0.003559962761177394</v>
+        <v>0.0009191778132761128</v>
       </c>
       <c r="W74" t="n">
-        <v>0.09237219549511984</v>
+        <v>0.04928838278866859</v>
       </c>
       <c r="X74" t="n">
-        <v>0.0263851877255323</v>
+        <v>0.05464001761138314</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.05046266134301005</v>
+        <v>0.09458835842668585</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.02967337283242107</v>
+        <v>0.08380575089242932</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.05379932386959115</v>
+        <v>0.03326355671267731</v>
       </c>
       <c r="AB74" t="n">
-        <v>0.03826422627275688</v>
+        <v>0.031715583588144</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.1342291744735231</v>
+        <v>0.1466494249418579</v>
       </c>
     </row>
     <row r="75">
@@ -7526,79 +7526,79 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.1433448955229559</v>
+        <v>0.1467766278981652</v>
       </c>
       <c r="F75" t="n">
-        <v>0.09966568182929854</v>
+        <v>0.1155304404026803</v>
       </c>
       <c r="G75" t="n">
-        <v>0.01838892929692837</v>
+        <v>0.06869151315485636</v>
       </c>
       <c r="H75" t="n">
-        <v>0.09983547918063997</v>
+        <v>0.1187356262092793</v>
       </c>
       <c r="I75" t="n">
-        <v>0.06317295655924678</v>
+        <v>0.003856876412531535</v>
       </c>
       <c r="J75" t="n">
-        <v>0.03335668281063895</v>
+        <v>0.001228826875314039</v>
       </c>
       <c r="K75" t="n">
-        <v>0.01377899291897504</v>
+        <v>0.00496483848026037</v>
       </c>
       <c r="L75" t="n">
-        <v>0.04382107658491684</v>
+        <v>0.02157127628093753</v>
       </c>
       <c r="M75" t="n">
-        <v>0.04242046244467205</v>
+        <v>0.01860650386656093</v>
       </c>
       <c r="N75" t="n">
-        <v>0.004565780237574505</v>
+        <v>0.03009863685394805</v>
       </c>
       <c r="O75" t="n">
-        <v>0.0783243011281254</v>
+        <v>0.11597209938979</v>
       </c>
       <c r="P75" t="n">
-        <v>0.1069760989356017</v>
+        <v>0.0833706718167805</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.004842390684015968</v>
+        <v>0.1013869597283959</v>
       </c>
       <c r="R75" t="n">
-        <v>0.00460774635896166</v>
+        <v>0.009064209238481894</v>
       </c>
       <c r="S75" t="n">
-        <v>0.003971489642843007</v>
+        <v>0.01586520747117625</v>
       </c>
       <c r="T75" t="n">
-        <v>0.009904909706557795</v>
+        <v>0.003443577247760539</v>
       </c>
       <c r="U75" t="n">
-        <v>0.004867421465781132</v>
+        <v>0.02979802350354841</v>
       </c>
       <c r="V75" t="n">
-        <v>0.03042709642079514</v>
+        <v>0.0486034727660476</v>
       </c>
       <c r="W75" t="n">
-        <v>0.0282116135113255</v>
+        <v>0.102756822203672</v>
       </c>
       <c r="X75" t="n">
-        <v>0.06433371647382356</v>
+        <v>0.03214655836876488</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.07603338219489696</v>
+        <v>0.03329047729792315</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.1027472219433297</v>
+        <v>0.009640006486699963</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.04655112370484452</v>
+        <v>0.001792659186388136</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.01919544596620702</v>
+        <v>0.02958471675820243</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.1539222465714536</v>
+        <v>0.1429515578838513</v>
       </c>
     </row>
     <row r="76">
@@ -7621,79 +7621,79 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.1342342582011068</v>
+        <v>0.1316056787379693</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0006294168135315102</v>
+        <v>0.0005884222912616584</v>
       </c>
       <c r="G76" t="n">
-        <v>0.004298737897609005</v>
+        <v>0.1031124626146055</v>
       </c>
       <c r="H76" t="n">
-        <v>0.07007704331426416</v>
+        <v>0.05180596532009241</v>
       </c>
       <c r="I76" t="n">
-        <v>0.08030728356233392</v>
+        <v>0.02022173354120909</v>
       </c>
       <c r="J76" t="n">
-        <v>0.04499227773771896</v>
+        <v>0.07517790160042896</v>
       </c>
       <c r="K76" t="n">
-        <v>0.04871452302522926</v>
+        <v>0.04140268657292671</v>
       </c>
       <c r="L76" t="n">
-        <v>0.03207959744939184</v>
+        <v>0.01050297825635131</v>
       </c>
       <c r="M76" t="n">
-        <v>0.08585989652240075</v>
+        <v>0.06015054629886331</v>
       </c>
       <c r="N76" t="n">
-        <v>0.02784348293615902</v>
+        <v>0.009061167985142376</v>
       </c>
       <c r="O76" t="n">
-        <v>0.05741708080039974</v>
+        <v>0.01518361822643832</v>
       </c>
       <c r="P76" t="n">
-        <v>0.08258932298501094</v>
+        <v>0.08420532359435516</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.04799583924696913</v>
+        <v>0.04656154990580087</v>
       </c>
       <c r="R76" t="n">
-        <v>0.06207647328213997</v>
+        <v>0.01619961743795701</v>
       </c>
       <c r="S76" t="n">
-        <v>0.05841451525541057</v>
+        <v>0.02009257766202274</v>
       </c>
       <c r="T76" t="n">
-        <v>0.04588621075703838</v>
+        <v>0.09397606316608989</v>
       </c>
       <c r="U76" t="n">
-        <v>0.02084027058081004</v>
+        <v>0.02718563838584643</v>
       </c>
       <c r="V76" t="n">
-        <v>0.03635448988236305</v>
+        <v>0.02620304518358028</v>
       </c>
       <c r="W76" t="n">
-        <v>0.07786754217148327</v>
+        <v>0.03366351029918749</v>
       </c>
       <c r="X76" t="n">
-        <v>0.03465081666222288</v>
+        <v>0.04565799926890404</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.003467617869068653</v>
+        <v>0.002853607379793325</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.03482094558024877</v>
+        <v>0.1089460383765244</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.0006569050468876773</v>
+        <v>0.01270619397375396</v>
       </c>
       <c r="AB76" t="n">
-        <v>0.04215971062130831</v>
+        <v>0.09454135265886497</v>
       </c>
       <c r="AC76" t="n">
-        <v>-0.08008979371880115</v>
+        <v>-0.0854431989084769</v>
       </c>
     </row>
     <row r="77">
@@ -7716,79 +7716,79 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.1451016444451845</v>
+        <v>0.32003376825969</v>
       </c>
       <c r="F77" t="n">
-        <v>1.499975912435792e-06</v>
+        <v>2.643307106210561e-05</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0431008185851765</v>
+        <v>0.0144522639886187</v>
       </c>
       <c r="H77" t="n">
-        <v>0.03049816175078552</v>
+        <v>0.02811769126816238</v>
       </c>
       <c r="I77" t="n">
-        <v>0.06551003039434976</v>
+        <v>0.01904917491775019</v>
       </c>
       <c r="J77" t="n">
-        <v>0.07621830863459843</v>
+        <v>0.06960222188635566</v>
       </c>
       <c r="K77" t="n">
-        <v>0.04548847418953979</v>
+        <v>0.0784006335573742</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05556237056554388</v>
+        <v>0.05685315417154544</v>
       </c>
       <c r="M77" t="n">
-        <v>0.05470382568262</v>
+        <v>0.06034457024022761</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05788807946915003</v>
+        <v>0.07002127839536502</v>
       </c>
       <c r="O77" t="n">
-        <v>0.04485789888516252</v>
+        <v>0.08069840369694586</v>
       </c>
       <c r="P77" t="n">
-        <v>0.006279759613281317</v>
+        <v>0.04534704542262324</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.07540704458992775</v>
+        <v>0.0781111022156409</v>
       </c>
       <c r="R77" t="n">
-        <v>0.0466900135969897</v>
+        <v>0.07668456869796188</v>
       </c>
       <c r="S77" t="n">
-        <v>0.004405233475558279</v>
+        <v>0.009660157253189463</v>
       </c>
       <c r="T77" t="n">
-        <v>0.05910593638672126</v>
+        <v>0.01323862970009747</v>
       </c>
       <c r="U77" t="n">
-        <v>0.07813689317019316</v>
+        <v>0.02566296042859597</v>
       </c>
       <c r="V77" t="n">
-        <v>0.07375852074739463</v>
+        <v>0.01903799283555251</v>
       </c>
       <c r="W77" t="n">
-        <v>0.01540359810198028</v>
+        <v>0.01746879012319799</v>
       </c>
       <c r="X77" t="n">
-        <v>0.02952186939464007</v>
+        <v>0.02973143325723053</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.009823959191709919</v>
+        <v>0.07287353027762579</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.01904022450916933</v>
+        <v>0.04463939170954574</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.07238864412058157</v>
+        <v>0.04656043686840427</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.03620883496901402</v>
+        <v>0.04341813601692709</v>
       </c>
       <c r="AC77" t="n">
-        <v>-0.1127078975940919</v>
+        <v>-0.09863998301548565</v>
       </c>
     </row>
     <row r="78">
@@ -7811,79 +7811,79 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.1287803201231613</v>
+        <v>0.1288251565539044</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04797933694980188</v>
+        <v>0.03966987800138157</v>
       </c>
       <c r="G78" t="n">
-        <v>0.07381886137829403</v>
+        <v>0.060117132975639</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0151803627238005</v>
+        <v>0.05784577851779679</v>
       </c>
       <c r="I78" t="n">
-        <v>0.03530471115423081</v>
+        <v>0.032384175768086</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02660711387323472</v>
+        <v>0.03784646240076907</v>
       </c>
       <c r="K78" t="n">
-        <v>0.03298396407175467</v>
+        <v>0.006180902195178271</v>
       </c>
       <c r="L78" t="n">
-        <v>0.06478583030374693</v>
+        <v>0.009432791634951525</v>
       </c>
       <c r="M78" t="n">
-        <v>0.06507434254130871</v>
+        <v>0.07584874765884576</v>
       </c>
       <c r="N78" t="n">
-        <v>0.007113108805890736</v>
+        <v>0.003140048093557197</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01738720009331634</v>
+        <v>0.08793532543939342</v>
       </c>
       <c r="P78" t="n">
-        <v>0.07826198480176889</v>
+        <v>0.06884179457658253</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.08078028994348267</v>
+        <v>0.08127439708324517</v>
       </c>
       <c r="R78" t="n">
-        <v>0.06922642084551818</v>
+        <v>0.07511795364881238</v>
       </c>
       <c r="S78" t="n">
-        <v>0.07280338934363871</v>
+        <v>0.05322077159523169</v>
       </c>
       <c r="T78" t="n">
-        <v>0.0001236611642069839</v>
+        <v>0.009832054564923545</v>
       </c>
       <c r="U78" t="n">
-        <v>0.0641642017990494</v>
+        <v>0.04986957631377156</v>
       </c>
       <c r="V78" t="n">
-        <v>0.01669956447776976</v>
+        <v>0.01045864284433991</v>
       </c>
       <c r="W78" t="n">
-        <v>0.07284923522264783</v>
+        <v>0.08365557755931538</v>
       </c>
       <c r="X78" t="n">
-        <v>0.0511167498098155</v>
+        <v>0.03226706316525639</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.002380751531190801</v>
+        <v>0.01459960093581138</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.06885908899636803</v>
+        <v>0.01600762751236804</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.02561440769417873</v>
+        <v>0.05617296727869675</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.01088542247498515</v>
+        <v>0.03828073023604676</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.08929613655468728</v>
+        <v>0.09570286514399941</v>
       </c>
     </row>
     <row r="79">
@@ -7906,79 +7906,79 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.2020847043560257</v>
+        <v>0.2015120580505799</v>
       </c>
       <c r="F79" t="n">
-        <v>0.07245134516906342</v>
+        <v>0.02402856671502905</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01351732416048293</v>
+        <v>0.002510738408149077</v>
       </c>
       <c r="H79" t="n">
-        <v>0.08158586555600757</v>
+        <v>0.03691841520691759</v>
       </c>
       <c r="I79" t="n">
-        <v>0.02788041622193884</v>
+        <v>0.1245637826134964</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01596256065412573</v>
+        <v>0.01462961781140115</v>
       </c>
       <c r="K79" t="n">
-        <v>0.05348090427725913</v>
+        <v>0.02831872054520092</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04789460809816908</v>
+        <v>0.04687809078482445</v>
       </c>
       <c r="M79" t="n">
-        <v>0.03386646659363046</v>
+        <v>0.0704689545725201</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01262824291461348</v>
+        <v>0.0002360678205367188</v>
       </c>
       <c r="O79" t="n">
-        <v>0.04339593447558458</v>
+        <v>0.01872109868148738</v>
       </c>
       <c r="P79" t="n">
-        <v>0.03891555058636443</v>
+        <v>0.1111939221482435</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.06230173679468428</v>
+        <v>0.06675996130486389</v>
       </c>
       <c r="R79" t="n">
-        <v>0.04987441361128325</v>
+        <v>0.06057563346999647</v>
       </c>
       <c r="S79" t="n">
-        <v>0.005447883266047821</v>
+        <v>0.0143167984116322</v>
       </c>
       <c r="T79" t="n">
-        <v>0.06610011707137789</v>
+        <v>0.002622010003265777</v>
       </c>
       <c r="U79" t="n">
-        <v>0.008361309289832412</v>
+        <v>0.05620845504170979</v>
       </c>
       <c r="V79" t="n">
-        <v>0.06291227891051054</v>
+        <v>0.02425251322971667</v>
       </c>
       <c r="W79" t="n">
-        <v>0.03093847200907772</v>
+        <v>0.05305001729124023</v>
       </c>
       <c r="X79" t="n">
-        <v>0.08307699750103387</v>
+        <v>0.02793534911506285</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.1196143543163848</v>
+        <v>0.1192161293931671</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.01739004159383471</v>
+        <v>0.04388830782765614</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.0434013034269472</v>
+        <v>0.03842521707187597</v>
       </c>
       <c r="AB79" t="n">
-        <v>0.009001873501745949</v>
+        <v>0.01428163253200631</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.09981289728137019</v>
+        <v>0.07576976962448762</v>
       </c>
     </row>
     <row r="80">
@@ -8001,79 +8001,79 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.1494419125973893</v>
+        <v>0.1494903675525939</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06672719200314699</v>
+        <v>0.03721955669814766</v>
       </c>
       <c r="G80" t="n">
-        <v>0.001069963180709998</v>
+        <v>0.01799930293297262</v>
       </c>
       <c r="H80" t="n">
-        <v>0.007078973674671353</v>
+        <v>0.01356631852930944</v>
       </c>
       <c r="I80" t="n">
-        <v>0.03012273340169224</v>
+        <v>0.06815571765407039</v>
       </c>
       <c r="J80" t="n">
-        <v>0.06300800811141467</v>
+        <v>0.02134810951698322</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0251536423090167</v>
+        <v>0.04057907728044165</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05963627588672835</v>
+        <v>0.01483780719971333</v>
       </c>
       <c r="M80" t="n">
-        <v>0.004408809272893629</v>
+        <v>0.03175710011799251</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07959949632694249</v>
+        <v>0.01678753029448495</v>
       </c>
       <c r="O80" t="n">
-        <v>0.06114484448798997</v>
+        <v>0.06697649115152199</v>
       </c>
       <c r="P80" t="n">
-        <v>0.05340020366151673</v>
+        <v>0.02128215963333217</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.08450723682426627</v>
+        <v>0.08904994975268732</v>
       </c>
       <c r="R80" t="n">
-        <v>0.0796338375042414</v>
+        <v>0.08993268388505685</v>
       </c>
       <c r="S80" t="n">
-        <v>0.03043262406287135</v>
+        <v>0.01608181463494488</v>
       </c>
       <c r="T80" t="n">
-        <v>0.0443678140631369</v>
+        <v>0.04147657498929153</v>
       </c>
       <c r="U80" t="n">
-        <v>0.02766938431127263</v>
+        <v>0.04800661571094603</v>
       </c>
       <c r="V80" t="n">
-        <v>0.05050486648523982</v>
+        <v>0.01698210721357543</v>
       </c>
       <c r="W80" t="n">
-        <v>0.08071303213469647</v>
+        <v>0.07591260025729314</v>
       </c>
       <c r="X80" t="n">
-        <v>0.005116512512566791</v>
+        <v>0.03745377023705497</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.08051059111067506</v>
+        <v>0.08618799879698688</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.02285282337749699</v>
+        <v>0.07790388198780253</v>
       </c>
       <c r="AA80" t="n">
-        <v>0.03549064635125216</v>
+        <v>0.05234846438987893</v>
       </c>
       <c r="AB80" t="n">
-        <v>0.006850488945560913</v>
+        <v>0.01815436713551152</v>
       </c>
       <c r="AC80" t="n">
-        <v>-0.1709132958873332</v>
+        <v>-0.1570960312002562</v>
       </c>
     </row>
     <row r="81">
@@ -8096,79 +8096,79 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.180860822599941</v>
+        <v>0.1853270245052782</v>
       </c>
       <c r="F81" t="n">
-        <v>0.06455171963231213</v>
+        <v>0.06896377904085081</v>
       </c>
       <c r="G81" t="n">
-        <v>0.05611641682191099</v>
+        <v>0.01073761969982963</v>
       </c>
       <c r="H81" t="n">
-        <v>0.03877932122872868</v>
+        <v>0.06550999996205163</v>
       </c>
       <c r="I81" t="n">
-        <v>0.008160421250575083</v>
+        <v>0.04631456809314301</v>
       </c>
       <c r="J81" t="n">
-        <v>0.002680297196410444</v>
+        <v>0.02724759131004722</v>
       </c>
       <c r="K81" t="n">
-        <v>0.08186401002631029</v>
+        <v>0.09049979786352789</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0161183159415685</v>
+        <v>0.01123961897739418</v>
       </c>
       <c r="M81" t="n">
-        <v>0.09274254543714129</v>
+        <v>0.1030716196011291</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05568662411269998</v>
+        <v>0.03160337451300727</v>
       </c>
       <c r="O81" t="n">
-        <v>0.1046967734726035</v>
+        <v>0.05242512607209498</v>
       </c>
       <c r="P81" t="n">
-        <v>0.005337956446191242</v>
+        <v>0.04109294569002253</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.07422114968459834</v>
+        <v>0.05366910290525781</v>
       </c>
       <c r="R81" t="n">
-        <v>0.09869793054532008</v>
+        <v>0.08886289656656741</v>
       </c>
       <c r="S81" t="n">
-        <v>0.0366773690296595</v>
+        <v>0.002454148756200029</v>
       </c>
       <c r="T81" t="n">
-        <v>0.005062801298789142</v>
+        <v>0.0300709385392906</v>
       </c>
       <c r="U81" t="n">
-        <v>0.004057394810590994</v>
+        <v>0.004401797507107591</v>
       </c>
       <c r="V81" t="n">
-        <v>0.006415833134463898</v>
+        <v>0.03670476546908255</v>
       </c>
       <c r="W81" t="n">
-        <v>0.04631200667860742</v>
+        <v>0.05179905311415329</v>
       </c>
       <c r="X81" t="n">
-        <v>0.02651960769007897</v>
+        <v>0.01726655172127256</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.09764501046531503</v>
+        <v>0.05131194474776204</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.05833262417444979</v>
+        <v>0.0989734004370294</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.01199685763930417</v>
+        <v>0.00573648070812225</v>
       </c>
       <c r="AB81" t="n">
-        <v>0.007327013282370753</v>
+        <v>0.01004287870505608</v>
       </c>
       <c r="AC81" t="n">
-        <v>-0.1547007638426307</v>
+        <v>-0.1677007349458716</v>
       </c>
     </row>
     <row r="82">
@@ -8191,79 +8191,79 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.1991375057359353</v>
+        <v>0.1995908482867824</v>
       </c>
       <c r="F82" t="n">
-        <v>0.04139513489044682</v>
+        <v>0.07270323872612296</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01467628860639591</v>
+        <v>0.02757566633600788</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0872083391610413</v>
+        <v>0.1077385124499882</v>
       </c>
       <c r="I82" t="n">
-        <v>0.08983182964689675</v>
+        <v>0.0302253655979573</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0402517075570321</v>
+        <v>0.04431193991631444</v>
       </c>
       <c r="K82" t="n">
-        <v>0.006115680752567356</v>
+        <v>0.021590110294011</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0290810023294343</v>
+        <v>0.008650609009771876</v>
       </c>
       <c r="M82" t="n">
-        <v>0.09901779274212111</v>
+        <v>0.1073845446058643</v>
       </c>
       <c r="N82" t="n">
-        <v>0.003447173928988849</v>
+        <v>0.001609124026267454</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01198455190201856</v>
+        <v>0.0225977601800108</v>
       </c>
       <c r="P82" t="n">
-        <v>0.06422412242606072</v>
+        <v>0.04827950417930604</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.1054898018537209</v>
+        <v>0.07734274203231799</v>
       </c>
       <c r="R82" t="n">
-        <v>0.05740965823881228</v>
+        <v>0.0790978059713181</v>
       </c>
       <c r="S82" t="n">
-        <v>0.01960860629051219</v>
+        <v>0.04430118961347498</v>
       </c>
       <c r="T82" t="n">
-        <v>0.01181332891242303</v>
+        <v>0.04105887067221737</v>
       </c>
       <c r="U82" t="n">
-        <v>0.0985362906734274</v>
+        <v>0.09718005470061974</v>
       </c>
       <c r="V82" t="n">
-        <v>0.01349958763295225</v>
+        <v>0.003710760908259994</v>
       </c>
       <c r="W82" t="n">
-        <v>0.04224049850771119</v>
+        <v>0.00816753994628755</v>
       </c>
       <c r="X82" t="n">
-        <v>0.04059448963098431</v>
+        <v>0.02382431956080047</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.01170659586881113</v>
+        <v>0.06702379479310115</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.0413415308360623</v>
+        <v>0.04106668264612499</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.007066741739685044</v>
+        <v>0.01767440751896798</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.06345924587189399</v>
+        <v>0.006885456314887536</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.1309371612932938</v>
+        <v>0.1475813847152427</v>
       </c>
     </row>
     <row r="83">
@@ -8286,79 +8286,79 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.2328641078442515</v>
+        <v>0.2370418428725517</v>
       </c>
       <c r="F83" t="n">
-        <v>0.08979507039370888</v>
+        <v>0.05902868189842039</v>
       </c>
       <c r="G83" t="n">
-        <v>0.06745485821910872</v>
+        <v>0.0791363968945427</v>
       </c>
       <c r="H83" t="n">
-        <v>0.02538405543653095</v>
+        <v>0.01845832462988025</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0037171164107511</v>
+        <v>0.02350987792033616</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01060352776315567</v>
+        <v>0.008334178504063181</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01539521634040688</v>
+        <v>0.006735615800113417</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0352338926318185</v>
+        <v>0.008248545400538713</v>
       </c>
       <c r="M83" t="n">
-        <v>0.087403753770068</v>
+        <v>0.08030239860281156</v>
       </c>
       <c r="N83" t="n">
-        <v>0.03199529968533927</v>
+        <v>0.02639637430955599</v>
       </c>
       <c r="O83" t="n">
-        <v>0.05900690944589591</v>
+        <v>0.06841661259495677</v>
       </c>
       <c r="P83" t="n">
-        <v>0.01379210448845974</v>
+        <v>0.05702705558824243</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.0605428876837719</v>
+        <v>0.1006466456437856</v>
       </c>
       <c r="R83" t="n">
-        <v>0.02935209284127495</v>
+        <v>0.02953718447869041</v>
       </c>
       <c r="S83" t="n">
-        <v>0.03385313417027436</v>
+        <v>0.00407466410490292</v>
       </c>
       <c r="T83" t="n">
-        <v>0.03163728213304157</v>
+        <v>0.01311404529055139</v>
       </c>
       <c r="U83" t="n">
-        <v>0.04698384436339065</v>
+        <v>0.04463388960939116</v>
       </c>
       <c r="V83" t="n">
-        <v>0.04782483273443944</v>
+        <v>0.03842031693681151</v>
       </c>
       <c r="W83" t="n">
-        <v>0.0208004104033842</v>
+        <v>0.006347208984798955</v>
       </c>
       <c r="X83" t="n">
-        <v>0.0940280510687215</v>
+        <v>0.06815464776125103</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.07413561144596262</v>
+        <v>0.0331343833604111</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.06220244029827293</v>
+        <v>0.09847283023359008</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.03344783881335762</v>
+        <v>0.09374234676064823</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.02540976945886479</v>
+        <v>0.03412777469170613</v>
       </c>
       <c r="AC83" t="n">
-        <v>0.2077545991558228</v>
+        <v>0.2040110508529877</v>
       </c>
     </row>
     <row r="84">
@@ -8381,79 +8381,79 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.2156740292822689</v>
+        <v>0.2181260959700907</v>
       </c>
       <c r="F84" t="n">
-        <v>0.05275837861947531</v>
+        <v>0.02175032103284183</v>
       </c>
       <c r="G84" t="n">
-        <v>0.002610594091775477</v>
+        <v>0.01346730473835487</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0289929401342773</v>
+        <v>0.07122476725680817</v>
       </c>
       <c r="I84" t="n">
-        <v>0.007882454054165516</v>
+        <v>0.02112002252864107</v>
       </c>
       <c r="J84" t="n">
-        <v>0.06812831734871626</v>
+        <v>0.03765963791618263</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01663136657853074</v>
+        <v>0.01043536126841307</v>
       </c>
       <c r="L84" t="n">
-        <v>0.006379064377074009</v>
+        <v>0.001496940639025659</v>
       </c>
       <c r="M84" t="n">
-        <v>0.05456240947258548</v>
+        <v>0.08009774773733801</v>
       </c>
       <c r="N84" t="n">
-        <v>0.002811686866930491</v>
+        <v>0.02339272756008941</v>
       </c>
       <c r="O84" t="n">
-        <v>0.07071532962355143</v>
+        <v>0.09451949601282753</v>
       </c>
       <c r="P84" t="n">
-        <v>0.08266852731075348</v>
+        <v>0.02751343254283467</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.1003109887883106</v>
+        <v>0.09179563082457821</v>
       </c>
       <c r="R84" t="n">
-        <v>0.08517623958455138</v>
+        <v>0.100578018275703</v>
       </c>
       <c r="S84" t="n">
-        <v>0.01715303472259246</v>
+        <v>0.02966940301632395</v>
       </c>
       <c r="T84" t="n">
-        <v>0.04528413166607557</v>
+        <v>0.07525427259951196</v>
       </c>
       <c r="U84" t="n">
-        <v>0.07865146107849592</v>
+        <v>0.0658168723867644</v>
       </c>
       <c r="V84" t="n">
-        <v>0.01136607607035441</v>
+        <v>0.003981434557177</v>
       </c>
       <c r="W84" t="n">
-        <v>0.01312731232065195</v>
+        <v>0.09671049752315929</v>
       </c>
       <c r="X84" t="n">
-        <v>0.01881185405603705</v>
+        <v>0.008392543969217865</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.09827861511926542</v>
+        <v>0.04640065517800503</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.06142973851165155</v>
+        <v>0.01533469678615632</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.0617346977497198</v>
+        <v>0.0625718488727935</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.01453478185445845</v>
+        <v>0.0008163667772525893</v>
       </c>
       <c r="AC84" t="n">
-        <v>0.02876603924959929</v>
+        <v>0.04946741685997214</v>
       </c>
     </row>
     <row r="85">
@@ -8476,79 +8476,79 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.2495721196589279</v>
+        <v>0.2312761083078224</v>
       </c>
       <c r="F85" t="n">
-        <v>0.09357146157755619</v>
+        <v>0.09913097574247129</v>
       </c>
       <c r="G85" t="n">
-        <v>0.09421542997298379</v>
+        <v>0.09537659994465776</v>
       </c>
       <c r="H85" t="n">
-        <v>0.05965147394310189</v>
+        <v>0.001026049233688133</v>
       </c>
       <c r="I85" t="n">
-        <v>0.003354240559701095</v>
+        <v>0.01563153885443562</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02120759455520981</v>
+        <v>0.04867139612580113</v>
       </c>
       <c r="K85" t="n">
-        <v>0.002341145612480212</v>
+        <v>0.00108729278948915</v>
       </c>
       <c r="L85" t="n">
-        <v>0.02847829616569374</v>
+        <v>0.03314159586710347</v>
       </c>
       <c r="M85" t="n">
-        <v>0.08566030101920226</v>
+        <v>0.1138691132215592</v>
       </c>
       <c r="N85" t="n">
-        <v>0.04023795880138197</v>
+        <v>0.06224415176371711</v>
       </c>
       <c r="O85" t="n">
-        <v>0.04240910632638771</v>
+        <v>0.05098387935787097</v>
       </c>
       <c r="P85" t="n">
-        <v>0.02092207153901087</v>
+        <v>0.03393479642629715</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.009438419768608076</v>
+        <v>0.08049633677657707</v>
       </c>
       <c r="R85" t="n">
-        <v>0.06483320530442993</v>
+        <v>0.07623001404656014</v>
       </c>
       <c r="S85" t="n">
-        <v>0.02878849481059488</v>
+        <v>0.03287687781937088</v>
       </c>
       <c r="T85" t="n">
-        <v>0.009262692907868979</v>
+        <v>0.01413685709813057</v>
       </c>
       <c r="U85" t="n">
-        <v>0.0382085123587249</v>
+        <v>0.01303925433959455</v>
       </c>
       <c r="V85" t="n">
-        <v>0.07150235514679824</v>
+        <v>0.004174712676717347</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0412994317637813</v>
+        <v>0.05247745394691226</v>
       </c>
       <c r="X85" t="n">
-        <v>0.03959719822418037</v>
+        <v>0.03308222313528407</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.08148505630892523</v>
+        <v>0.04272650442270799</v>
       </c>
       <c r="Z85" t="n">
-        <v>0.02668826928498977</v>
+        <v>0.06282429216375331</v>
       </c>
       <c r="AA85" t="n">
-        <v>0.001914028282295497</v>
+        <v>0.0149368230097528</v>
       </c>
       <c r="AB85" t="n">
-        <v>0.09493325576609334</v>
+        <v>0.01790126123754804</v>
       </c>
       <c r="AC85" t="n">
-        <v>0.08224597225579966</v>
+        <v>0.03036770679534123</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1608905958825425</v>
+        <v>0.1588861734321859</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02160195939836011</v>
+        <v>0.04699665059316153</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06730918550845451</v>
+        <v>0.01813635793022827</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01981700845933858</v>
+        <v>0.05029899176192209</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04538699800390569</v>
+        <v>0.002952763017626437</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08590950498067046</v>
+        <v>0.04518737325207774</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001495380245149715</v>
+        <v>0.02509594983800065</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06661120915599336</v>
+        <v>0.01872091892246918</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0644326055137785</v>
+        <v>0.04393026975294064</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0008773566032077671</v>
+        <v>0.0002670400856031902</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1120726593441186</v>
+        <v>0.04911444850126725</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07702558882502071</v>
+        <v>0.0937802774328346</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03986540839189018</v>
+        <v>0.03090126309522254</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04473917775295613</v>
+        <v>0.01419119151543221</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01600376356039094</v>
+        <v>0.1030131447264893</v>
       </c>
       <c r="T2" t="n">
-        <v>0.007877439886625297</v>
+        <v>0.005983067730943581</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02773762983512594</v>
+        <v>0.005557157182009598</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01947328215478131</v>
+        <v>0.00972223517027823</v>
       </c>
       <c r="W2" t="n">
-        <v>0.09577129239105768</v>
+        <v>0.1002897612704048</v>
       </c>
       <c r="X2" t="n">
-        <v>0.02116845526883812</v>
+        <v>0.05252194690973014</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00684491065627326</v>
+        <v>0.004921029344293283</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1154347063375872</v>
+        <v>0.09314182614824526</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01704525662596112</v>
+        <v>0.07167350114975334</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0254992211005147</v>
+        <v>0.1136028346690663</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.08407699145275002</v>
+        <v>0.1111556534725777</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3519422729456488</v>
+        <v>0.4259331549797553</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02001252870709471</v>
+        <v>0.05511271472454179</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01318741297499133</v>
+        <v>0.02529757382829427</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02207553739118496</v>
+        <v>0.06279746026177213</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0346556201067287</v>
+        <v>0.01711093765989222</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05188746510177807</v>
+        <v>0.03311653143318868</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03785822223445478</v>
+        <v>0.0811366818860732</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001652842603341348</v>
+        <v>0.02022676703751144</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06703982105793682</v>
+        <v>0.001752118788056423</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1016424315322698</v>
+        <v>0.02289444640022919</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07181839397089648</v>
+        <v>0.01803927867254025</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09659079093963613</v>
+        <v>0.06584323016608444</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06490263542980963</v>
+        <v>0.07709473192530303</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04134459184255999</v>
+        <v>0.01670424678903705</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03191357765943112</v>
+        <v>0.07850118448832731</v>
       </c>
       <c r="T3" t="n">
-        <v>0.008729865161268956</v>
+        <v>0.05840162586438676</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07123751125352649</v>
+        <v>0.07524970306110297</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02006356897725171</v>
+        <v>0.0004016041645085144</v>
       </c>
       <c r="W3" t="n">
-        <v>0.08581552138424103</v>
+        <v>0.02783690703065948</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02122483181215843</v>
+        <v>0.04057308676340739</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03033699815867413</v>
+        <v>0.0696300501430253</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.009779102335598229</v>
+        <v>0.05617554637328416</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.08349584821558932</v>
+        <v>0.01449753829184254</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0127348811495781</v>
+        <v>0.08160603424693143</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.09506055060865062</v>
+        <v>0.08389868775330467</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.211421108525446</v>
+        <v>0.2101203870678549</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07468842469717124</v>
+        <v>0.05326199826707603</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02508129069730386</v>
+        <v>0.05948455768430543</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002943830479120957</v>
+        <v>0.008063823230943137</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02561338655294882</v>
+        <v>0.003767405532900766</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06806514444335354</v>
+        <v>0.04190161081371668</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04724306226992349</v>
+        <v>0.02141056990551564</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01543961417984636</v>
+        <v>0.01755739968048112</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06415465131582311</v>
+        <v>0.04699079720169053</v>
       </c>
       <c r="N4" t="n">
-        <v>0.08546493931894482</v>
+        <v>0.0791515864101886</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0676983431290194</v>
+        <v>0.04615579611919273</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03837092264391597</v>
+        <v>0.03112990741931798</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05530317081297954</v>
+        <v>0.09060520058123596</v>
       </c>
       <c r="R4" t="n">
-        <v>0.075884402645302</v>
+        <v>0.05445877909235784</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02793009306480749</v>
+        <v>0.04079117988701709</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02652478140629886</v>
+        <v>0.02519655936839961</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08575808401649672</v>
+        <v>0.07829835580445686</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02380799311661861</v>
+        <v>0.005871786015556908</v>
       </c>
       <c r="W4" t="n">
-        <v>0.003734840044212661</v>
+        <v>0.00844536164599796</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03573275233211987</v>
+        <v>0.05607066036370082</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07408866659937642</v>
+        <v>0.09016556904067048</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0161247825330558</v>
+        <v>0.06409431138923589</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.04983174367666472</v>
+        <v>0.06290241278491907</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01051508002469591</v>
+        <v>0.01422437176112272</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.0803340366079255</v>
+        <v>-0.05581544082484503</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.5396147488420352</v>
+        <v>0.2721229171308258</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07371573424034351</v>
+        <v>0.01628314820249297</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08224535472915921</v>
+        <v>0.01633865132990987</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02533377924021601</v>
+        <v>0.02532863973463223</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02541720774316092</v>
+        <v>0.007809188688859623</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0008088809795421237</v>
+        <v>0.04245741105823072</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03420800339417166</v>
+        <v>0.0668168616888431</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005953476685378711</v>
+        <v>0.03505109296652394</v>
       </c>
       <c r="M5" t="n">
-        <v>0.008369997455260479</v>
+        <v>0.103502321961003</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0806319863776272</v>
+        <v>0.04915971172331571</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06724106319918774</v>
+        <v>0.07760490870980034</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07830445454183697</v>
+        <v>0.03117513357669849</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03344405622868905</v>
+        <v>0.08053013006396499</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07389991617356001</v>
+        <v>0.07669250557493791</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001241315817653638</v>
+        <v>0.0636897064567481</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05167585100611517</v>
+        <v>0.05433647641790031</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06051835533760791</v>
+        <v>0.02586891912995642</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01450572024437581</v>
+        <v>0.04599922230093316</v>
       </c>
       <c r="W5" t="n">
-        <v>0.08190803737069084</v>
+        <v>0.003760822524542186</v>
       </c>
       <c r="X5" t="n">
-        <v>0.04536890237260335</v>
+        <v>0.007137581791546352</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.002581784670742006</v>
+        <v>0.09642484642655513</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.07900411303466293</v>
+        <v>0.01987266489807393</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.052201230704698</v>
+        <v>0.04602439120659978</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.02142077845271681</v>
+        <v>0.008135663567931807</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.03159704916454497</v>
+        <v>-0.102574474075603</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1458035377555263</v>
+        <v>0.1444593426761955</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04678554651643572</v>
+        <v>0.06563585361170561</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003329467139231124</v>
+        <v>0.000633147828364655</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06452854668812509</v>
+        <v>0.04917920945631151</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05441363206931343</v>
+        <v>0.1011116837950829</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07132646902447293</v>
+        <v>0.08286976768339528</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03043409707230691</v>
+        <v>0.0297699835074622</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0272114639094744</v>
+        <v>0.008847894185244985</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03408765189456342</v>
+        <v>0.00918851234951772</v>
       </c>
       <c r="N6" t="n">
-        <v>0.06873471963872563</v>
+        <v>0.04015683923846212</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05191763147298779</v>
+        <v>0.02942612521159736</v>
       </c>
       <c r="P6" t="n">
-        <v>0.06633742129288482</v>
+        <v>0.08167646464073214</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01866881426302344</v>
+        <v>0.003431707033741142</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05465844150852738</v>
+        <v>0.0145256189676801</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06707492747604378</v>
+        <v>0.1054764182956622</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04664254111165013</v>
+        <v>0.01394582545482871</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06019814142837876</v>
+        <v>0.03298814696757102</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02083797520610983</v>
+        <v>0.04005839383088017</v>
       </c>
       <c r="W6" t="n">
-        <v>0.07176559263446811</v>
+        <v>0.05735696403960719</v>
       </c>
       <c r="X6" t="n">
-        <v>0.06410925756950096</v>
+        <v>0.1028874193880943</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.04369351808358511</v>
+        <v>0.05212466052537609</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.01645030486377603</v>
+        <v>0.03004081407414239</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.005154199365481752</v>
+        <v>0.01384897454316613</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01163963977093356</v>
+        <v>0.03481957537137405</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.04167323674598129</v>
+        <v>0.03126828667071268</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1901331160260214</v>
+        <v>0.1834411752722384</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0468843978112591</v>
+        <v>0.01244649889754489</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003256294584009248</v>
+        <v>0.005184273742174453</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06722471166292125</v>
+        <v>0.04592412211319326</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0869836144495633</v>
+        <v>0.09363712129560504</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01101689816485754</v>
+        <v>0.04594972678168532</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04608840336877543</v>
+        <v>0.007486630248730625</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009476335479366983</v>
+        <v>0.01064311865973895</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03166786387045814</v>
+        <v>0.07314214944819496</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01335950611611447</v>
+        <v>0.003449330377218713</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03293284850700466</v>
+        <v>0.06591224819487071</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0001843636092263242</v>
+        <v>0.01618122567418634</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04748751607846138</v>
+        <v>0.005499852053015058</v>
       </c>
       <c r="R7" t="n">
-        <v>0.08744396422124849</v>
+        <v>0.0677651676482806</v>
       </c>
       <c r="S7" t="n">
-        <v>0.04550352372623517</v>
+        <v>0.02929684889645605</v>
       </c>
       <c r="T7" t="n">
-        <v>0.06770947041897202</v>
+        <v>0.04827120752988222</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07358346329594148</v>
+        <v>0.067215691171793</v>
       </c>
       <c r="V7" t="n">
-        <v>0.09446557911715596</v>
+        <v>0.09281485488944921</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01843476833044442</v>
+        <v>0.05380449926166899</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03300113820519663</v>
+        <v>0.05104405476613055</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.06106127491599316</v>
+        <v>0.09034725928365214</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.005629464787617025</v>
+        <v>0.004046584470610693</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01683603054298687</v>
+        <v>0.01920915077260107</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.09976856873619108</v>
+        <v>0.09072838382331729</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.02941654177588967</v>
+        <v>0.04573922386390758</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1489197989551092</v>
+        <v>0.1600674688459871</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003706209854889616</v>
+        <v>0.002533752010683615</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002751563518729491</v>
+        <v>0.0290511958504021</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007293597805306825</v>
+        <v>0.003815315180943704</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04494817428214044</v>
+        <v>0.03770132342964513</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05002698347348173</v>
+        <v>0.07864943277632291</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07091277329626229</v>
+        <v>0.01736699382734357</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01057846507049658</v>
+        <v>0.0657327294418856</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04725397294624032</v>
+        <v>0.07544767902654771</v>
       </c>
       <c r="N8" t="n">
-        <v>0.08903859884643907</v>
+        <v>0.06115073783722451</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07183564912488423</v>
+        <v>0.03329849438771004</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07800404046223858</v>
+        <v>0.02649081627656225</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0002077835618776806</v>
+        <v>0.0004780808636057511</v>
       </c>
       <c r="R8" t="n">
-        <v>0.04426864120278445</v>
+        <v>0.08212889599659333</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07838011861288992</v>
+        <v>0.0368654334163659</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04344830336230193</v>
+        <v>0.04889127765509702</v>
       </c>
       <c r="U8" t="n">
-        <v>0.05985750924456135</v>
+        <v>0.08045176995881589</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03673968236673301</v>
+        <v>0.07704899115954449</v>
       </c>
       <c r="W8" t="n">
-        <v>0.08565465408725095</v>
+        <v>0.03632477682100732</v>
       </c>
       <c r="X8" t="n">
-        <v>0.04238106870535241</v>
+        <v>0.03761048904935755</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.07681433088843363</v>
+        <v>0.03018112594741561</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.009977513813483007</v>
+        <v>0.05926039013067416</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.04255881945498778</v>
+        <v>0.07203402226061112</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.003361546018234796</v>
+        <v>0.007486276695640648</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.1539740972955305</v>
+        <v>-0.1774185878208853</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.4821495219045823</v>
+        <v>0.3317426830202029</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0008076286645165693</v>
+        <v>0.03200747445543008</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04034022715796465</v>
+        <v>0.01608012006091238</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07105624683670224</v>
+        <v>0.09308365434729812</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03347739179888194</v>
+        <v>0.07225356346959909</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02788231974734422</v>
+        <v>0.02407615643246585</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01387373017249597</v>
+        <v>0.03059395645593818</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04517720554976536</v>
+        <v>0.06603590028016124</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01996066419388447</v>
+        <v>0.01905485015962678</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04616013299416818</v>
+        <v>0.005516256649502137</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0524544081520331</v>
+        <v>0.03227205003583138</v>
       </c>
       <c r="P9" t="n">
-        <v>0.09421078822826592</v>
+        <v>0.02935173610726661</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1002823659788423</v>
+        <v>0.04761720164169982</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337177258961245</v>
+        <v>0.05032265789232017</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02690166414727841</v>
+        <v>0.04357057980940578</v>
       </c>
       <c r="T9" t="n">
-        <v>0.05113184760539563</v>
+        <v>0.009714196965785241</v>
       </c>
       <c r="U9" t="n">
-        <v>0.09383108803862668</v>
+        <v>0.02982460066820643</v>
       </c>
       <c r="V9" t="n">
-        <v>0.00599610703321035</v>
+        <v>0.02432444854942608</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03387805920227558</v>
+        <v>0.0664625725306448</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02740835290372895</v>
+        <v>0.009431712326011307</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01228636527097822</v>
+        <v>0.04613292198616335</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1038322114760842</v>
+        <v>0.06715821521741315</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.02863402708524091</v>
+        <v>0.09251006756969016</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.04704539517270356</v>
+        <v>0.09260510638920222</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.1401472245702647</v>
+        <v>-0.1369916666645661</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1609430632234772</v>
+        <v>0.1632080744444307</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07199956357405664</v>
+        <v>0.04573755954207786</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01678579337038824</v>
+        <v>0.0002977242328021218</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03560797304665044</v>
+        <v>0.01242176279305474</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06545296008752796</v>
+        <v>0.07712107584867085</v>
       </c>
       <c r="J10" t="n">
-        <v>0.008995422280669829</v>
+        <v>0.05588218073642225</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06106238654987717</v>
+        <v>0.02335863245681724</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05780807220988103</v>
+        <v>0.08818492055264848</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03457534678674103</v>
+        <v>0.01122419492778781</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02609726107505225</v>
+        <v>0.02975716779944067</v>
       </c>
       <c r="O10" t="n">
-        <v>0.018759901898201</v>
+        <v>0.02559164920203888</v>
       </c>
       <c r="P10" t="n">
-        <v>0.07587358150966414</v>
+        <v>0.07520024442702423</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.05948234284094107</v>
+        <v>0.01872706811938673</v>
       </c>
       <c r="R10" t="n">
-        <v>0.06270453757566165</v>
+        <v>0.08693675045593599</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02594456527010119</v>
+        <v>0.06686230624183928</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03821328170179131</v>
+        <v>0.07065714310794258</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002951256340230703</v>
+        <v>0.02723191071976049</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0178144845130696</v>
+        <v>0.01077678930022606</v>
       </c>
       <c r="W10" t="n">
-        <v>0.06133790723899732</v>
+        <v>0.03521396559114608</v>
       </c>
       <c r="X10" t="n">
-        <v>0.06802488710913954</v>
+        <v>0.06432162916920409</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.07504978124575437</v>
+        <v>0.08257094012575202</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.07024942298582267</v>
+        <v>0.06713902644759985</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.03949505752553897</v>
+        <v>0.01055805323589513</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.00571421326424212</v>
+        <v>0.01422730496652648</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.08264911212201734</v>
+        <v>-0.08584499642314515</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2370105159062875</v>
+        <v>0.2372016387079812</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09431089757404479</v>
+        <v>0.06053694734860778</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03145771184677753</v>
+        <v>0.0001610681934535392</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0642547358078399</v>
+        <v>0.09127935454827671</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1072384887459817</v>
+        <v>0.09340939997658335</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001923211630656364</v>
+        <v>0.005943634715866826</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0689941563803247</v>
+        <v>0.04706004546045744</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05251373864574276</v>
+        <v>0.02753172067266365</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02358217438143616</v>
+        <v>0.008510536931806652</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02508806982900988</v>
+        <v>0.001008416606104316</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01288780921430657</v>
+        <v>0.04128104058006937</v>
       </c>
       <c r="P11" t="n">
-        <v>0.009204344981549657</v>
+        <v>0.07014477982797544</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0677442315817529</v>
+        <v>0.09309193041277873</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02080087921149108</v>
+        <v>0.0001008528469539582</v>
       </c>
       <c r="S11" t="n">
-        <v>0.004943084626693963</v>
+        <v>0.006678276146213229</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02441292913188078</v>
+        <v>0.007963407036785441</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02468871877655577</v>
+        <v>0.07498261567338424</v>
       </c>
       <c r="V11" t="n">
-        <v>0.002618035862324396</v>
+        <v>0.007603156840563441</v>
       </c>
       <c r="W11" t="n">
-        <v>0.09615382857957262</v>
+        <v>0.04861451770925046</v>
       </c>
       <c r="X11" t="n">
-        <v>0.007906877292716922</v>
+        <v>0.04615497361102826</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0410884473256307</v>
+        <v>0.03697853794091992</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.02331932431034397</v>
+        <v>0.05835736523588829</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.09135234952351261</v>
+        <v>0.07834350420664744</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.1035159547398541</v>
+        <v>0.09426391747772143</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.08259246908123424</v>
+        <v>-0.06352759849190184</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1519168707485181</v>
+        <v>0.151972279182178</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06248764717378365</v>
+        <v>0.09644237462181433</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02382163373597407</v>
+        <v>0.002170582029389653</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06778284021873464</v>
+        <v>0.02231394412232999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05355934105572581</v>
+        <v>0.01091352372710284</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001226329656803138</v>
+        <v>0.07535887763214313</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0478464665493951</v>
+        <v>0.0430934380156531</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01394015085270452</v>
+        <v>0.005846621091414632</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02212061545937252</v>
+        <v>0.01719100441909852</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0009570594962875577</v>
+        <v>0.00818496447572868</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0473497092624019</v>
+        <v>0.03308874845449886</v>
       </c>
       <c r="P12" t="n">
-        <v>0.04837423278833343</v>
+        <v>0.08815248830813494</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04775727811657883</v>
+        <v>0.09392061366135862</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0761035102856509</v>
+        <v>0.07854079241979776</v>
       </c>
       <c r="S12" t="n">
-        <v>0.003380469122523717</v>
+        <v>0.03884592067742412</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0802640605445917</v>
+        <v>0.03120152499860826</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05236526526285926</v>
+        <v>0.08717759026577739</v>
       </c>
       <c r="V12" t="n">
-        <v>0.02392830820766861</v>
+        <v>0.0004773528720338091</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0616978348056918</v>
+        <v>0.07288952280533505</v>
       </c>
       <c r="X12" t="n">
-        <v>0.06549369804455091</v>
+        <v>0.01939676812925135</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.04650593463969461</v>
+        <v>0.09765417594012105</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.06122025861023073</v>
+        <v>0.03773248373345085</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.06167270111196582</v>
+        <v>0.0001579198035244107</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.03014465499847685</v>
+        <v>0.03924876779600878</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.3870528409123202</v>
+        <v>-0.3201859795774734</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2180781385147474</v>
+        <v>0.1890018015719213</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05697612528558198</v>
+        <v>0.01372082458372706</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02445696718151332</v>
+        <v>0.05088106881341277</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05689367979245109</v>
+        <v>0.07654522092187924</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08153493997523921</v>
+        <v>0.0951347007938303</v>
       </c>
       <c r="J13" t="n">
-        <v>0.006972832701426659</v>
+        <v>0.01163446627516376</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01260942386728068</v>
+        <v>0.02800469613190205</v>
       </c>
       <c r="L13" t="n">
-        <v>0.109208141616906</v>
+        <v>0.01050125605371383</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02677760144726993</v>
+        <v>0.0667201495219876</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02876787487328181</v>
+        <v>0.01918077125135413</v>
       </c>
       <c r="O13" t="n">
-        <v>0.012006507835023</v>
+        <v>0.0347421440127328</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01482868181915239</v>
+        <v>0.02521077163131095</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01333322330084768</v>
+        <v>0.1112041799231999</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0515409819367976</v>
+        <v>0.004622664977297292</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1050197852040032</v>
+        <v>0.03143098718225824</v>
       </c>
       <c r="T13" t="n">
-        <v>0.07388773954352129</v>
+        <v>0.03536528862869943</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01454636187085636</v>
+        <v>0.003197940583554696</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02351034343106381</v>
+        <v>0.01181420022480776</v>
       </c>
       <c r="W13" t="n">
-        <v>0.04116415815764196</v>
+        <v>0.06076067966829241</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0008441921237435471</v>
+        <v>0.08757194685657213</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01254410086756964</v>
+        <v>0.02736554408773546</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.029234878050285</v>
+        <v>0.004464033526622941</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.09026506356468149</v>
+        <v>0.08414871186366629</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.1130763955538625</v>
+        <v>0.105777752486279</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.5023355914908951</v>
+        <v>-0.4104599746162407</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2607130567395454</v>
+        <v>0.2615498158013137</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01626274517671743</v>
+        <v>0.047435328893083</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03288103845817276</v>
+        <v>0.05280228504677413</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01234145645052198</v>
+        <v>0.08727930781313493</v>
       </c>
       <c r="I14" t="n">
-        <v>0.009931292379411271</v>
+        <v>0.05464077798286283</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0210801914774871</v>
+        <v>0.05548706864516555</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05082347440342881</v>
+        <v>0.03273042927649308</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0181497157596535</v>
+        <v>0.0002014741450689343</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001024634486376827</v>
+        <v>0.00149565624287135</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01706647400175557</v>
+        <v>0.01061819165786597</v>
       </c>
       <c r="O14" t="n">
-        <v>0.006662671390096648</v>
+        <v>0.03349119086422297</v>
       </c>
       <c r="P14" t="n">
-        <v>0.08955217756888831</v>
+        <v>0.04235456494495486</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.08089738111660097</v>
+        <v>0.01512043499886336</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1133961193343686</v>
+        <v>0.08075995063859824</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1015067738633574</v>
+        <v>0.03145195197573828</v>
       </c>
       <c r="T14" t="n">
-        <v>0.05554798651597504</v>
+        <v>0.07794507041837417</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06660142775997714</v>
+        <v>0.07538208814530276</v>
       </c>
       <c r="V14" t="n">
-        <v>0.003735032309445704</v>
+        <v>0.00440614566809344</v>
       </c>
       <c r="W14" t="n">
-        <v>0.06355148844542816</v>
+        <v>0.07953419211137375</v>
       </c>
       <c r="X14" t="n">
-        <v>0.09846884580392368</v>
+        <v>0.05001592480504161</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.061664091723545</v>
+        <v>0.07457252518733165</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.03647104072022006</v>
+        <v>0.03399141363609792</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.03738220025897429</v>
+        <v>0.00675938297058924</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.00500174059567374</v>
+        <v>0.05152464393209785</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.1013673296106214</v>
+        <v>-0.06096761323596082</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.366417765550333</v>
+        <v>0.3690912713268247</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02678168608515543</v>
+        <v>0.002978804014438696</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02656354765728566</v>
+        <v>0.0946510603542239</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04825526398378728</v>
+        <v>0.0002420675756534441</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01595786897653105</v>
+        <v>0.003457039315611324</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01970881942624739</v>
+        <v>0.005271232574726155</v>
       </c>
       <c r="K15" t="n">
-        <v>0.048548942307066</v>
+        <v>0.02192395452499296</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05158900410343954</v>
+        <v>0.04106966741261608</v>
       </c>
       <c r="M15" t="n">
-        <v>0.09603583092816455</v>
+        <v>0.09861527762757766</v>
       </c>
       <c r="N15" t="n">
-        <v>0.03310690308923039</v>
+        <v>0.03799414892714639</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01799060173790345</v>
+        <v>0.04392397421567986</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01696773288931729</v>
+        <v>0.02416091514150987</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0260396111400052</v>
+        <v>0.02754541172638905</v>
       </c>
       <c r="R15" t="n">
-        <v>0.08279466278722486</v>
+        <v>0.008033263022375654</v>
       </c>
       <c r="S15" t="n">
-        <v>0.06072479995562073</v>
+        <v>0.111610814061755</v>
       </c>
       <c r="T15" t="n">
-        <v>0.03716020224715324</v>
+        <v>0.07080610885571154</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03163568857948841</v>
+        <v>0.07057161035157003</v>
       </c>
       <c r="V15" t="n">
-        <v>0.130991077713476</v>
+        <v>0.1104222331164307</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02752373656476959</v>
+        <v>0.06891492642344188</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01496787547760785</v>
+        <v>0.03349702264485532</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.08219875175249336</v>
+        <v>0.006833999703056136</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.02794601402844364</v>
+        <v>0.03910362051051292</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.05104921611987336</v>
+        <v>0.01727955241055279</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.02546216244971571</v>
+        <v>0.06109329548917272</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.03268301130920041</v>
+        <v>0.03455798912318284</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2983552434736537</v>
+        <v>0.2882359348532724</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04503700755566444</v>
+        <v>0.0490950660908889</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005514524525087273</v>
+        <v>0.003981271052642588</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07491385636844992</v>
+        <v>0.01494251943646684</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06548407570684536</v>
+        <v>0.003534982461619397</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01586545572687212</v>
+        <v>0.03505128285463895</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01224246299242883</v>
+        <v>0.01521526743912393</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01676608827552915</v>
+        <v>0.00863143994596182</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02657703155089263</v>
+        <v>0.07163435362000815</v>
       </c>
       <c r="N16" t="n">
-        <v>0.00452820022630997</v>
+        <v>0.011891066482309</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03421689137692211</v>
+        <v>0.02225087862470578</v>
       </c>
       <c r="P16" t="n">
-        <v>0.06088799191258711</v>
+        <v>0.07964033306605786</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.03741769583773817</v>
+        <v>0.03940402645201473</v>
       </c>
       <c r="R16" t="n">
-        <v>0.07086114863544261</v>
+        <v>0.06478538434350764</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02780550376217285</v>
+        <v>0.03488737720649088</v>
       </c>
       <c r="T16" t="n">
-        <v>0.03214799528823053</v>
+        <v>0.01006515312415072</v>
       </c>
       <c r="U16" t="n">
-        <v>0.018409000237046</v>
+        <v>0.00858315137308541</v>
       </c>
       <c r="V16" t="n">
-        <v>0.03986270593915661</v>
+        <v>0.005417562682122278</v>
       </c>
       <c r="W16" t="n">
-        <v>0.06863190255622663</v>
+        <v>0.08176457586670755</v>
       </c>
       <c r="X16" t="n">
-        <v>0.07825066072846945</v>
+        <v>0.09369673422602488</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.03379479963346984</v>
+        <v>0.08590707583198584</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.08282288166238887</v>
+        <v>0.09884052634937858</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.06499383826681468</v>
+        <v>0.08329565630054306</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.08296828123525492</v>
+        <v>0.07748431516956532</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1284386701063236</v>
+        <v>0.09218367986620073</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.6260908363510386</v>
+        <v>0.5717955395205517</v>
       </c>
       <c r="F17" t="n">
-        <v>0.009372364784185964</v>
+        <v>0.01878343226541481</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01337455935246505</v>
+        <v>0.05359841146269783</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04900649883342188</v>
+        <v>0.02241460878400679</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01885573959589182</v>
+        <v>0.04026314473903021</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03254908651092184</v>
+        <v>0.04149838793771269</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01021946508064287</v>
+        <v>0.0005182456931957228</v>
       </c>
       <c r="L17" t="n">
-        <v>0.005847247766094218</v>
+        <v>0.0003824510639946422</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02349457081536502</v>
+        <v>0.01434216991012075</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1243444858910554</v>
+        <v>0.1033069110889472</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03502854654669549</v>
+        <v>0.02176632995862022</v>
       </c>
       <c r="P17" t="n">
-        <v>0.09055130303373558</v>
+        <v>0.008706613981907838</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.09147762448100288</v>
+        <v>0.06930742691196573</v>
       </c>
       <c r="R17" t="n">
-        <v>0.004559045758371801</v>
+        <v>0.01576294263212655</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0459605809759604</v>
+        <v>0.05119777669385838</v>
       </c>
       <c r="T17" t="n">
-        <v>0.03371574143319302</v>
+        <v>0.01582987486638121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02647059686229672</v>
+        <v>0.05307248155474625</v>
       </c>
       <c r="V17" t="n">
-        <v>0.105149068852713</v>
+        <v>0.100131260711267</v>
       </c>
       <c r="W17" t="n">
-        <v>0.03353834239814076</v>
+        <v>0.05851707746697621</v>
       </c>
       <c r="X17" t="n">
-        <v>0.02155623216681131</v>
+        <v>0.01604360148505897</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1311937860823577</v>
+        <v>0.03447134946917371</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.05241312054608118</v>
+        <v>0.1022965852107735</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0267783256798527</v>
+        <v>0.08070653047392987</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.01454366655274364</v>
+        <v>0.07708238563809383</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1518004176716578</v>
+        <v>0.1645109703162728</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2848206398010609</v>
+        <v>0.2856022718707428</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08935554445482205</v>
+        <v>0.05415559119179011</v>
       </c>
       <c r="G18" t="n">
-        <v>0.006320864869167916</v>
+        <v>0.01578442539547458</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03063330166923418</v>
+        <v>0.01821125024798502</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02494172946672731</v>
+        <v>0.04821797768835462</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04481127396205442</v>
+        <v>0.0766913616297981</v>
       </c>
       <c r="K18" t="n">
-        <v>0.007487021527152051</v>
+        <v>0.002174050663895961</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02152380240729006</v>
+        <v>0.07419580308081448</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03938535084760576</v>
+        <v>0.007086067241302653</v>
       </c>
       <c r="N18" t="n">
-        <v>0.05003362128385788</v>
+        <v>0.0005967869328404597</v>
       </c>
       <c r="O18" t="n">
-        <v>0.009268467097047341</v>
+        <v>0.03042444968515727</v>
       </c>
       <c r="P18" t="n">
-        <v>0.08040981013572013</v>
+        <v>0.07417802285625891</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.05291335029120219</v>
+        <v>0.0334375908009123</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06154351043409737</v>
+        <v>0.06634492790900393</v>
       </c>
       <c r="S18" t="n">
-        <v>0.07455635343835097</v>
+        <v>0.08036615126694929</v>
       </c>
       <c r="T18" t="n">
-        <v>0.01717343461431126</v>
+        <v>0.02731497983690318</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05717641271871226</v>
+        <v>0.05548332688870577</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0267957447226459</v>
+        <v>0.008004405381375626</v>
       </c>
       <c r="W18" t="n">
-        <v>0.08400157141302479</v>
+        <v>0.0374369646502193</v>
       </c>
       <c r="X18" t="n">
-        <v>0.06462217837803355</v>
+        <v>0.07857494481546198</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.05503504506120031</v>
+        <v>0.07425088101064102</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.06872404941198458</v>
+        <v>0.07507766944656283</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.000689124480566319</v>
+        <v>0.020030966843827</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.03259843731519149</v>
+        <v>0.04196140453576546</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1207208176661175</v>
+        <v>0.1303941715958252</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.3573608259864683</v>
+        <v>0.3861313880244024</v>
       </c>
       <c r="F19" t="n">
-        <v>0.006271749930501151</v>
+        <v>0.09502506323766158</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03723463319075049</v>
+        <v>0.009360269447259222</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03517816369820586</v>
+        <v>0.06091307006316612</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04841221123905827</v>
+        <v>0.03948844822266773</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02440522636082963</v>
+        <v>0.0005803601986313734</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05851162530775503</v>
+        <v>0.02636678827791416</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05596057420539621</v>
+        <v>0.04666413068293546</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01722384212157386</v>
+        <v>0.04941596948211262</v>
       </c>
       <c r="N19" t="n">
-        <v>0.04216039358675893</v>
+        <v>0.02420321143135759</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03195019652832744</v>
+        <v>0.02442107279008905</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01349517043425178</v>
+        <v>0.08563556536398309</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1112011735987695</v>
+        <v>0.05471119573375164</v>
       </c>
       <c r="R19" t="n">
-        <v>0.08858054268487556</v>
+        <v>0.02334578250824438</v>
       </c>
       <c r="S19" t="n">
-        <v>0.01419943997229829</v>
+        <v>0.003377286451593894</v>
       </c>
       <c r="T19" t="n">
-        <v>0.002098268676674168</v>
+        <v>0.07189372507536994</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0504920853311917</v>
+        <v>0.009192378516150105</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1182540622721812</v>
+        <v>0.1559045468448481</v>
       </c>
       <c r="W19" t="n">
-        <v>0.001634390081473983</v>
+        <v>0.01789786961547008</v>
       </c>
       <c r="X19" t="n">
-        <v>0.100457044812284</v>
+        <v>0.003216155513992583</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.06080182716338409</v>
+        <v>0.01266311797021899</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.02546445822737228</v>
+        <v>0.125452492023915</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.05218092213180749</v>
+        <v>0.05615527606471089</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.003831998444279074</v>
+        <v>0.004116224483956088</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1317670490046652</v>
+        <v>0.124536371284564</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.2943073884761951</v>
+        <v>0.2919189987018296</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01793197654722013</v>
+        <v>0.03601499457877549</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04732159429366185</v>
+        <v>0.03040473253183013</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01324112342992384</v>
+        <v>0.00390721618405574</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03181160488411786</v>
+        <v>0.08891261129617034</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005643986133077403</v>
+        <v>0.03232415093003511</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05929868436122768</v>
+        <v>0.03075279587114178</v>
       </c>
       <c r="L20" t="n">
-        <v>0.007466474512149249</v>
+        <v>0.02233892161292789</v>
       </c>
       <c r="M20" t="n">
-        <v>0.008434473554508074</v>
+        <v>0.01926367564856459</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0005782199040319017</v>
+        <v>0.01120229040589937</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02748529671514165</v>
+        <v>0.016637369987589</v>
       </c>
       <c r="P20" t="n">
-        <v>0.001374777151906024</v>
+        <v>0.08602687055460181</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.08078588828005769</v>
+        <v>0.07566378189259972</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05930871152398889</v>
+        <v>0.06673961278470286</v>
       </c>
       <c r="S20" t="n">
-        <v>0.07417192568749072</v>
+        <v>0.07435791817658069</v>
       </c>
       <c r="T20" t="n">
-        <v>0.009195325970224932</v>
+        <v>0.07416821161743033</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02567202048502422</v>
+        <v>0.0627754064471847</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0219847081633226</v>
+        <v>0.01717402082681089</v>
       </c>
       <c r="W20" t="n">
-        <v>0.09215608157122987</v>
+        <v>0.06492357972348309</v>
       </c>
       <c r="X20" t="n">
-        <v>0.08048229266189741</v>
+        <v>0.03496576819599916</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.06769360811707832</v>
+        <v>0.004499211762907083</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.07263470198762266</v>
+        <v>0.06037693014922942</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.08948330300782435</v>
+        <v>0.001839496636286653</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.1058432210572726</v>
+        <v>0.0847304321851941</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.04108054488050385</v>
+        <v>0.02404954895921134</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3254781233353415</v>
+        <v>0.3329455856849492</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03567320383462939</v>
+        <v>0.05221781371928828</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01487939850595451</v>
+        <v>0.0405848544082318</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02565711309220892</v>
+        <v>0.01930633865934178</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02166655116721515</v>
+        <v>0.03899577683925353</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03681563667285948</v>
+        <v>0.07167513502973483</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002435723450599535</v>
+        <v>0.01027861973528901</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01198838213950574</v>
+        <v>0.008928565145500396</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02658761289447379</v>
+        <v>0.0386974823667614</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02600075761965216</v>
+        <v>0.01855965113908621</v>
       </c>
       <c r="O21" t="n">
-        <v>0.09957065873062872</v>
+        <v>0.02222327637292287</v>
       </c>
       <c r="P21" t="n">
-        <v>0.04796591400487538</v>
+        <v>0.03909561978130922</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.05979572947681017</v>
+        <v>0.09560143317664928</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1240909503361741</v>
+        <v>0.1136618562436431</v>
       </c>
       <c r="S21" t="n">
-        <v>0.07570835539159687</v>
+        <v>0.002188831438889152</v>
       </c>
       <c r="T21" t="n">
-        <v>0.05728746659276771</v>
+        <v>0.03632600806011328</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01269351644251482</v>
+        <v>0.06901603056033893</v>
       </c>
       <c r="V21" t="n">
-        <v>0.06772369436210152</v>
+        <v>0.07778375870559463</v>
       </c>
       <c r="W21" t="n">
-        <v>0.02702310407196678</v>
+        <v>0.05632990010440306</v>
       </c>
       <c r="X21" t="n">
-        <v>0.01088851149620936</v>
+        <v>0.02947026277154367</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.05991193297303899</v>
+        <v>0.02953456772649763</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.05481459265426544</v>
+        <v>0.06902774716987131</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.0113932229417447</v>
+        <v>0.01716755397907047</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.08942797114820693</v>
+        <v>0.04332891686666627</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.03634350327225206</v>
+        <v>0.04176899729658912</v>
       </c>
     </row>
     <row r="22">
@@ -2495,76 +2495,76 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.3156315895949437</v>
+        <v>0.32323659132323</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02041142165829045</v>
+        <v>0.0896120367926161</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02784580622813778</v>
+        <v>0.01709522203785133</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03049414857852533</v>
+        <v>0.0125557837728044</v>
       </c>
       <c r="I22" t="n">
-        <v>0.09548194946261519</v>
+        <v>0.06978010399498633</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04470944400158745</v>
+        <v>0.07170841307367273</v>
       </c>
       <c r="K22" t="n">
-        <v>0.004794511974012912</v>
+        <v>0.01842846223104166</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0347138421582003</v>
+        <v>0.002529248968336572</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02290114682913875</v>
+        <v>0.03838165445900351</v>
       </c>
       <c r="N22" t="n">
-        <v>0.004734741779086053</v>
+        <v>0.007300459712146695</v>
       </c>
       <c r="O22" t="n">
-        <v>0.09844475810644705</v>
+        <v>0.055079182965139</v>
       </c>
       <c r="P22" t="n">
-        <v>0.09376269399534314</v>
+        <v>0.05074553893402189</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.05261648211903117</v>
+        <v>0.06399067732546122</v>
       </c>
       <c r="R22" t="n">
-        <v>0.009659505964921926</v>
+        <v>0.0142965658347059</v>
       </c>
       <c r="S22" t="n">
-        <v>0.06250463931082054</v>
+        <v>0.003358657663468192</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0151215432899968</v>
+        <v>0.04489298304413837</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01677045162878594</v>
+        <v>0.02757187708345312</v>
       </c>
       <c r="V22" t="n">
-        <v>0.03557813288843002</v>
+        <v>0.04063292646146352</v>
       </c>
       <c r="W22" t="n">
-        <v>0.07629174513363367</v>
+        <v>0.08496610044756576</v>
       </c>
       <c r="X22" t="n">
-        <v>0.06450531719221754</v>
+        <v>0.06439737827471445</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.08124004798619447</v>
+        <v>0.0967282019210407</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.01634969613655568</v>
+        <v>0.06514801723290657</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0433327134430326</v>
+        <v>0.03213409263190491</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0477352601349953</v>
+        <v>0.02866641513755698</v>
       </c>
       <c r="AC22" t="inlineStr"/>
     </row>
@@ -2588,76 +2588,76 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3945896890401628</v>
+        <v>0.379578103005935</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0542025668592871</v>
+        <v>0.05397338806563148</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03303977547458017</v>
+        <v>0.0214445885765782</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05486605344076088</v>
+        <v>0.02975184245172985</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02566612917659424</v>
+        <v>0.06061743841746339</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05755829118050281</v>
+        <v>0.1036248343357603</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01529548064869417</v>
+        <v>0.01211924479540541</v>
       </c>
       <c r="L23" t="n">
-        <v>0.07227254776022811</v>
+        <v>0.04235613196825223</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0413618456530884</v>
+        <v>0.007835814816434392</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0349925626888534</v>
+        <v>0.05272171596113295</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03690980524400927</v>
+        <v>0.04755766842598864</v>
       </c>
       <c r="P23" t="n">
-        <v>0.01835479370221873</v>
+        <v>0.02091739228906227</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.009203543283304885</v>
+        <v>0.02563017997200341</v>
       </c>
       <c r="R23" t="n">
-        <v>0.002937706155258982</v>
+        <v>0.01719943705669861</v>
       </c>
       <c r="S23" t="n">
-        <v>0.07478829481535926</v>
+        <v>0.05416640110816123</v>
       </c>
       <c r="T23" t="n">
-        <v>0.06730631525905054</v>
+        <v>0.03254939237016293</v>
       </c>
       <c r="U23" t="n">
-        <v>0.02504605368182734</v>
+        <v>0.04496070707464315</v>
       </c>
       <c r="V23" t="n">
-        <v>0.09902838025733396</v>
+        <v>0.1050121806069415</v>
       </c>
       <c r="W23" t="n">
-        <v>0.001963381122792929</v>
+        <v>0.08014378854167176</v>
       </c>
       <c r="X23" t="n">
-        <v>0.04812109265403004</v>
+        <v>0.04802441456526641</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.001849595263578212</v>
+        <v>0.01430936980061351</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.07789403636494956</v>
+        <v>0.06675016980296346</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.08023593970345431</v>
+        <v>0.003459481420878448</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.06710580961024265</v>
+        <v>0.05487441757655642</v>
       </c>
       <c r="AC23" t="inlineStr"/>
     </row>
@@ -2681,79 +2681,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2855843993062486</v>
+        <v>0.2854174628392821</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01136925032208348</v>
+        <v>0.04810746477501054</v>
       </c>
       <c r="G24" t="n">
-        <v>0.003394061691008562</v>
+        <v>0.003093647910115361</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01425401579893309</v>
+        <v>0.01467948182530425</v>
       </c>
       <c r="I24" t="n">
-        <v>0.06751110015830709</v>
+        <v>0.08360664210038019</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01136984317866621</v>
+        <v>0.03625082757618772</v>
       </c>
       <c r="K24" t="n">
-        <v>0.009280542356949991</v>
+        <v>0.001942200076133772</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01442055274543797</v>
+        <v>0.00398540011346233</v>
       </c>
       <c r="M24" t="n">
-        <v>0.05039594562106707</v>
+        <v>0.03499193978865013</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01977722112778604</v>
+        <v>0.01351828935492452</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02528389598710972</v>
+        <v>0.05664370837445521</v>
       </c>
       <c r="P24" t="n">
-        <v>0.05504132721512994</v>
+        <v>0.09033383598199418</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.07225015297207296</v>
+        <v>0.00791154600801887</v>
       </c>
       <c r="R24" t="n">
-        <v>0.09314039107234591</v>
+        <v>0.09271816681611385</v>
       </c>
       <c r="S24" t="n">
-        <v>0.09808352357158696</v>
+        <v>0.06705872273770627</v>
       </c>
       <c r="T24" t="n">
-        <v>0.03354993039818805</v>
+        <v>0.07349605397911917</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03361107039985907</v>
+        <v>0.02660621406931276</v>
       </c>
       <c r="V24" t="n">
-        <v>0.03538567411858094</v>
+        <v>0.06223629861248951</v>
       </c>
       <c r="W24" t="n">
-        <v>0.03958335666408396</v>
+        <v>0.06877607421838601</v>
       </c>
       <c r="X24" t="n">
-        <v>0.07913801503352778</v>
+        <v>0.0006748090051037417</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.02884988998907903</v>
+        <v>0.02955154344498341</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.07045825518053631</v>
+        <v>0.09089927618942126</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.03738690291630913</v>
+        <v>0.01548954482807863</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.09646508148135059</v>
+        <v>0.07742831221464833</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1112481793794625</v>
+        <v>0.1143781580447334</v>
       </c>
     </row>
     <row r="25">
@@ -2776,79 +2776,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.378723844059834</v>
+        <v>0.3783230972159549</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08681852438441577</v>
+        <v>0.03561772966628452</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03979349500902757</v>
+        <v>0.005499068665769874</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01770637680646407</v>
+        <v>0.09574259856333467</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01546093957170626</v>
+        <v>0.02522590386108882</v>
       </c>
       <c r="J25" t="n">
-        <v>0.006919197798876698</v>
+        <v>0.03163308208195744</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01430981340482074</v>
+        <v>0.01329477007087519</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1133975779253173</v>
+        <v>0.07421902183656359</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03928062759395332</v>
+        <v>0.06385124337343835</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0411342834154888</v>
+        <v>0.03709829971895313</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03308625655026968</v>
+        <v>0.001759408637665766</v>
       </c>
       <c r="P25" t="n">
-        <v>0.05741752885131895</v>
+        <v>0.02348410341040826</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.05757585932189307</v>
+        <v>0.01688159810261264</v>
       </c>
       <c r="R25" t="n">
-        <v>0.03963127864202468</v>
+        <v>0.04939240201771038</v>
       </c>
       <c r="S25" t="n">
-        <v>0.05437099860672861</v>
+        <v>0.005869212057042081</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0021666605014291</v>
+        <v>0.001198546789264125</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03846566431752709</v>
+        <v>0.001181726596875715</v>
       </c>
       <c r="V25" t="n">
-        <v>0.1151941439742932</v>
+        <v>0.1195030848787829</v>
       </c>
       <c r="W25" t="n">
-        <v>0.05908062898926823</v>
+        <v>0.0077229795511957</v>
       </c>
       <c r="X25" t="n">
-        <v>0.006281762487249027</v>
+        <v>0.02035777176922645</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.01773049687588969</v>
+        <v>0.0008213730848140264</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.02110279996614124</v>
+        <v>0.1251626051543695</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.04361184559511616</v>
+        <v>0.1244373515169283</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.07946323941078073</v>
+        <v>0.1200461185948387</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1401739454478299</v>
+        <v>0.2015534352682634</v>
       </c>
     </row>
     <row r="26">
@@ -2871,79 +2871,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.2604941018003265</v>
+        <v>0.2364077175857627</v>
       </c>
       <c r="F26" t="n">
-        <v>0.007158485761988411</v>
+        <v>0.03685452370821778</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02826812318904554</v>
+        <v>0.003126506314032436</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0001417112146806111</v>
+        <v>0.03087959728413392</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0463994623123481</v>
+        <v>0.08794423194577357</v>
       </c>
       <c r="J26" t="n">
-        <v>0.06645954956163003</v>
+        <v>0.01574170738966009</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03755322527659509</v>
+        <v>0.00315032148470031</v>
       </c>
       <c r="L26" t="n">
-        <v>0.04686674703629902</v>
+        <v>0.02243347946604972</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01162753362446444</v>
+        <v>0.07057044956103536</v>
       </c>
       <c r="N26" t="n">
-        <v>0.00273748588242956</v>
+        <v>0.045698786086593</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1009024341058864</v>
+        <v>0.05458244282692987</v>
       </c>
       <c r="P26" t="n">
-        <v>0.106313956195142</v>
+        <v>0.08626405499418821</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.1042256738002397</v>
+        <v>0.06575566724811642</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01917463392524086</v>
+        <v>0.070976296815666</v>
       </c>
       <c r="S26" t="n">
-        <v>0.09518819851547063</v>
+        <v>0.07024347128063661</v>
       </c>
       <c r="T26" t="n">
-        <v>0.02017007252838854</v>
+        <v>0.07292941905747108</v>
       </c>
       <c r="U26" t="n">
-        <v>0.005284502212363595</v>
+        <v>0.008119783349411559</v>
       </c>
       <c r="V26" t="n">
-        <v>0.003994941954863407</v>
+        <v>0.003761758028380773</v>
       </c>
       <c r="W26" t="n">
-        <v>0.03213725796811787</v>
+        <v>0.08620335237277447</v>
       </c>
       <c r="X26" t="n">
-        <v>0.05945027604624863</v>
+        <v>0.05640288222723713</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.04687229319009197</v>
+        <v>0.05108449034194524</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.1059014423635002</v>
+        <v>0.04625015132449968</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.04890036052484441</v>
+        <v>0.004753096465985555</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.004271632810121077</v>
+        <v>0.006273530426561136</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.06757116481109801</v>
+        <v>0.08045037412301928</v>
       </c>
     </row>
     <row r="27">
@@ -2966,79 +2966,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.4033724307880145</v>
+        <v>0.5068379637041128</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02647522635094346</v>
+        <v>0.04414132013025666</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03059737906519755</v>
+        <v>0.0004934660973068148</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02473707189032732</v>
+        <v>0.002461332689554809</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04682919063036687</v>
+        <v>0.002924398971521371</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0003146539168190536</v>
+        <v>0.1061616349443551</v>
       </c>
       <c r="K27" t="n">
-        <v>0.05794222529561151</v>
+        <v>0.07367390281988354</v>
       </c>
       <c r="L27" t="n">
-        <v>0.05068996551895592</v>
+        <v>0.0576828238498638</v>
       </c>
       <c r="M27" t="n">
-        <v>0.05051177486392229</v>
+        <v>0.08125187513236713</v>
       </c>
       <c r="N27" t="n">
-        <v>0.008604513763357441</v>
+        <v>0.05611673163265497</v>
       </c>
       <c r="O27" t="n">
-        <v>0.06333283893512955</v>
+        <v>0.03654950055302898</v>
       </c>
       <c r="P27" t="n">
-        <v>0.107486297696952</v>
+        <v>0.02618633527358404</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01409345457277475</v>
+        <v>0.0329829044682757</v>
       </c>
       <c r="R27" t="n">
-        <v>0.06355371918628711</v>
+        <v>0.09753529286091181</v>
       </c>
       <c r="S27" t="n">
-        <v>0.0002366592502644064</v>
+        <v>0.05821393391892422</v>
       </c>
       <c r="T27" t="n">
-        <v>0.07210132962955774</v>
+        <v>0.06735016713827402</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03741481218717867</v>
+        <v>0.1040915730895652</v>
       </c>
       <c r="V27" t="n">
-        <v>0.001967011626563214</v>
+        <v>0.009175721686480042</v>
       </c>
       <c r="W27" t="n">
-        <v>0.05921141643538315</v>
+        <v>0.05939560038953543</v>
       </c>
       <c r="X27" t="n">
-        <v>0.1066149472350338</v>
+        <v>0.02627730113639123</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.03079178173313839</v>
+        <v>0.009736120620038528</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.02642001565036597</v>
+        <v>0.004831789025532795</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.1077703210058903</v>
+        <v>0.02566162327083926</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.01230339355997929</v>
+        <v>0.01710465030085487</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.07280490676445721</v>
+        <v>0.07534233868737929</v>
       </c>
     </row>
     <row r="28">
@@ -3061,79 +3061,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2023668888895845</v>
+        <v>0.198383364573015</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01552001697590921</v>
+        <v>0.004161641156340694</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01176123017060222</v>
+        <v>0.02799434566737595</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02885650985473075</v>
+        <v>0.008695164177341577</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04198694199070182</v>
+        <v>0.01195396589837362</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01542934366139448</v>
+        <v>0.005518446825025116</v>
       </c>
       <c r="K28" t="n">
-        <v>0.06040448519826906</v>
+        <v>0.02339765746567858</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04914791934371784</v>
+        <v>0.03560848775062796</v>
       </c>
       <c r="M28" t="n">
-        <v>0.05461832434345629</v>
+        <v>0.04092295711425364</v>
       </c>
       <c r="N28" t="n">
-        <v>0.07941094682033958</v>
+        <v>0.01648923194906854</v>
       </c>
       <c r="O28" t="n">
-        <v>0.009426680745403503</v>
+        <v>0.06744802884094876</v>
       </c>
       <c r="P28" t="n">
-        <v>0.08371072368086147</v>
+        <v>0.09811847840953541</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.07363907872110741</v>
+        <v>0.001548125244524</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0689898661939395</v>
+        <v>0.06816250390577204</v>
       </c>
       <c r="S28" t="n">
-        <v>0.05766841810005446</v>
+        <v>0.04615031114462816</v>
       </c>
       <c r="T28" t="n">
-        <v>0.03338544731653616</v>
+        <v>0.06393595324999879</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06924140445118936</v>
+        <v>0.07342332759836537</v>
       </c>
       <c r="V28" t="n">
-        <v>0.01624812546484906</v>
+        <v>0.01144918631655653</v>
       </c>
       <c r="W28" t="n">
-        <v>0.06323034470707081</v>
+        <v>0.09740676795465823</v>
       </c>
       <c r="X28" t="n">
-        <v>0.05617345046446587</v>
+        <v>0.0958261269284317</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.01368301551729924</v>
+        <v>0.03047553434882235</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.03100285418788539</v>
+        <v>0.09750000631935429</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.007971141948309796</v>
+        <v>0.01263426816523979</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.05849373014190668</v>
+        <v>0.061179483569079</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.2511424702665349</v>
+        <v>-0.2274080456215694</v>
       </c>
     </row>
     <row r="29">
@@ -3156,79 +3156,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2391363436371227</v>
+        <v>0.2651498001102026</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03026961725005064</v>
+        <v>0.08148034504468861</v>
       </c>
       <c r="G29" t="n">
-        <v>0.004284882009342439</v>
+        <v>0.07477478312909819</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1009234347260379</v>
+        <v>0.07508899267793012</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03691749856303231</v>
+        <v>0.02256620052697993</v>
       </c>
       <c r="J29" t="n">
-        <v>0.06636102929652947</v>
+        <v>0.08881610581137277</v>
       </c>
       <c r="K29" t="n">
-        <v>0.05107406342137914</v>
+        <v>0.08978290721686449</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0501302506630831</v>
+        <v>0.03894427887897169</v>
       </c>
       <c r="M29" t="n">
-        <v>0.001276143415236345</v>
+        <v>0.00356120336416987</v>
       </c>
       <c r="N29" t="n">
-        <v>0.007136002759593296</v>
+        <v>0.02091262912873989</v>
       </c>
       <c r="O29" t="n">
-        <v>0.03539151593751849</v>
+        <v>0.0423746529788364</v>
       </c>
       <c r="P29" t="n">
-        <v>0.09372103866116874</v>
+        <v>0.04854577935599512</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.07182979307848421</v>
+        <v>0.003281288596062985</v>
       </c>
       <c r="R29" t="n">
-        <v>0.02335451861684648</v>
+        <v>0.0076897008212236</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0821559216003425</v>
+        <v>0.04428559457838135</v>
       </c>
       <c r="T29" t="n">
-        <v>0.009358007236507808</v>
+        <v>0.0009431295778044782</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05512055706361051</v>
+        <v>0.08916462888459721</v>
       </c>
       <c r="V29" t="n">
-        <v>0.05952189246964535</v>
+        <v>0.07881969236397511</v>
       </c>
       <c r="W29" t="n">
-        <v>0.009399755422038502</v>
+        <v>0.0187898514762635</v>
       </c>
       <c r="X29" t="n">
-        <v>0.04749262187162172</v>
+        <v>0.02624799026250964</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.002440471727155924</v>
+        <v>0.04166570728804356</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.05076366472773094</v>
+        <v>0.0248452220253473</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.01491454026645198</v>
+        <v>0.006715369827389746</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.09616277921659232</v>
+        <v>0.07070394618475447</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.2221356457444656</v>
+        <v>-0.2314474168612717</v>
       </c>
     </row>
     <row r="30">
@@ -3251,79 +3251,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1797686503491638</v>
+        <v>0.1848063123658873</v>
       </c>
       <c r="F30" t="n">
-        <v>0.05379110690114045</v>
+        <v>0.09058132354315872</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07402273130724978</v>
+        <v>0.08777305711138629</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02566202069740788</v>
+        <v>0.04958418862510091</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03877708306023439</v>
+        <v>0.09768658131297618</v>
       </c>
       <c r="J30" t="n">
-        <v>0.006305193324131946</v>
+        <v>0.01484366714852475</v>
       </c>
       <c r="K30" t="n">
-        <v>0.02873853966976123</v>
+        <v>0.02346512329403713</v>
       </c>
       <c r="L30" t="n">
-        <v>0.04019533398754437</v>
+        <v>0.05812444170146598</v>
       </c>
       <c r="M30" t="n">
-        <v>0.05411167061877139</v>
+        <v>0.001236576955560282</v>
       </c>
       <c r="N30" t="n">
-        <v>0.002713765049194608</v>
+        <v>0.0408780784941799</v>
       </c>
       <c r="O30" t="n">
-        <v>0.07535961337030578</v>
+        <v>0.01839677048357614</v>
       </c>
       <c r="P30" t="n">
-        <v>0.07738037421706236</v>
+        <v>0.04216621835265764</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.03654888400263112</v>
+        <v>0.08292114332557425</v>
       </c>
       <c r="R30" t="n">
-        <v>0.09292002426638182</v>
+        <v>0.08843343971250402</v>
       </c>
       <c r="S30" t="n">
-        <v>0.03560568178787535</v>
+        <v>0.02744873073546898</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01166346516257722</v>
+        <v>0.004944930245523077</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01995639632306416</v>
+        <v>0.02932440473624078</v>
       </c>
       <c r="V30" t="n">
-        <v>0.004570140527157911</v>
+        <v>0.006149152026039593</v>
       </c>
       <c r="W30" t="n">
-        <v>0.06283978261106649</v>
+        <v>0.08419711668308663</v>
       </c>
       <c r="X30" t="n">
-        <v>0.07499462075709942</v>
+        <v>0.07418712253440486</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.03920701846626069</v>
+        <v>0.00559161908341857</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.03394562648206183</v>
+        <v>0.009968085110752216</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.02674806309843402</v>
+        <v>0.003256280902223177</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.08394286431258566</v>
+        <v>0.05884194788213975</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.05440179504616999</v>
+        <v>0.06262079171487461</v>
       </c>
     </row>
     <row r="31">
@@ -3346,79 +3346,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.260146029746486</v>
+        <v>0.2456229333596259</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01067170866209393</v>
+        <v>0.06761936372725832</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02355711513336122</v>
+        <v>0.05619454715237771</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09534046014401598</v>
+        <v>0.06596115976067016</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01178904731875947</v>
+        <v>0.01115535894769822</v>
       </c>
       <c r="J31" t="n">
-        <v>0.08471527832232206</v>
+        <v>0.08722614289672806</v>
       </c>
       <c r="K31" t="n">
-        <v>0.08613785693918828</v>
+        <v>0.08795969033496222</v>
       </c>
       <c r="L31" t="n">
-        <v>0.06773157676690729</v>
+        <v>0.03777674781200353</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0040323142499401</v>
+        <v>0.008255066507583802</v>
       </c>
       <c r="N31" t="n">
-        <v>0.02104549003677314</v>
+        <v>0.007420804121470425</v>
       </c>
       <c r="O31" t="n">
-        <v>0.02836903815130273</v>
+        <v>0.009291807083207412</v>
       </c>
       <c r="P31" t="n">
-        <v>0.02332135498955546</v>
+        <v>0.01480313763587156</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0474531518614418</v>
+        <v>0.04662482070326224</v>
       </c>
       <c r="R31" t="n">
-        <v>0.09126132930916715</v>
+        <v>0.04226573680159598</v>
       </c>
       <c r="S31" t="n">
-        <v>0.09306663413235215</v>
+        <v>0.05676017240901084</v>
       </c>
       <c r="T31" t="n">
-        <v>0.001020914458863934</v>
+        <v>0.02459887701183073</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01101415923163151</v>
+        <v>0.02501867120476477</v>
       </c>
       <c r="V31" t="n">
-        <v>0.09862517113371896</v>
+        <v>0.08887390370692079</v>
       </c>
       <c r="W31" t="n">
-        <v>0.009827320367746105</v>
+        <v>0.02179201601331515</v>
       </c>
       <c r="X31" t="n">
-        <v>0.005697891239280037</v>
+        <v>0.0571041761323963</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.02118014385252554</v>
+        <v>0.02987270058180613</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.02552500067102907</v>
+        <v>0.02397579230528141</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.08188960683978314</v>
+        <v>0.0569466640967257</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.05672743618824076</v>
+        <v>0.07250264305325844</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.0202199629916218</v>
+        <v>0.02416952035079044</v>
       </c>
     </row>
     <row r="32">
@@ -3441,79 +3441,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1985707930219057</v>
+        <v>0.197240783243269</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09736983001207392</v>
+        <v>0.03742839637135002</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03129349560552295</v>
+        <v>0.05255881918785119</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03850328273621071</v>
+        <v>0.07714840635835042</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03305428572024455</v>
+        <v>0.04200780010495626</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0111011600030369</v>
+        <v>0.03034357621771264</v>
       </c>
       <c r="K32" t="n">
-        <v>0.008286944675957083</v>
+        <v>0.002707430166970155</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01611980207905383</v>
+        <v>0.02144597587316401</v>
       </c>
       <c r="M32" t="n">
-        <v>0.09464355283245533</v>
+        <v>0.03390605690194566</v>
       </c>
       <c r="N32" t="n">
-        <v>0.04025142746015956</v>
+        <v>0.02367051694315765</v>
       </c>
       <c r="O32" t="n">
-        <v>0.08532362379659351</v>
+        <v>0.01776899415209828</v>
       </c>
       <c r="P32" t="n">
-        <v>0.01411302717158999</v>
+        <v>0.08869535011464902</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.009634638355073298</v>
+        <v>0.02129334630005219</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1008798097427402</v>
+        <v>0.07976339869376663</v>
       </c>
       <c r="S32" t="n">
-        <v>0.01848885393849844</v>
+        <v>0.06463009623056093</v>
       </c>
       <c r="T32" t="n">
-        <v>0.03086013581164717</v>
+        <v>0.0005033479580013211</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09535850122220456</v>
+        <v>0.07488032067080408</v>
       </c>
       <c r="V32" t="n">
-        <v>0.04227528928458468</v>
+        <v>0.003883689978655055</v>
       </c>
       <c r="W32" t="n">
-        <v>0.06602870691324454</v>
+        <v>0.08290681566141744</v>
       </c>
       <c r="X32" t="n">
-        <v>0.01518189711916596</v>
+        <v>0.05632896238008454</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0007201631587311048</v>
+        <v>0.02187869812662479</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.0727555278136086</v>
+        <v>0.0755443774616414</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.06083005010964924</v>
+        <v>0.05081558746469066</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.01692599443795396</v>
+        <v>0.03989003668149589</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.1147697996080134</v>
+        <v>0.08760144710160453</v>
       </c>
     </row>
     <row r="33">
@@ -3536,79 +3536,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.2416293936386582</v>
+        <v>0.2450246622927724</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01232671157264533</v>
+        <v>0.005842460444127721</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03018436964160497</v>
+        <v>0.0872341988238633</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1245502399858509</v>
+        <v>0.01824873963055687</v>
       </c>
       <c r="I33" t="n">
-        <v>0.008873173198817155</v>
+        <v>0.04412688631962459</v>
       </c>
       <c r="J33" t="n">
-        <v>0.04808207623322724</v>
+        <v>0.09318580663630756</v>
       </c>
       <c r="K33" t="n">
-        <v>0.02308990289290997</v>
+        <v>0.0650830412200723</v>
       </c>
       <c r="L33" t="n">
-        <v>0.001847916791499592</v>
+        <v>0.02946658862578422</v>
       </c>
       <c r="M33" t="n">
-        <v>0.08562544135413892</v>
+        <v>0.04560397408028797</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0812956629659331</v>
+        <v>0.05848867707873071</v>
       </c>
       <c r="O33" t="n">
-        <v>0.00589232285425255</v>
+        <v>0.003381793583116951</v>
       </c>
       <c r="P33" t="n">
-        <v>0.05158121079756213</v>
+        <v>0.08151653010415492</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0001790228888958266</v>
+        <v>0.0062838458303839</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1118933708721168</v>
+        <v>0.02863274351715415</v>
       </c>
       <c r="S33" t="n">
-        <v>0.09237050194824807</v>
+        <v>0.06560503809687368</v>
       </c>
       <c r="T33" t="n">
-        <v>0.05100879317308456</v>
+        <v>0.03544148983511598</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006363368949203183</v>
+        <v>0.07603908522306856</v>
       </c>
       <c r="V33" t="n">
-        <v>0.1308596868121217</v>
+        <v>0.07765004708924153</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01442468860145445</v>
+        <v>0.06507164684821</v>
       </c>
       <c r="X33" t="n">
-        <v>0.04117240663182801</v>
+        <v>0.01646269394803369</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.0466012956206923</v>
+        <v>0.000507172508285815</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0188380153137635</v>
+        <v>0.08546905237809645</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.00466989318391268</v>
+        <v>0.003564209574787675</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.008269927716236853</v>
+        <v>0.007094278604121164</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.1148658987707932</v>
+        <v>0.1376624336354722</v>
       </c>
     </row>
     <row r="34">
@@ -3631,79 +3631,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.2339511416155963</v>
+        <v>0.2348626451079663</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04620337302731979</v>
+        <v>0.02837634504451561</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0766837326647572</v>
+        <v>0.07607080707487589</v>
       </c>
       <c r="H34" t="n">
-        <v>0.003599811010236571</v>
+        <v>0.05579752641117355</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02060430613520431</v>
+        <v>0.08460342999826294</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02068963902888834</v>
+        <v>0.05353286969602466</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01578583541351392</v>
+        <v>0.002240137460808899</v>
       </c>
       <c r="L34" t="n">
-        <v>0.07628242097495765</v>
+        <v>0.07421775529063394</v>
       </c>
       <c r="M34" t="n">
-        <v>0.08055428039347945</v>
+        <v>0.003240702603870833</v>
       </c>
       <c r="N34" t="n">
-        <v>0.004550905801146119</v>
+        <v>0.0002856292982089174</v>
       </c>
       <c r="O34" t="n">
-        <v>0.03784552258191404</v>
+        <v>0.01099392501427082</v>
       </c>
       <c r="P34" t="n">
-        <v>0.03734922135733117</v>
+        <v>0.05455191708343576</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.03431165420790275</v>
+        <v>0.03534143767203122</v>
       </c>
       <c r="R34" t="n">
-        <v>0.06613405482077266</v>
+        <v>0.08251466941358414</v>
       </c>
       <c r="S34" t="n">
-        <v>0.07513927426934346</v>
+        <v>0.07938082078564034</v>
       </c>
       <c r="T34" t="n">
-        <v>0.03900123189634805</v>
+        <v>0.02225553845134381</v>
       </c>
       <c r="U34" t="n">
-        <v>0.008826963976888513</v>
+        <v>0.003441330869943027</v>
       </c>
       <c r="V34" t="n">
-        <v>0.05121825807138017</v>
+        <v>0.01525517318096901</v>
       </c>
       <c r="W34" t="n">
-        <v>0.001453204403499198</v>
+        <v>0.002785499726545862</v>
       </c>
       <c r="X34" t="n">
-        <v>0.07707757079893626</v>
+        <v>0.06020293343410123</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.04318253447744251</v>
+        <v>0.04168469866161943</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.08393551309347598</v>
+        <v>0.08199903063813918</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.06039161309255147</v>
+        <v>0.07244907253518694</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.0391790785027104</v>
+        <v>0.05877874965481394</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.006739757988254588</v>
+        <v>0.03320383560028552</v>
       </c>
     </row>
     <row r="35">
@@ -3726,79 +3726,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.4862042293079697</v>
+        <v>0.9847361667995317</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02221617290916481</v>
+        <v>0.07141506176180266</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01879957417808666</v>
+        <v>0.07694127674493002</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01153044877425248</v>
+        <v>0.01489517466402806</v>
       </c>
       <c r="I35" t="n">
-        <v>0.07746251224048252</v>
+        <v>0.0003535967298758598</v>
       </c>
       <c r="J35" t="n">
-        <v>0.05738016521304571</v>
+        <v>0.06715158366777649</v>
       </c>
       <c r="K35" t="n">
-        <v>0.05813901609399837</v>
+        <v>0.03698674204798987</v>
       </c>
       <c r="L35" t="n">
-        <v>0.03231915828830341</v>
+        <v>0.001266196774303373</v>
       </c>
       <c r="M35" t="n">
-        <v>0.02263908818276978</v>
+        <v>0.04009309384250901</v>
       </c>
       <c r="N35" t="n">
-        <v>0.09991527586392084</v>
+        <v>0.05973237449542624</v>
       </c>
       <c r="O35" t="n">
-        <v>0.03404997825999311</v>
+        <v>0.02961813222202076</v>
       </c>
       <c r="P35" t="n">
-        <v>0.01845821725806722</v>
+        <v>0.05492275187027749</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.03712957096553997</v>
+        <v>0.06260051672221616</v>
       </c>
       <c r="R35" t="n">
-        <v>0.02421712636834709</v>
+        <v>0.04620594597262795</v>
       </c>
       <c r="S35" t="n">
-        <v>0.08793761463258168</v>
+        <v>0.08118867748129388</v>
       </c>
       <c r="T35" t="n">
-        <v>0.001948767791805409</v>
+        <v>0.0181120509618504</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1100162367423361</v>
+        <v>0.005910732052051511</v>
       </c>
       <c r="V35" t="n">
-        <v>0.03870537748551654</v>
+        <v>0.03538376523861339</v>
       </c>
       <c r="W35" t="n">
-        <v>0.001604118090955384</v>
+        <v>0.1195225448017007</v>
       </c>
       <c r="X35" t="n">
-        <v>0.001596891912889157</v>
+        <v>0.004167164722834431</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.0607174966286364</v>
+        <v>0.004999260740138659</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.03265734489101119</v>
+        <v>0.02286799492463165</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.06516409236164916</v>
+        <v>0.03684269572433523</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.08539575486664691</v>
+        <v>0.1088226658367663</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.006582357565931249</v>
+        <v>0.003247918757827165</v>
       </c>
     </row>
     <row r="36">
@@ -3821,79 +3821,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.2119038866988405</v>
+        <v>0.2055065171134223</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09759416390125379</v>
+        <v>0.006478690585068125</v>
       </c>
       <c r="G36" t="n">
-        <v>0.006561889633008991</v>
+        <v>0.01982916372926989</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04580426666544747</v>
+        <v>0.04321863619984861</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03731612447598827</v>
+        <v>0.05515643222845543</v>
       </c>
       <c r="J36" t="n">
-        <v>0.06288931877131393</v>
+        <v>0.007813428302849071</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01647280406981881</v>
+        <v>0.008989020504995622</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01272695844390673</v>
+        <v>0.04201825802456804</v>
       </c>
       <c r="M36" t="n">
-        <v>0.08317245036152877</v>
+        <v>0.1008868686496655</v>
       </c>
       <c r="N36" t="n">
-        <v>0.02658432813482903</v>
+        <v>0.001026994502707459</v>
       </c>
       <c r="O36" t="n">
-        <v>0.001486016175386951</v>
+        <v>0.00150529766374519</v>
       </c>
       <c r="P36" t="n">
-        <v>0.02947759333457269</v>
+        <v>0.00629756089412457</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0319244949414439</v>
+        <v>0.05386680706641915</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1012118795787646</v>
+        <v>0.0946579493409197</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0748325902422199</v>
+        <v>0.09841769270927805</v>
       </c>
       <c r="T36" t="n">
-        <v>0.03233080691684564</v>
+        <v>0.06461061192558219</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0712339312495657</v>
+        <v>0.05771768953409706</v>
       </c>
       <c r="V36" t="n">
-        <v>0.06042318825020038</v>
+        <v>0.01117411644164791</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0163027778932284</v>
+        <v>0.08889316623245713</v>
       </c>
       <c r="X36" t="n">
-        <v>0.01559507471848934</v>
+        <v>0.07103182369253386</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.03267503634507488</v>
+        <v>0.02370458049405495</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.02389404598603121</v>
+        <v>0.08532533974387348</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.09126446265654027</v>
+        <v>0.02302672320776875</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.02822579725454057</v>
+        <v>0.03435314832607052</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.05956327806959027</v>
+        <v>0.05703820934694566</v>
       </c>
     </row>
     <row r="37">
@@ -3916,79 +3916,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.8488096522843566</v>
+        <v>0.8896246392521615</v>
       </c>
       <c r="F37" t="n">
-        <v>0.05017273032213898</v>
+        <v>0.05877709615840541</v>
       </c>
       <c r="G37" t="n">
-        <v>0.000899653572879856</v>
+        <v>0.03157636929600258</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01620792329889193</v>
+        <v>0.02861282381078402</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1066905084733683</v>
+        <v>0.02768832851073339</v>
       </c>
       <c r="J37" t="n">
-        <v>0.004476566404054727</v>
+        <v>0.04549877725054838</v>
       </c>
       <c r="K37" t="n">
-        <v>0.009313650452192838</v>
+        <v>0.02101936080683278</v>
       </c>
       <c r="L37" t="n">
-        <v>0.008062798196082448</v>
+        <v>0.03794881948838512</v>
       </c>
       <c r="M37" t="n">
-        <v>0.03192133358717338</v>
+        <v>0.001268542345880517</v>
       </c>
       <c r="N37" t="n">
-        <v>0.00371965384842939</v>
+        <v>0.05570331887912752</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1129577918237021</v>
+        <v>0.09478477026181206</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1072277960605922</v>
+        <v>0.01207313825450411</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.08428357146228767</v>
+        <v>0.07637787837077079</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1145500354092779</v>
+        <v>0.05833333798740167</v>
       </c>
       <c r="S37" t="n">
-        <v>0.04502267677512128</v>
+        <v>0.0951169494521953</v>
       </c>
       <c r="T37" t="n">
-        <v>0.01768212021852427</v>
+        <v>0.008630729064780839</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02826706878380107</v>
+        <v>0.0427146042162169</v>
       </c>
       <c r="V37" t="n">
-        <v>0.00995705472658924</v>
+        <v>0.009304551769846698</v>
       </c>
       <c r="W37" t="n">
-        <v>0.03666562565336801</v>
+        <v>0.1002997632155368</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0225835432926051</v>
+        <v>0.02880012396774705</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.02977526766005649</v>
+        <v>0.008775570798728862</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.06368848592575027</v>
+        <v>0.06942225131593402</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.0906290773976821</v>
+        <v>0.007250886832494348</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.005245066655430642</v>
+        <v>0.08002200794533075</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.01330912456872372</v>
+        <v>0.06191837482118137</v>
       </c>
     </row>
     <row r="38">
@@ -4011,79 +4011,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2204474985379685</v>
+        <v>0.2260717603808333</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01015504044615423</v>
+        <v>0.02173711301424897</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04123144087751889</v>
+        <v>0.08792134242534967</v>
       </c>
       <c r="H38" t="n">
-        <v>0.06491160388314339</v>
+        <v>0.01328328401857124</v>
       </c>
       <c r="I38" t="n">
-        <v>0.002294338430625904</v>
+        <v>0.05317939011177121</v>
       </c>
       <c r="J38" t="n">
-        <v>0.05184677703741102</v>
+        <v>0.007971206956583266</v>
       </c>
       <c r="K38" t="n">
-        <v>0.02072594578782357</v>
+        <v>0.007897556186360271</v>
       </c>
       <c r="L38" t="n">
-        <v>0.03868537951017645</v>
+        <v>0.06229975953340763</v>
       </c>
       <c r="M38" t="n">
-        <v>0.05716734990373518</v>
+        <v>0.04855707667040438</v>
       </c>
       <c r="N38" t="n">
-        <v>0.02927104457789897</v>
+        <v>0.05848333107141466</v>
       </c>
       <c r="O38" t="n">
-        <v>0.03352477667670894</v>
+        <v>0.01169822343478179</v>
       </c>
       <c r="P38" t="n">
-        <v>0.05928255332598055</v>
+        <v>0.04288222114809499</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.07266754571864634</v>
+        <v>0.06861867871056976</v>
       </c>
       <c r="R38" t="n">
-        <v>0.09344178100838553</v>
+        <v>0.08021130353345114</v>
       </c>
       <c r="S38" t="n">
-        <v>0.02320443984844904</v>
+        <v>0.08022931579805605</v>
       </c>
       <c r="T38" t="n">
-        <v>0.003089902035817267</v>
+        <v>0.00208492443547428</v>
       </c>
       <c r="U38" t="n">
-        <v>0.07933517051955964</v>
+        <v>0.05471873614595248</v>
       </c>
       <c r="V38" t="n">
-        <v>0.07858789030421902</v>
+        <v>0.04515143079813957</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0105345388826494</v>
+        <v>0.002194953800819111</v>
       </c>
       <c r="X38" t="n">
-        <v>0.07472425927082785</v>
+        <v>0.08815103468796352</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.02114253833197625</v>
+        <v>0.03568991455718682</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.08517334153238519</v>
+        <v>0.02100529610001111</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.04826229947100199</v>
+        <v>0.07998201949694524</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.0007400426189054998</v>
+        <v>0.02605188736444286</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.00593796508307031</v>
+        <v>0.01620795712788744</v>
       </c>
     </row>
     <row r="39">
@@ -4106,79 +4106,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.3776708344022621</v>
+        <v>0.4411053093493396</v>
       </c>
       <c r="F39" t="n">
-        <v>0.03925584132833797</v>
+        <v>0.09382833165842375</v>
       </c>
       <c r="G39" t="n">
-        <v>0.05638852767230079</v>
+        <v>0.004334427978055377</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02909797738637005</v>
+        <v>0.01759175326359659</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02179379364897693</v>
+        <v>0.03059900976988196</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01719546101079212</v>
+        <v>0.08306215712699265</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1021906595252999</v>
+        <v>0.09400798174711715</v>
       </c>
       <c r="L39" t="n">
-        <v>0.08459195098905467</v>
+        <v>0.08871674132973</v>
       </c>
       <c r="M39" t="n">
-        <v>0.01352724301040077</v>
+        <v>0.05143650232405385</v>
       </c>
       <c r="N39" t="n">
-        <v>0.06269869510199159</v>
+        <v>0.008297183626148241</v>
       </c>
       <c r="O39" t="n">
-        <v>0.07303514074525735</v>
+        <v>0.06949686592338715</v>
       </c>
       <c r="P39" t="n">
-        <v>0.04634517048105756</v>
+        <v>0.0559872461443801</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.03712744155622127</v>
+        <v>0.03977821118789741</v>
       </c>
       <c r="R39" t="n">
-        <v>0.03256636529329308</v>
+        <v>0.08676946240382212</v>
       </c>
       <c r="S39" t="n">
-        <v>0.04770472644328553</v>
+        <v>0.007404412569248115</v>
       </c>
       <c r="T39" t="n">
-        <v>0.07537271072426927</v>
+        <v>0.001225358332562012</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004206104124782806</v>
+        <v>0.08575192190427733</v>
       </c>
       <c r="V39" t="n">
-        <v>0.008089024225915072</v>
+        <v>0.0203598839566808</v>
       </c>
       <c r="W39" t="n">
-        <v>0.1151968028929591</v>
+        <v>0.09676273406375606</v>
       </c>
       <c r="X39" t="n">
-        <v>0.07937767945329351</v>
+        <v>0.003747358763887481</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.007964964907991196</v>
+        <v>0.01268625533414928</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.03813214697564916</v>
+        <v>0.0118003432576066</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.003609432415061152</v>
+        <v>0.003853720119045429</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.004532140087439292</v>
+        <v>0.03250213721530056</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.04721442479372522</v>
+        <v>0.0317706986608751</v>
       </c>
     </row>
     <row r="40">
@@ -4201,79 +4201,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.2299711055239891</v>
+        <v>0.2200291728819853</v>
       </c>
       <c r="F40" t="n">
-        <v>0.001351150457210742</v>
+        <v>0.01506980357188941</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0549834153454049</v>
+        <v>0.00704178015260829</v>
       </c>
       <c r="H40" t="n">
-        <v>0.06077320773529898</v>
+        <v>0.07142556914025845</v>
       </c>
       <c r="I40" t="n">
-        <v>0.07064666515548551</v>
+        <v>0.05172268441646245</v>
       </c>
       <c r="J40" t="n">
-        <v>0.07260913346157347</v>
+        <v>0.02853680022082508</v>
       </c>
       <c r="K40" t="n">
-        <v>0.02507166666695057</v>
+        <v>0.00751283905642132</v>
       </c>
       <c r="L40" t="n">
-        <v>0.03009872666691893</v>
+        <v>0.01451699844425128</v>
       </c>
       <c r="M40" t="n">
-        <v>0.009035067081986221</v>
+        <v>0.094310748445683</v>
       </c>
       <c r="N40" t="n">
-        <v>0.001367235408991978</v>
+        <v>0.004588854286424631</v>
       </c>
       <c r="O40" t="n">
-        <v>0.05681525900568753</v>
+        <v>0.04018525358429864</v>
       </c>
       <c r="P40" t="n">
-        <v>0.06463957923124219</v>
+        <v>0.04919747156470525</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.081935445673518</v>
+        <v>0.06200569271385433</v>
       </c>
       <c r="R40" t="n">
-        <v>0.07612148371457191</v>
+        <v>0.08588586565513286</v>
       </c>
       <c r="S40" t="n">
-        <v>0.0190211421742541</v>
+        <v>0.05508263891822606</v>
       </c>
       <c r="T40" t="n">
-        <v>0.007045600924551954</v>
+        <v>0.02247383768061668</v>
       </c>
       <c r="U40" t="n">
-        <v>0.001700778841013275</v>
+        <v>0.007552975922443089</v>
       </c>
       <c r="V40" t="n">
-        <v>0.06355549720435015</v>
+        <v>0.0505911772348589</v>
       </c>
       <c r="W40" t="n">
-        <v>0.07069519441647916</v>
+        <v>0.008866151199220152</v>
       </c>
       <c r="X40" t="n">
-        <v>0.03053869822236192</v>
+        <v>0.07125428003565322</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.0438095698393364</v>
+        <v>0.07989558109964136</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.06716005713368585</v>
+        <v>0.07571519028290545</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.04279976993065978</v>
+        <v>0.07695083369808119</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.0482256557084666</v>
+        <v>0.01961697267553898</v>
       </c>
       <c r="AC40" t="n">
-        <v>-0.001755392655731389</v>
+        <v>-0.01861277774443698</v>
       </c>
     </row>
     <row r="41">
@@ -4296,79 +4296,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1.087141317423701</v>
+        <v>0.2516024298229884</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08203714281076835</v>
+        <v>0.06874424968478787</v>
       </c>
       <c r="G41" t="n">
-        <v>0.001802135903613799</v>
+        <v>0.01597593994440343</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02286150630051855</v>
+        <v>0.08853273679363655</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02219796588891356</v>
+        <v>0.09063711382615802</v>
       </c>
       <c r="J41" t="n">
-        <v>0.04172545144518642</v>
+        <v>0.08180504071515285</v>
       </c>
       <c r="K41" t="n">
-        <v>0.06680677317361064</v>
+        <v>0.08886033540181165</v>
       </c>
       <c r="L41" t="n">
-        <v>0.04872446994553904</v>
+        <v>0.007647432110280655</v>
       </c>
       <c r="M41" t="n">
-        <v>0.108675238607033</v>
+        <v>0.03111774996903858</v>
       </c>
       <c r="N41" t="n">
-        <v>0.01122670385864533</v>
+        <v>0.04473764283047962</v>
       </c>
       <c r="O41" t="n">
-        <v>0.05118357181453567</v>
+        <v>0.01440976410084462</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0112398049209683</v>
+        <v>0.06315423581931887</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01019401688167643</v>
+        <v>0.02525087146467233</v>
       </c>
       <c r="R41" t="n">
-        <v>0.02313070182903344</v>
+        <v>0.03755514253489692</v>
       </c>
       <c r="S41" t="n">
-        <v>0.03839581793643091</v>
+        <v>0.01838585878247138</v>
       </c>
       <c r="T41" t="n">
-        <v>0.002245840282841505</v>
+        <v>0.0006819168182516354</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1117077724272735</v>
+        <v>0.009392980871659486</v>
       </c>
       <c r="V41" t="n">
-        <v>0.02530884823343701</v>
+        <v>0.004077312423044652</v>
       </c>
       <c r="W41" t="n">
-        <v>0.07421603550167204</v>
+        <v>0.08357832343161346</v>
       </c>
       <c r="X41" t="n">
-        <v>0.03342073342029612</v>
+        <v>0.04075715213830801</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.03655932467488616</v>
+        <v>0.04014432667939299</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.09615770560027358</v>
+        <v>0.05225258344893251</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.05773924735627534</v>
+        <v>0.03745859351515597</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.02244319118657142</v>
+        <v>0.05484269669568789</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.03052246486384081</v>
+        <v>0.01002141067191119</v>
       </c>
     </row>
     <row r="42">
@@ -4391,79 +4391,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2096773303683666</v>
+        <v>0.2124657805600835</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03985874981843887</v>
+        <v>0.1106812750771182</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04662115233563489</v>
+        <v>0.02023200426338879</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01213220348204381</v>
+        <v>0.0688415498193235</v>
       </c>
       <c r="I42" t="n">
-        <v>0.07034185465684208</v>
+        <v>0.04480894935353551</v>
       </c>
       <c r="J42" t="n">
-        <v>0.04767982773867609</v>
+        <v>0.09740194101066858</v>
       </c>
       <c r="K42" t="n">
-        <v>0.003832593508470356</v>
+        <v>0.00550674461683995</v>
       </c>
       <c r="L42" t="n">
-        <v>0.001606226303620601</v>
+        <v>0.002798544506969839</v>
       </c>
       <c r="M42" t="n">
-        <v>0.05508986886244966</v>
+        <v>0.02583397516426031</v>
       </c>
       <c r="N42" t="n">
-        <v>0.04262189081154008</v>
+        <v>0.01555398084287099</v>
       </c>
       <c r="O42" t="n">
-        <v>0.005208494368760624</v>
+        <v>0.01984640459638258</v>
       </c>
       <c r="P42" t="n">
-        <v>0.05778497927232582</v>
+        <v>0.06042715634159074</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.07723842675869289</v>
+        <v>0.09419306674306585</v>
       </c>
       <c r="R42" t="n">
-        <v>0.09247080393672698</v>
+        <v>0.06232277886621502</v>
       </c>
       <c r="S42" t="n">
-        <v>0.06579087428324033</v>
+        <v>0.09388463471792169</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0630598418925253</v>
+        <v>0.06278706468300252</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01318428022275039</v>
+        <v>0.02158640461534111</v>
       </c>
       <c r="V42" t="n">
-        <v>0.02074513332797916</v>
+        <v>0.005426251089936421</v>
       </c>
       <c r="W42" t="n">
-        <v>0.07247865648447031</v>
+        <v>0.07213668504793722</v>
       </c>
       <c r="X42" t="n">
-        <v>0.06280861551293854</v>
+        <v>0.01699637514199913</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.04721470832811038</v>
+        <v>0.005063628617180513</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.08394862071612415</v>
+        <v>0.02313383489282286</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.006272754674216455</v>
+        <v>0.07018769748937267</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.01200944270342244</v>
+        <v>0.0003490525022561483</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.1289266584298991</v>
+        <v>0.1372330581743312</v>
       </c>
     </row>
     <row r="43">
@@ -4486,79 +4486,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.6102402494989445</v>
+        <v>0.2619177781620449</v>
       </c>
       <c r="F43" t="n">
-        <v>0.06377159813677313</v>
+        <v>0.01020517323348629</v>
       </c>
       <c r="G43" t="n">
-        <v>0.09255251589761813</v>
+        <v>1.11541195484283e-05</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01519529552787159</v>
+        <v>0.08076839528182678</v>
       </c>
       <c r="I43" t="n">
-        <v>0.04702869579635899</v>
+        <v>0.110681893468209</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0571118210699209</v>
+        <v>0.01511008156180183</v>
       </c>
       <c r="K43" t="n">
-        <v>0.006809388597704618</v>
+        <v>0.03991020487528725</v>
       </c>
       <c r="L43" t="n">
-        <v>0.09780821269417313</v>
+        <v>0.007640208370794648</v>
       </c>
       <c r="M43" t="n">
-        <v>0.01440233771655671</v>
+        <v>0.001954651060806331</v>
       </c>
       <c r="N43" t="n">
-        <v>0.01097523661016342</v>
+        <v>0.006392675809097988</v>
       </c>
       <c r="O43" t="n">
-        <v>0.003557512568729554</v>
+        <v>0.04091271541006859</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0555081365169199</v>
+        <v>0.1054152927914799</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.02200186979368419</v>
+        <v>0.01673638057997603</v>
       </c>
       <c r="R43" t="n">
-        <v>0.02092144879314221</v>
+        <v>0.03394222258145248</v>
       </c>
       <c r="S43" t="n">
-        <v>0.03148200597677103</v>
+        <v>0.06623933670825966</v>
       </c>
       <c r="T43" t="n">
-        <v>0.04763926738118227</v>
+        <v>0.02158373328883833</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02197551524330913</v>
+        <v>0.1096587717345515</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0270195003594158</v>
+        <v>0.004437018539195657</v>
       </c>
       <c r="W43" t="n">
-        <v>0.09011270988126281</v>
+        <v>0.09888517440576036</v>
       </c>
       <c r="X43" t="n">
-        <v>0.02994147605226326</v>
+        <v>0.09450777141825982</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.08860702398810247</v>
+        <v>0.006725566016909761</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.103348279035931</v>
+        <v>0.04622562174777679</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.05197216803197612</v>
+        <v>0.04206013931167146</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.0002579843301693887</v>
+        <v>0.03999581768494095</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.1494987561138102</v>
+        <v>0.1552402280172432</v>
       </c>
     </row>
     <row r="44">
@@ -4581,79 +4581,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1902473800676793</v>
+        <v>0.190061257428341</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00277180531703385</v>
+        <v>0.01919358561771163</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04866835004577667</v>
+        <v>0.001534462491881154</v>
       </c>
       <c r="H44" t="n">
-        <v>0.05876590183864973</v>
+        <v>0.006099489965793665</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01968254123704634</v>
+        <v>0.03497961560210433</v>
       </c>
       <c r="J44" t="n">
-        <v>0.05070681896815056</v>
+        <v>0.02963078077360638</v>
       </c>
       <c r="K44" t="n">
-        <v>0.01547481121922203</v>
+        <v>0.009294596427013859</v>
       </c>
       <c r="L44" t="n">
-        <v>0.004956717467721617</v>
+        <v>0.01105260139284734</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04644241500696834</v>
+        <v>0.0492088373675586</v>
       </c>
       <c r="N44" t="n">
-        <v>0.06827267024821188</v>
+        <v>0.07980803902227138</v>
       </c>
       <c r="O44" t="n">
-        <v>0.03632675532780924</v>
+        <v>0.04834626799354064</v>
       </c>
       <c r="P44" t="n">
-        <v>0.07550852310509279</v>
+        <v>0.03572226782792642</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.04249033854152304</v>
+        <v>0.08485001560205917</v>
       </c>
       <c r="R44" t="n">
-        <v>0.07437929350662346</v>
+        <v>0.09306629178194192</v>
       </c>
       <c r="S44" t="n">
-        <v>0.03571983226964862</v>
+        <v>0.03864550248087123</v>
       </c>
       <c r="T44" t="n">
-        <v>0.06841513471494128</v>
+        <v>0.0447310931755992</v>
       </c>
       <c r="U44" t="n">
-        <v>0.007817909992818365</v>
+        <v>0.0003522310733013423</v>
       </c>
       <c r="V44" t="n">
-        <v>0.002572370839663858</v>
+        <v>0.05173495465938915</v>
       </c>
       <c r="W44" t="n">
-        <v>0.07998032770096983</v>
+        <v>0.1034485520739125</v>
       </c>
       <c r="X44" t="n">
-        <v>0.00673567226781952</v>
+        <v>0.001302020731226593</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.05284546245947326</v>
+        <v>0.03568846287696298</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.07340189590359217</v>
+        <v>0.08004149150676423</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.05185072872759366</v>
+        <v>0.09183862899998405</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.07621372329364989</v>
+        <v>0.0494302105557323</v>
       </c>
       <c r="AC44" t="n">
-        <v>-0.001494510762795267</v>
+        <v>-0.01033823828573436</v>
       </c>
     </row>
     <row r="45">
@@ -4676,79 +4676,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.5395576336402835</v>
+        <v>0.2222924627796296</v>
       </c>
       <c r="F45" t="n">
-        <v>0.06727546821177618</v>
+        <v>0.04028616197013817</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05403844829021532</v>
+        <v>0.06891551199074912</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0008176653328074589</v>
+        <v>0.05700382014535344</v>
       </c>
       <c r="I45" t="n">
-        <v>0.003441089183608616</v>
+        <v>0.03201056294617736</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01905003049772472</v>
+        <v>0.003198918002242218</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1000682311904871</v>
+        <v>0.0893037001156296</v>
       </c>
       <c r="L45" t="n">
-        <v>0.001324098923066105</v>
+        <v>0.0338508220920331</v>
       </c>
       <c r="M45" t="n">
-        <v>0.04469430633222592</v>
+        <v>0.09112794829611261</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0009566193983234317</v>
+        <v>0.0283636963319772</v>
       </c>
       <c r="O45" t="n">
-        <v>0.0373128757530302</v>
+        <v>0.03847265539059326</v>
       </c>
       <c r="P45" t="n">
-        <v>0.004929526899599935</v>
+        <v>0.08953227016724209</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.02057795371129578</v>
+        <v>0.01903199356608939</v>
       </c>
       <c r="R45" t="n">
-        <v>0.01719938705532334</v>
+        <v>0.06992865148323595</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1069908933588789</v>
+        <v>0.08015229269267432</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1040205615034042</v>
+        <v>0.01537474077450299</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1056620511875299</v>
+        <v>0.0428992044346528</v>
       </c>
       <c r="V45" t="n">
-        <v>0.02859949467463834</v>
+        <v>0.08718210843536514</v>
       </c>
       <c r="W45" t="n">
-        <v>0.009864654586539</v>
+        <v>0.005094941853510583</v>
       </c>
       <c r="X45" t="n">
-        <v>0.02214104220354935</v>
+        <v>0.01683617446287594</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1028795175832589</v>
+        <v>0.01138131592321494</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.052800798942691</v>
+        <v>0.0007416908869543194</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.08966814674454787</v>
+        <v>0.04838331558345359</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.005687138435478348</v>
+        <v>0.03092750245522187</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.00404352435017862</v>
+        <v>-0.001141843211105237</v>
       </c>
     </row>
     <row r="46">
@@ -4771,79 +4771,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1559444314254955</v>
+        <v>0.1620845703037253</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07559025781577092</v>
+        <v>0.06650980482960654</v>
       </c>
       <c r="G46" t="n">
-        <v>0.009377074873980635</v>
+        <v>0.08360341153604615</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0829613259827352</v>
+        <v>0.06622846823569421</v>
       </c>
       <c r="I46" t="n">
-        <v>0.01111782354421262</v>
+        <v>0.02698545381770184</v>
       </c>
       <c r="J46" t="n">
-        <v>0.02612753828794583</v>
+        <v>0.0419883319958481</v>
       </c>
       <c r="K46" t="n">
-        <v>0.03148509147836478</v>
+        <v>0.02856531053033852</v>
       </c>
       <c r="L46" t="n">
-        <v>0.05520702831374405</v>
+        <v>0.005851540517604111</v>
       </c>
       <c r="M46" t="n">
-        <v>0.04120685464959156</v>
+        <v>0.07351192841920222</v>
       </c>
       <c r="N46" t="n">
-        <v>0.003224508820978031</v>
+        <v>0.01534626321210509</v>
       </c>
       <c r="O46" t="n">
-        <v>0.03398629676882053</v>
+        <v>0.006722059868702269</v>
       </c>
       <c r="P46" t="n">
-        <v>0.04557951366194262</v>
+        <v>0.007626172351133778</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.06209145429965073</v>
+        <v>0.08775118544614395</v>
       </c>
       <c r="R46" t="n">
-        <v>0.08337291082806045</v>
+        <v>0.0679074417827954</v>
       </c>
       <c r="S46" t="n">
-        <v>0.096164136178464</v>
+        <v>0.0763100444628815</v>
       </c>
       <c r="T46" t="n">
-        <v>0.09711688451911532</v>
+        <v>0.07625645719109327</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07861172040294084</v>
+        <v>0.03326875239492801</v>
       </c>
       <c r="V46" t="n">
-        <v>0.001365192898245257</v>
+        <v>0.007127380126154188</v>
       </c>
       <c r="W46" t="n">
-        <v>0.01101625942802813</v>
+        <v>0.03732702153281374</v>
       </c>
       <c r="X46" t="n">
-        <v>0.002964177531851559</v>
+        <v>0.04849636464486214</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.03604745505214747</v>
+        <v>0.05816320365551855</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.02102881043088264</v>
+        <v>0.05337205863492699</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.06161565611700154</v>
+        <v>0.03010430791444675</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.03274202811552532</v>
+        <v>0.0009770368994527654</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.02747829481516197</v>
+        <v>-0.004306320902857896</v>
       </c>
     </row>
     <row r="47">
@@ -4866,79 +4866,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1993252399343835</v>
+        <v>0.1740850985565255</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01736010644363729</v>
+        <v>0.01812441014093783</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0346394413646492</v>
+        <v>0.08193641832340882</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04428564622243766</v>
+        <v>0.05617665262920549</v>
       </c>
       <c r="I47" t="n">
-        <v>0.06766242896691678</v>
+        <v>0.07035658800123171</v>
       </c>
       <c r="J47" t="n">
-        <v>0.009916563917066797</v>
+        <v>0.01828773459719728</v>
       </c>
       <c r="K47" t="n">
-        <v>0.1110280342334441</v>
+        <v>0.09893429997847639</v>
       </c>
       <c r="L47" t="n">
-        <v>0.04481224938648133</v>
+        <v>0.001880358119246451</v>
       </c>
       <c r="M47" t="n">
-        <v>0.08192006708553996</v>
+        <v>0.04355568505522468</v>
       </c>
       <c r="N47" t="n">
-        <v>0.02236252841063119</v>
+        <v>0.0004547785871728504</v>
       </c>
       <c r="O47" t="n">
-        <v>0.06797023365836453</v>
+        <v>0.06312272706014029</v>
       </c>
       <c r="P47" t="n">
-        <v>0.09450407734775858</v>
+        <v>0.03812241600292988</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.008409769422138285</v>
+        <v>0.006589924693693837</v>
       </c>
       <c r="R47" t="n">
-        <v>0.0206742897691954</v>
+        <v>0.07374902970217445</v>
       </c>
       <c r="S47" t="n">
-        <v>0.1048196027064514</v>
+        <v>0.06675901987218653</v>
       </c>
       <c r="T47" t="n">
-        <v>0.002282037389350752</v>
+        <v>0.02945477553903858</v>
       </c>
       <c r="U47" t="n">
-        <v>0.01586700250322881</v>
+        <v>0.0773196624150126</v>
       </c>
       <c r="V47" t="n">
-        <v>0.1219864205428552</v>
+        <v>0.08415873622461204</v>
       </c>
       <c r="W47" t="n">
-        <v>0.03263120822165633</v>
+        <v>0.002237614567534436</v>
       </c>
       <c r="X47" t="n">
-        <v>0.04742293663517892</v>
+        <v>0.02017370165386549</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.00461227965950913</v>
+        <v>0.07052013486912025</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.006003359277400902</v>
+        <v>0.03375622405241669</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.0361101883847058</v>
+        <v>0.02550212819088312</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.002719528451401681</v>
+        <v>0.01882697972429028</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.005188237060141277</v>
+        <v>0.007219883499418782</v>
       </c>
     </row>
     <row r="48">
@@ -4961,79 +4961,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1265174179473477</v>
+        <v>0.1270813879585743</v>
       </c>
       <c r="F48" t="n">
-        <v>0.03909534870473877</v>
+        <v>0.04756803564108219</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03467545383918445</v>
+        <v>0.06393428045605047</v>
       </c>
       <c r="H48" t="n">
-        <v>0.005216948616068292</v>
+        <v>0.04191565979116302</v>
       </c>
       <c r="I48" t="n">
-        <v>0.08091717565014511</v>
+        <v>0.07799273603483274</v>
       </c>
       <c r="J48" t="n">
-        <v>0.001245584871086186</v>
+        <v>0.006724530223021925</v>
       </c>
       <c r="K48" t="n">
-        <v>0.001635361986514388</v>
+        <v>0.0008105828969763838</v>
       </c>
       <c r="L48" t="n">
-        <v>0.00239042613572666</v>
+        <v>0.01536763801017963</v>
       </c>
       <c r="M48" t="n">
-        <v>0.03838905322321253</v>
+        <v>0.06954425614421339</v>
       </c>
       <c r="N48" t="n">
-        <v>0.03342549909374273</v>
+        <v>0.0180428951750581</v>
       </c>
       <c r="O48" t="n">
-        <v>0.03734057527004691</v>
+        <v>0.04509325063633485</v>
       </c>
       <c r="P48" t="n">
-        <v>0.05580139388192205</v>
+        <v>0.06227906333985053</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.08054917127926826</v>
+        <v>0.06792817114121824</v>
       </c>
       <c r="R48" t="n">
-        <v>0.07171351324062945</v>
+        <v>0.0855854670035973</v>
       </c>
       <c r="S48" t="n">
-        <v>0.08324283477041629</v>
+        <v>0.08613919276001222</v>
       </c>
       <c r="T48" t="n">
-        <v>0.02235155203055698</v>
+        <v>0.0286309755218029</v>
       </c>
       <c r="U48" t="n">
-        <v>0.08546305110863496</v>
+        <v>0.03160192046610814</v>
       </c>
       <c r="V48" t="n">
-        <v>0.0341041085047636</v>
+        <v>0.006776784474816595</v>
       </c>
       <c r="W48" t="n">
-        <v>0.05954098330514323</v>
+        <v>0.06599369217746558</v>
       </c>
       <c r="X48" t="n">
-        <v>0.05442028313634962</v>
+        <v>0.05198225232226949</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.04411604900646583</v>
+        <v>0.02744276975010026</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.06343807607602368</v>
+        <v>0.02240722071147763</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.02117250067550985</v>
+        <v>0.07088196739594858</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.04975505559385023</v>
+        <v>0.005356657926419847</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.06605263008404766</v>
+        <v>0.06565243419680943</v>
       </c>
     </row>
     <row r="49">
@@ -5056,79 +5056,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1564125053042748</v>
+        <v>0.1487350238570773</v>
       </c>
       <c r="F49" t="n">
-        <v>0.06991303516377986</v>
+        <v>0.051828729823096</v>
       </c>
       <c r="G49" t="n">
-        <v>0.009043639214486296</v>
+        <v>0.02074167942991729</v>
       </c>
       <c r="H49" t="n">
-        <v>0.004507698471728354</v>
+        <v>0.01901882535373202</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1337907512243838</v>
+        <v>0.06369088609747557</v>
       </c>
       <c r="J49" t="n">
-        <v>0.003891749122559768</v>
+        <v>0.05144961528826444</v>
       </c>
       <c r="K49" t="n">
-        <v>0.09213083438949014</v>
+        <v>0.06549559911681144</v>
       </c>
       <c r="L49" t="n">
-        <v>0.009809311771600803</v>
+        <v>0.0211269189650113</v>
       </c>
       <c r="M49" t="n">
-        <v>0.01987469182373921</v>
+        <v>0.03237601258954077</v>
       </c>
       <c r="N49" t="n">
-        <v>0.01793770094789705</v>
+        <v>0.003679526077730362</v>
       </c>
       <c r="O49" t="n">
-        <v>0.135692593201778</v>
+        <v>0.06566735256181573</v>
       </c>
       <c r="P49" t="n">
-        <v>0.1332374057800794</v>
+        <v>0.08934750564820793</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.0487716480000264</v>
+        <v>0.02368702772372229</v>
       </c>
       <c r="R49" t="n">
-        <v>0.05810019800213363</v>
+        <v>0.04259961323005192</v>
       </c>
       <c r="S49" t="n">
-        <v>0.004971223848470422</v>
+        <v>0.02633236569441185</v>
       </c>
       <c r="T49" t="n">
-        <v>0.009553497582169411</v>
+        <v>0.04282818217315474</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0005676667789259139</v>
+        <v>0.07321956663737812</v>
       </c>
       <c r="V49" t="n">
-        <v>0.001061055981531973</v>
+        <v>0.08283677650271171</v>
       </c>
       <c r="W49" t="n">
-        <v>0.002424852223943571</v>
+        <v>0.06672138006390639</v>
       </c>
       <c r="X49" t="n">
-        <v>0.03918730356214345</v>
+        <v>0.06951997702997312</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.005152550895630353</v>
+        <v>0.01377543876754413</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.02080343579220452</v>
+        <v>0.007136331342037918</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.1219680084580176</v>
+        <v>0.0425573294950604</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.05760914776328013</v>
+        <v>0.02436336038844446</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.06842467974841773</v>
+        <v>0.06981191757370239</v>
       </c>
     </row>
     <row r="50">
@@ -5151,79 +5151,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1721006389960774</v>
+        <v>0.1664542234112235</v>
       </c>
       <c r="F50" t="n">
-        <v>0.05657009651543461</v>
+        <v>0.06130021241866934</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04639164324602071</v>
+        <v>0.03093411233581456</v>
       </c>
       <c r="H50" t="n">
-        <v>0.05791942629568564</v>
+        <v>0.06328946814762079</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01147761865922458</v>
+        <v>0.00323317779623638</v>
       </c>
       <c r="J50" t="n">
-        <v>0.009435372366484963</v>
+        <v>0.0703407939710229</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0505677708587198</v>
+        <v>0.05916139212764105</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0556242476179066</v>
+        <v>0.01770575610791754</v>
       </c>
       <c r="M50" t="n">
-        <v>0.07261350287085717</v>
+        <v>0.05370801955236312</v>
       </c>
       <c r="N50" t="n">
-        <v>0.07014502749680793</v>
+        <v>0.01075556991494972</v>
       </c>
       <c r="O50" t="n">
-        <v>0.01515800376574872</v>
+        <v>0.0317967950307349</v>
       </c>
       <c r="P50" t="n">
-        <v>0.01617471958719323</v>
+        <v>0.002133675218000712</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.04821117395130587</v>
+        <v>0.01318005540504443</v>
       </c>
       <c r="R50" t="n">
-        <v>0.0005341494356708971</v>
+        <v>0.01275154387328213</v>
       </c>
       <c r="S50" t="n">
-        <v>0.005203885261135997</v>
+        <v>0.001232712041030522</v>
       </c>
       <c r="T50" t="n">
-        <v>0.07076230345227592</v>
+        <v>0.07101990706485367</v>
       </c>
       <c r="U50" t="n">
-        <v>0.02869415156656271</v>
+        <v>0.09728063677353142</v>
       </c>
       <c r="V50" t="n">
-        <v>0.05465091010906935</v>
+        <v>0.007720614451567582</v>
       </c>
       <c r="W50" t="n">
-        <v>0.02094410284893748</v>
+        <v>0.04404348125445774</v>
       </c>
       <c r="X50" t="n">
-        <v>0.07778446202568381</v>
+        <v>0.07421736758309587</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.06763608632644053</v>
+        <v>0.04296435412383096</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.05963766235552751</v>
+        <v>0.08593353772313587</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.04539574494920095</v>
+        <v>0.04293531001276302</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.05846793843810495</v>
+        <v>0.102361507072436</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.1427981168115234</v>
+        <v>0.1613328051572005</v>
       </c>
     </row>
     <row r="51">
@@ -5246,79 +5246,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.4612588368482596</v>
+        <v>0.6827390045990612</v>
       </c>
       <c r="F51" t="n">
-        <v>0.05080754513965993</v>
+        <v>0.05410902965735543</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02800015153814911</v>
+        <v>0.01818719789676772</v>
       </c>
       <c r="H51" t="n">
-        <v>0.05700416829053074</v>
+        <v>0.0391190213138862</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1307806693289405</v>
+        <v>0.08630080443023362</v>
       </c>
       <c r="J51" t="n">
-        <v>0.009718084748098828</v>
+        <v>0.03748452296644179</v>
       </c>
       <c r="K51" t="n">
-        <v>0.03989349178088182</v>
+        <v>0.06236172217242907</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0719230759735478</v>
+        <v>0.02074133068083298</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0127418957113703</v>
+        <v>0.01265056421815108</v>
       </c>
       <c r="N51" t="n">
-        <v>0.005463097973284921</v>
+        <v>0.001550189541626047</v>
       </c>
       <c r="O51" t="n">
-        <v>0.01550453586735981</v>
+        <v>0.1115378541968351</v>
       </c>
       <c r="P51" t="n">
-        <v>0.02429025410097981</v>
+        <v>0.01310307522853829</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.01428914627905094</v>
+        <v>0.01815779367631716</v>
       </c>
       <c r="R51" t="n">
-        <v>0.0175283202601523</v>
+        <v>0.06987398738298561</v>
       </c>
       <c r="S51" t="n">
-        <v>0.01016995525342492</v>
+        <v>0.1062414506736123</v>
       </c>
       <c r="T51" t="n">
-        <v>0.04130434372995598</v>
+        <v>0.06768555017214213</v>
       </c>
       <c r="U51" t="n">
-        <v>0.02625906166848761</v>
+        <v>0.02544520691880284</v>
       </c>
       <c r="V51" t="n">
-        <v>0.1169993126755371</v>
+        <v>0.0903352617512803</v>
       </c>
       <c r="W51" t="n">
-        <v>0.006695632285409586</v>
+        <v>0.03686549799914562</v>
       </c>
       <c r="X51" t="n">
-        <v>0.03123196823250679</v>
+        <v>0.05445134837842163</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.06959343110056213</v>
+        <v>0.05005846113501378</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.1207606927011243</v>
+        <v>0.001885477944973479</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.09447236966277368</v>
+        <v>0.02157128914438516</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.00456879569821101</v>
+        <v>0.0002833625198229016</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1400383794659987</v>
+        <v>0.153986857388395</v>
       </c>
     </row>
     <row r="52">
@@ -5341,79 +5341,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.3275735260828835</v>
+        <v>0.2607735390557893</v>
       </c>
       <c r="F52" t="n">
-        <v>0.03434691782129043</v>
+        <v>0.1070575452475818</v>
       </c>
       <c r="G52" t="n">
-        <v>0.006376414987128444</v>
+        <v>0.000356359647741752</v>
       </c>
       <c r="H52" t="n">
-        <v>0.03819368125018289</v>
+        <v>0.02104960114260343</v>
       </c>
       <c r="I52" t="n">
-        <v>0.02353628719039426</v>
+        <v>0.0410349230423119</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0584892687941337</v>
+        <v>0.07994055071232871</v>
       </c>
       <c r="K52" t="n">
-        <v>0.06766461009955312</v>
+        <v>0.04930776292621042</v>
       </c>
       <c r="L52" t="n">
-        <v>0.01846982152038944</v>
+        <v>0.01840851861429923</v>
       </c>
       <c r="M52" t="n">
-        <v>0.09453149739086919</v>
+        <v>0.0657785298956689</v>
       </c>
       <c r="N52" t="n">
-        <v>0.04721507038965166</v>
+        <v>0.09884581133606594</v>
       </c>
       <c r="O52" t="n">
-        <v>0.05183919953871639</v>
+        <v>0.08013944070532888</v>
       </c>
       <c r="P52" t="n">
-        <v>0.07728159406874238</v>
+        <v>0.01490899790878226</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.09450898093811753</v>
+        <v>0.008958013910077535</v>
       </c>
       <c r="R52" t="n">
-        <v>0.01863127052179285</v>
+        <v>0.005998142419466678</v>
       </c>
       <c r="S52" t="n">
-        <v>0.01795504495222334</v>
+        <v>0.008144284412233124</v>
       </c>
       <c r="T52" t="n">
-        <v>0.03746227951221459</v>
+        <v>0.04858283600196328</v>
       </c>
       <c r="U52" t="n">
-        <v>0.0495915973160822</v>
+        <v>0.1187856416125671</v>
       </c>
       <c r="V52" t="n">
-        <v>0.09579372388510683</v>
+        <v>0.02168558862074459</v>
       </c>
       <c r="W52" t="n">
-        <v>0.0006082828838406336</v>
+        <v>0.007988946035215164</v>
       </c>
       <c r="X52" t="n">
-        <v>0.04200986376170967</v>
+        <v>0.00422598198423335</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.02418068145280378</v>
+        <v>0.0611627421947368</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.006843343462486877</v>
+        <v>0.0002636765345069648</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.01617011182748826</v>
+        <v>0.09177900013856337</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.07830045643508139</v>
+        <v>0.04559710495676851</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.1752230513571305</v>
+        <v>-0.1756340647636075</v>
       </c>
     </row>
     <row r="53">
@@ -5436,79 +5436,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.7271382887447865</v>
+        <v>0.3292316164268874</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002054496656555555</v>
+        <v>0.0878221522015683</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1247431543509998</v>
+        <v>0.03249307620098673</v>
       </c>
       <c r="H53" t="n">
-        <v>0.02176984122633213</v>
+        <v>0.007356655213012691</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0277020740340068</v>
+        <v>0.04282497122576282</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1376160164603992</v>
+        <v>0.06326641356611849</v>
       </c>
       <c r="K53" t="n">
-        <v>0.01776293572417588</v>
+        <v>0.02234062713644329</v>
       </c>
       <c r="L53" t="n">
-        <v>0.1115920249010691</v>
+        <v>0.04943435392090498</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0748425294606879</v>
+        <v>0.01888896754785648</v>
       </c>
       <c r="N53" t="n">
-        <v>0.05281490616845918</v>
+        <v>0.005357974036839066</v>
       </c>
       <c r="O53" t="n">
-        <v>0.03672296089294463</v>
+        <v>0.02364976137779998</v>
       </c>
       <c r="P53" t="n">
-        <v>0.1268406144884308</v>
+        <v>0.1119874348166795</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.01603886918690375</v>
+        <v>0.02142902820893349</v>
       </c>
       <c r="R53" t="n">
-        <v>0.009858555776480657</v>
+        <v>2.050117763245676e-05</v>
       </c>
       <c r="S53" t="n">
-        <v>0.04357956254709838</v>
+        <v>0.06458169510595782</v>
       </c>
       <c r="T53" t="n">
-        <v>0.06071339578999076</v>
+        <v>0.110824793746416</v>
       </c>
       <c r="U53" t="n">
-        <v>0.05366466239110081</v>
+        <v>0.1145223163327437</v>
       </c>
       <c r="V53" t="n">
-        <v>0.0224382865007562</v>
+        <v>0.05714496127518242</v>
       </c>
       <c r="W53" t="n">
-        <v>0.01206332783634053</v>
+        <v>0.009139671320367604</v>
       </c>
       <c r="X53" t="n">
-        <v>0.03133098436439511</v>
+        <v>0.08547149980648716</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.005403651784893406</v>
+        <v>0.01979948019987759</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.002596046325076305</v>
+        <v>0.008521297197972618</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.002492336865582092</v>
+        <v>0.02874536660730184</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.005358766267321087</v>
+        <v>0.01437700177715507</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.144913957043227</v>
+        <v>-0.1369436714253742</v>
       </c>
     </row>
     <row r="54">
@@ -5531,79 +5531,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1651598852025603</v>
+        <v>0.16397564190802</v>
       </c>
       <c r="F54" t="n">
-        <v>0.07467982746023873</v>
+        <v>0.07986067232573746</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07192196449139909</v>
+        <v>0.05577840292885516</v>
       </c>
       <c r="H54" t="n">
-        <v>0.05436402118431464</v>
+        <v>0.002249458780415758</v>
       </c>
       <c r="I54" t="n">
-        <v>0.03819384941207558</v>
+        <v>0.04680447927860035</v>
       </c>
       <c r="J54" t="n">
-        <v>0.006300321412536633</v>
+        <v>0.001552906009892236</v>
       </c>
       <c r="K54" t="n">
-        <v>0.03487726086119058</v>
+        <v>0.005045190714762985</v>
       </c>
       <c r="L54" t="n">
-        <v>0.004223260588039119</v>
+        <v>0.006344467179742907</v>
       </c>
       <c r="M54" t="n">
-        <v>0.02438452326176025</v>
+        <v>0.03630732278152152</v>
       </c>
       <c r="N54" t="n">
-        <v>0.02896023321320488</v>
+        <v>0.0316828737863445</v>
       </c>
       <c r="O54" t="n">
-        <v>0.05951030292209082</v>
+        <v>0.08905878985705444</v>
       </c>
       <c r="P54" t="n">
-        <v>0.04518553327414106</v>
+        <v>0.07559432511453802</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.07076378534326058</v>
+        <v>0.08618791756668795</v>
       </c>
       <c r="R54" t="n">
-        <v>0.06982584259346061</v>
+        <v>0.05300948048826128</v>
       </c>
       <c r="S54" t="n">
-        <v>0.02606952330128721</v>
+        <v>0.06579716161257169</v>
       </c>
       <c r="T54" t="n">
-        <v>0.03275427858065875</v>
+        <v>0.008168384439628845</v>
       </c>
       <c r="U54" t="n">
-        <v>0.05356305490848872</v>
+        <v>0.08243289144930227</v>
       </c>
       <c r="V54" t="n">
-        <v>0.05255666604904195</v>
+        <v>0.06082750013788703</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0036905441333501</v>
+        <v>0.005225907669148487</v>
       </c>
       <c r="X54" t="n">
-        <v>0.06772562913645261</v>
+        <v>0.05806394984100612</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.0225919897163108</v>
+        <v>0.0520419976453891</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.04386085002883297</v>
+        <v>0.01891408398244248</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.05160898849242415</v>
+        <v>0.04658733915228622</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.0623877496354401</v>
+        <v>0.03246449725792301</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.09126263002600364</v>
+        <v>0.08679391223018942</v>
       </c>
     </row>
     <row r="55">
@@ -5626,79 +5626,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.2587409962005723</v>
+        <v>0.2310769301203042</v>
       </c>
       <c r="F55" t="n">
-        <v>0.02950560915992342</v>
+        <v>0.001183830694064368</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09630572990457285</v>
+        <v>0.09565792117948585</v>
       </c>
       <c r="H55" t="n">
-        <v>0.002364924929802551</v>
+        <v>0.1022715909053713</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0008187575166941939</v>
+        <v>0.002567157511970575</v>
       </c>
       <c r="J55" t="n">
-        <v>0.01038644016121977</v>
+        <v>0.0467222047734932</v>
       </c>
       <c r="K55" t="n">
-        <v>0.02201389648764121</v>
+        <v>0.01424484139148884</v>
       </c>
       <c r="L55" t="n">
-        <v>0.05207617437283615</v>
+        <v>0.05758547696049572</v>
       </c>
       <c r="M55" t="n">
-        <v>0.07777469854299232</v>
+        <v>0.01304494640195661</v>
       </c>
       <c r="N55" t="n">
-        <v>0.005010378001577682</v>
+        <v>0.02622080903468495</v>
       </c>
       <c r="O55" t="n">
-        <v>0.02609336059378198</v>
+        <v>0.02105707928035554</v>
       </c>
       <c r="P55" t="n">
-        <v>0.07760097943451841</v>
+        <v>0.0005242590088543095</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.0155239023385764</v>
+        <v>0.007275784297571595</v>
       </c>
       <c r="R55" t="n">
-        <v>0.02762604597104358</v>
+        <v>0.009476533596635318</v>
       </c>
       <c r="S55" t="n">
-        <v>0.09529974461011177</v>
+        <v>0.08707669186777856</v>
       </c>
       <c r="T55" t="n">
-        <v>0.08648929547632644</v>
+        <v>0.09341918476445059</v>
       </c>
       <c r="U55" t="n">
-        <v>0.01071108614198027</v>
+        <v>0.07181558951464738</v>
       </c>
       <c r="V55" t="n">
-        <v>0.08223778564968624</v>
+        <v>0.09058569229583838</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1059986350760722</v>
+        <v>0.07359472062536682</v>
       </c>
       <c r="X55" t="n">
-        <v>0.06631367911124662</v>
+        <v>0.03966331211435781</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.02573925757606568</v>
+        <v>0.01828134238661812</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.04924448422013843</v>
+        <v>0.0533689869359874</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.002431760965555976</v>
+        <v>0.008999796869152121</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.03243337375763589</v>
+        <v>0.06536224758937473</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.1208028971734723</v>
+        <v>0.1018389553459934</v>
       </c>
     </row>
     <row r="56">
@@ -5721,79 +5721,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.1841884811085364</v>
+        <v>0.1808494744225957</v>
       </c>
       <c r="F56" t="n">
-        <v>0.06611222722428088</v>
+        <v>0.06379588265695843</v>
       </c>
       <c r="G56" t="n">
-        <v>0.09435775770191224</v>
+        <v>0.07508212745384313</v>
       </c>
       <c r="H56" t="n">
-        <v>0.003706049141837909</v>
+        <v>0.07284205530955289</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01941287045249829</v>
+        <v>0.02857541619074391</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0777431132347719</v>
+        <v>0.01863496779296918</v>
       </c>
       <c r="K56" t="n">
-        <v>0.01038467193345049</v>
+        <v>0.007449325563495815</v>
       </c>
       <c r="L56" t="n">
-        <v>0.006240994639919138</v>
+        <v>0.04531740159697698</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0677870494167027</v>
+        <v>0.07762542555672002</v>
       </c>
       <c r="N56" t="n">
-        <v>0.01614062485632416</v>
+        <v>0.008373550442254263</v>
       </c>
       <c r="O56" t="n">
-        <v>0.01660817017330397</v>
+        <v>0.06192173615070463</v>
       </c>
       <c r="P56" t="n">
-        <v>0.02707851288827038</v>
+        <v>0.003377595451159586</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.003211207429110853</v>
+        <v>0.03735900280459664</v>
       </c>
       <c r="R56" t="n">
-        <v>0.07906910208418876</v>
+        <v>0.07766291734307267</v>
       </c>
       <c r="S56" t="n">
-        <v>0.04035331390916158</v>
+        <v>0.03431231258299575</v>
       </c>
       <c r="T56" t="n">
-        <v>0.07058476793327827</v>
+        <v>0.04600274584278799</v>
       </c>
       <c r="U56" t="n">
-        <v>0.05210968796590939</v>
+        <v>0.07978876731218348</v>
       </c>
       <c r="V56" t="n">
-        <v>0.005281164932585082</v>
+        <v>0.01921305521381744</v>
       </c>
       <c r="W56" t="n">
-        <v>0.001491912759060918</v>
+        <v>0.004065572824598858</v>
       </c>
       <c r="X56" t="n">
-        <v>0.0970627518329535</v>
+        <v>0.08445700009011417</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.0361415351805516</v>
+        <v>0.01560105215210576</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.05830336506332631</v>
+        <v>0.03652719023741758</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.09275640099570327</v>
+        <v>0.06370231756134764</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.05806274825089869</v>
+        <v>0.03831258186958299</v>
       </c>
       <c r="AC56" t="n">
-        <v>-0.0073564917752215</v>
+        <v>-0.00248346515604142</v>
       </c>
     </row>
     <row r="57">
@@ -5816,79 +5816,79 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2019712286266767</v>
+        <v>0.1969283574759082</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08581703421300788</v>
+        <v>0.04458788150448859</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04462902764762094</v>
+        <v>0.03367781891133656</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0105030445745586</v>
+        <v>0.0460560987800301</v>
       </c>
       <c r="I57" t="n">
-        <v>0.06687010614842633</v>
+        <v>0.02775248021947651</v>
       </c>
       <c r="J57" t="n">
-        <v>0.03049040791090532</v>
+        <v>0.02054952801342579</v>
       </c>
       <c r="K57" t="n">
-        <v>0.02913325530901843</v>
+        <v>0.09197656200748057</v>
       </c>
       <c r="L57" t="n">
-        <v>0.01836579388634015</v>
+        <v>0.007873534983256221</v>
       </c>
       <c r="M57" t="n">
-        <v>0.08621502904801297</v>
+        <v>0.09348183289213645</v>
       </c>
       <c r="N57" t="n">
-        <v>0.07093029805891402</v>
+        <v>0.01022012184184964</v>
       </c>
       <c r="O57" t="n">
-        <v>0.02372493572735349</v>
+        <v>0.06619903502102788</v>
       </c>
       <c r="P57" t="n">
-        <v>0.08474980801142165</v>
+        <v>0.04598179123573926</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.01954207183155432</v>
+        <v>0.001697784309559353</v>
       </c>
       <c r="R57" t="n">
-        <v>0.003856877261849925</v>
+        <v>0.09270778305575529</v>
       </c>
       <c r="S57" t="n">
-        <v>0.08250249237733027</v>
+        <v>0.07184165856664963</v>
       </c>
       <c r="T57" t="n">
-        <v>0.07515294252822965</v>
+        <v>0.09668019014547405</v>
       </c>
       <c r="U57" t="n">
-        <v>0.01868189033919097</v>
+        <v>0.006733347887964495</v>
       </c>
       <c r="V57" t="n">
-        <v>0.09127427301317438</v>
+        <v>0.06049577787328962</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0003716956999918465</v>
+        <v>0.05112532199869197</v>
       </c>
       <c r="X57" t="n">
-        <v>0.02551531205684324</v>
+        <v>0.0175923912015893</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.005955846359030667</v>
+        <v>0.002344955942833554</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.03271922213023656</v>
+        <v>0.05787352316355832</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.07842849698232503</v>
+        <v>0.02039946979610608</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.01457013888466348</v>
+        <v>0.03215111064828083</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.02343193090678332</v>
+        <v>-0.017452310778663</v>
       </c>
     </row>
     <row r="58">
@@ -5911,79 +5911,79 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.1947322959675353</v>
+        <v>0.1939878070303958</v>
       </c>
       <c r="F58" t="n">
-        <v>0.02656065546564324</v>
+        <v>0.032113483377446</v>
       </c>
       <c r="G58" t="n">
-        <v>0.08598081686754908</v>
+        <v>0.08777795400518096</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04096772524924259</v>
+        <v>0.08275209132767461</v>
       </c>
       <c r="I58" t="n">
-        <v>0.05764491338125968</v>
+        <v>0.05968512468944329</v>
       </c>
       <c r="J58" t="n">
-        <v>0.006159913817698609</v>
+        <v>0.002351319363586317</v>
       </c>
       <c r="K58" t="n">
-        <v>0.06381300137415048</v>
+        <v>0.08769801189104696</v>
       </c>
       <c r="L58" t="n">
-        <v>0.03278560639652551</v>
+        <v>0.06343624215481815</v>
       </c>
       <c r="M58" t="n">
-        <v>0.06720827925225642</v>
+        <v>0.02172116651650681</v>
       </c>
       <c r="N58" t="n">
-        <v>0.01642504586940615</v>
+        <v>0.01100330350529382</v>
       </c>
       <c r="O58" t="n">
-        <v>0.0869781202901941</v>
+        <v>0.02455639375993975</v>
       </c>
       <c r="P58" t="n">
-        <v>0.0065324283087535</v>
+        <v>0.01130340592916159</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.04805206744440003</v>
+        <v>0.02114315576298559</v>
       </c>
       <c r="R58" t="n">
-        <v>0.09034791083474503</v>
+        <v>0.06374105732373896</v>
       </c>
       <c r="S58" t="n">
-        <v>0.006962482674527818</v>
+        <v>0.008761700064833603</v>
       </c>
       <c r="T58" t="n">
-        <v>0.05502997120411206</v>
+        <v>0.03631199953945122</v>
       </c>
       <c r="U58" t="n">
-        <v>0.05242434785887543</v>
+        <v>0.0947985503255136</v>
       </c>
       <c r="V58" t="n">
-        <v>0.01670222987987314</v>
+        <v>0.01603605021932365</v>
       </c>
       <c r="W58" t="n">
-        <v>0.08437781032464907</v>
+        <v>0.09983952944264365</v>
       </c>
       <c r="X58" t="n">
-        <v>0.06889695246436663</v>
+        <v>0.09425499157165369</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.006055269661108325</v>
+        <v>0.005256158538098669</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.002610045870521571</v>
+        <v>0.005052429735114565</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.06475964738023923</v>
+        <v>0.05604377730737181</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.01272475812990237</v>
+        <v>0.01436210364917259</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.03185962551019064</v>
+        <v>0.03663218986504747</v>
       </c>
     </row>
     <row r="59">
@@ -6006,79 +6006,79 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.2146188151740346</v>
+        <v>0.2082715771404261</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09602327314509891</v>
+        <v>0.08207968978415119</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02557741960199235</v>
+        <v>0.05906353763444783</v>
       </c>
       <c r="H59" t="n">
-        <v>0.04711559727908767</v>
+        <v>0.003813670416800331</v>
       </c>
       <c r="I59" t="n">
-        <v>0.01719142151595663</v>
+        <v>0.02373497810395476</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0445273484160517</v>
+        <v>0.002042064795586696</v>
       </c>
       <c r="K59" t="n">
-        <v>0.03657298856622945</v>
+        <v>0.0900017508070856</v>
       </c>
       <c r="L59" t="n">
-        <v>0.002306891090230181</v>
+        <v>0.01952724319902686</v>
       </c>
       <c r="M59" t="n">
-        <v>0.009364801532751018</v>
+        <v>0.008643981305538156</v>
       </c>
       <c r="N59" t="n">
-        <v>0.00452034614242256</v>
+        <v>0.005945467426218451</v>
       </c>
       <c r="O59" t="n">
-        <v>0.09203862384331364</v>
+        <v>0.05555034473639578</v>
       </c>
       <c r="P59" t="n">
-        <v>0.04696023295525225</v>
+        <v>0.03204953217778694</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.0005660642745359259</v>
+        <v>0.006762593336295613</v>
       </c>
       <c r="R59" t="n">
-        <v>0.09163759069396513</v>
+        <v>0.01529160653630842</v>
       </c>
       <c r="S59" t="n">
-        <v>0.08128631732254511</v>
+        <v>0.0890129825308552</v>
       </c>
       <c r="T59" t="n">
-        <v>0.09177050812176571</v>
+        <v>0.08529213477520398</v>
       </c>
       <c r="U59" t="n">
-        <v>0.02470080434300104</v>
+        <v>0.04159544575780555</v>
       </c>
       <c r="V59" t="n">
-        <v>0.08515075471402667</v>
+        <v>0.07797812967161556</v>
       </c>
       <c r="W59" t="n">
-        <v>0.08539062970446878</v>
+        <v>0.06771059652640089</v>
       </c>
       <c r="X59" t="n">
-        <v>0.03392627670343191</v>
+        <v>0.04384686472831317</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.002466215125778252</v>
+        <v>0.0005621479189871499</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.01434212901416701</v>
+        <v>0.07841820698741495</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.05876830239393824</v>
+        <v>0.05073684692343392</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.007795463499989776</v>
+        <v>0.06034018392037285</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.07433733047692882</v>
+        <v>0.06476903508343014</v>
       </c>
     </row>
     <row r="60">
@@ -6101,79 +6101,79 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.2112990241420752</v>
+        <v>0.2095953478486223</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0335349025007351</v>
+        <v>0.008109120129566981</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04400944900004858</v>
+        <v>0.1051424781647388</v>
       </c>
       <c r="H60" t="n">
-        <v>0.02785545969655645</v>
+        <v>0.07732907439875536</v>
       </c>
       <c r="I60" t="n">
-        <v>0.03254687075726311</v>
+        <v>0.01545091245981629</v>
       </c>
       <c r="J60" t="n">
-        <v>0.01968175770826678</v>
+        <v>0.01497261666483198</v>
       </c>
       <c r="K60" t="n">
-        <v>0.03191104544940387</v>
+        <v>0.03167062844897132</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0475111974636343</v>
+        <v>0.01621127007726659</v>
       </c>
       <c r="M60" t="n">
-        <v>0.06884742138284539</v>
+        <v>0.06713002769619157</v>
       </c>
       <c r="N60" t="n">
-        <v>0.001482397777698701</v>
+        <v>0.004277504766743253</v>
       </c>
       <c r="O60" t="n">
-        <v>0.07189417604373187</v>
+        <v>0.002765398128596318</v>
       </c>
       <c r="P60" t="n">
-        <v>0.05200414502600397</v>
+        <v>0.01697613406198272</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.0419792051546164</v>
+        <v>0.03282233697119513</v>
       </c>
       <c r="R60" t="n">
-        <v>0.03327306776742045</v>
+        <v>0.1127675998220523</v>
       </c>
       <c r="S60" t="n">
-        <v>0.02400885803117432</v>
+        <v>0.0253708684156412</v>
       </c>
       <c r="T60" t="n">
-        <v>0.02373331472508322</v>
+        <v>0.08239220750071137</v>
       </c>
       <c r="U60" t="n">
-        <v>0.0847278495632245</v>
+        <v>0.0720572969567983</v>
       </c>
       <c r="V60" t="n">
-        <v>0.00429191209405813</v>
+        <v>0.04017370469912199</v>
       </c>
       <c r="W60" t="n">
-        <v>0.06647312447199344</v>
+        <v>0.0157832236281415</v>
       </c>
       <c r="X60" t="n">
-        <v>0.09009268661234705</v>
+        <v>0.07715180066736289</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.002114416480175016</v>
+        <v>0.04712366527551489</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.09767296252975731</v>
+        <v>0.03991837887120701</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.0960665307697449</v>
+        <v>0.05416086419726535</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.004287248994217175</v>
+        <v>0.04024288799752692</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.06637762220727771</v>
+        <v>0.06454788501409114</v>
       </c>
     </row>
     <row r="61">
@@ -6196,79 +6196,79 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.2346707886165187</v>
+        <v>0.2762626714656016</v>
       </c>
       <c r="F61" t="n">
-        <v>0.05169404337202049</v>
+        <v>0.09195869420640441</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01552440293972328</v>
+        <v>0.0005096335928784998</v>
       </c>
       <c r="H61" t="n">
-        <v>0.07115381267198922</v>
+        <v>0.09808170758930974</v>
       </c>
       <c r="I61" t="n">
-        <v>0.001380241607768783</v>
+        <v>0.02169720983853291</v>
       </c>
       <c r="J61" t="n">
-        <v>0.005711479223420356</v>
+        <v>0.05552533820561856</v>
       </c>
       <c r="K61" t="n">
-        <v>0.03628013366491052</v>
+        <v>0.00668721309494397</v>
       </c>
       <c r="L61" t="n">
-        <v>0.02325854722457934</v>
+        <v>0.0445426090665133</v>
       </c>
       <c r="M61" t="n">
-        <v>0.1084444277113878</v>
+        <v>0.1237046206476807</v>
       </c>
       <c r="N61" t="n">
-        <v>0.02899815458970648</v>
+        <v>0.01480563102509922</v>
       </c>
       <c r="O61" t="n">
-        <v>0.02656908343762674</v>
+        <v>0.01684043223132032</v>
       </c>
       <c r="P61" t="n">
-        <v>0.08884943188224</v>
+        <v>0.01461023745774636</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.006076808394774058</v>
+        <v>0.004357430759575251</v>
       </c>
       <c r="R61" t="n">
-        <v>0.0007076717659629581</v>
+        <v>0.0229821744903586</v>
       </c>
       <c r="S61" t="n">
-        <v>0.0701891132112217</v>
+        <v>0.07712253281298864</v>
       </c>
       <c r="T61" t="n">
-        <v>0.02790517061179192</v>
+        <v>0.005580531866750359</v>
       </c>
       <c r="U61" t="n">
-        <v>0.1129019191860845</v>
+        <v>0.07990985749749134</v>
       </c>
       <c r="V61" t="n">
-        <v>0.08216153337884412</v>
+        <v>0.1119469595413261</v>
       </c>
       <c r="W61" t="n">
-        <v>0.07654171835033285</v>
+        <v>0.04010424683249185</v>
       </c>
       <c r="X61" t="n">
-        <v>0.0823973227764145</v>
+        <v>0.03498194334128044</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.001610500183624999</v>
+        <v>0.003231162386122888</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.04811132251110786</v>
+        <v>0.0683455174917595</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.02181319888430108</v>
+        <v>0.04206733066490301</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.01171996242016634</v>
+        <v>0.02040698535890396</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.0791779447804694</v>
+        <v>0.08298583384521864</v>
       </c>
     </row>
     <row r="62">
@@ -6291,79 +6291,79 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.1991714689567153</v>
+        <v>0.204422014496964</v>
       </c>
       <c r="F62" t="n">
-        <v>0.09315770324350897</v>
+        <v>0.05359863246013939</v>
       </c>
       <c r="G62" t="n">
-        <v>0.00577778783982729</v>
+        <v>0.0543263301298167</v>
       </c>
       <c r="H62" t="n">
-        <v>0.02866588262464833</v>
+        <v>0.01535525331804154</v>
       </c>
       <c r="I62" t="n">
-        <v>0.08700416348358368</v>
+        <v>0.05150103765596629</v>
       </c>
       <c r="J62" t="n">
-        <v>0.00394350345355656</v>
+        <v>0.02088919054680387</v>
       </c>
       <c r="K62" t="n">
-        <v>0.03861883898172776</v>
+        <v>0.01948259366320106</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0408060784260248</v>
+        <v>0.02074107314290568</v>
       </c>
       <c r="M62" t="n">
-        <v>0.09254890897545968</v>
+        <v>0.08643092592448166</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0004140155594207263</v>
+        <v>0.03586770148837044</v>
       </c>
       <c r="O62" t="n">
-        <v>0.003250594151441944</v>
+        <v>0.004599710805023462</v>
       </c>
       <c r="P62" t="n">
-        <v>0.03653704605274578</v>
+        <v>0.04310563087559233</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.06744594770366065</v>
+        <v>0.0002106068213124932</v>
       </c>
       <c r="R62" t="n">
-        <v>0.08390629037950134</v>
+        <v>0.06437545216015393</v>
       </c>
       <c r="S62" t="n">
-        <v>0.05476080274621355</v>
+        <v>0.04260070728184637</v>
       </c>
       <c r="T62" t="n">
-        <v>0.01011326637689025</v>
+        <v>0.070693191986639</v>
       </c>
       <c r="U62" t="n">
-        <v>0.04564573929601518</v>
+        <v>0.04785254138135952</v>
       </c>
       <c r="V62" t="n">
-        <v>0.003484480600139733</v>
+        <v>0.04133451046873648</v>
       </c>
       <c r="W62" t="n">
-        <v>0.06585307921796786</v>
+        <v>0.06888376547793514</v>
       </c>
       <c r="X62" t="n">
-        <v>0.08705279535002189</v>
+        <v>0.09020981828967724</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.02594051036516248</v>
+        <v>0.03989917798652282</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.04570612242760067</v>
+        <v>0.07114171818253116</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.070044428795959</v>
+        <v>0.05659244872800709</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.009322013948922014</v>
+        <v>0.0003079812249363473</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.07224223508638043</v>
+        <v>0.06767514962258132</v>
       </c>
     </row>
     <row r="63">
@@ -6386,79 +6386,79 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.2959720851141662</v>
+        <v>0.2973323778578047</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1029696287711917</v>
+        <v>0.1093917334575128</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0003667819358801902</v>
+        <v>0.0119462962102626</v>
       </c>
       <c r="H63" t="n">
-        <v>0.01789720274528726</v>
+        <v>0.1209723861132876</v>
       </c>
       <c r="I63" t="n">
-        <v>0.03119292565177135</v>
+        <v>0.009559994505179276</v>
       </c>
       <c r="J63" t="n">
-        <v>0.05567473043568383</v>
+        <v>0.0236978213874241</v>
       </c>
       <c r="K63" t="n">
-        <v>0.02662868586309869</v>
+        <v>0.03779393124566579</v>
       </c>
       <c r="L63" t="n">
-        <v>0.02501964526663593</v>
+        <v>0.02843048200780852</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0275120051545339</v>
+        <v>0.06117881434239838</v>
       </c>
       <c r="N63" t="n">
-        <v>0.003479196503186556</v>
+        <v>0.01248855322306703</v>
       </c>
       <c r="O63" t="n">
-        <v>0.0825300110851747</v>
+        <v>0.08782572799847368</v>
       </c>
       <c r="P63" t="n">
-        <v>0.002530121219526772</v>
+        <v>0.03326996403463291</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.03657460793647525</v>
+        <v>0.03585405270853051</v>
       </c>
       <c r="R63" t="n">
-        <v>0.04121962060383456</v>
+        <v>0.006032620791982995</v>
       </c>
       <c r="S63" t="n">
-        <v>0.03225224284606665</v>
+        <v>0.05159410762906661</v>
       </c>
       <c r="T63" t="n">
-        <v>0.02481719444360563</v>
+        <v>0.006126818009311451</v>
       </c>
       <c r="U63" t="n">
-        <v>0.1129753397638537</v>
+        <v>0.05806578888191614</v>
       </c>
       <c r="V63" t="n">
-        <v>0.1153934573931712</v>
+        <v>0.1036234242854032</v>
       </c>
       <c r="W63" t="n">
-        <v>0.09817676287478026</v>
+        <v>0.005667959583652463</v>
       </c>
       <c r="X63" t="n">
-        <v>0.008727094545658409</v>
+        <v>0.07357382391785598</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.006667874136482934</v>
+        <v>0.01766599614555116</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.02263245965527051</v>
+        <v>0.03325607452116271</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.1036316725771945</v>
+        <v>0.01962961548918159</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.02113073859163549</v>
+        <v>0.05235401351067236</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.08046696407190683</v>
+        <v>0.07179579025355846</v>
       </c>
     </row>
     <row r="64">
@@ -6481,79 +6481,79 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.2146743781471737</v>
+        <v>0.2142277613884656</v>
       </c>
       <c r="F64" t="n">
-        <v>0.03811768674261843</v>
+        <v>0.01747228882738159</v>
       </c>
       <c r="G64" t="n">
-        <v>0.06224167227670208</v>
+        <v>0.0813454619943285</v>
       </c>
       <c r="H64" t="n">
-        <v>0.04588376647674217</v>
+        <v>0.02493274056546469</v>
       </c>
       <c r="I64" t="n">
-        <v>0.06482874208554087</v>
+        <v>0.004290202254270914</v>
       </c>
       <c r="J64" t="n">
-        <v>0.06872542465697644</v>
+        <v>0.08486193591873611</v>
       </c>
       <c r="K64" t="n">
-        <v>0.02892711767508427</v>
+        <v>0.04472448656794507</v>
       </c>
       <c r="L64" t="n">
-        <v>0.04305693324570461</v>
+        <v>0.00753640114707688</v>
       </c>
       <c r="M64" t="n">
-        <v>0.07167196317284504</v>
+        <v>0.07710037261163567</v>
       </c>
       <c r="N64" t="n">
-        <v>0.01074687476351212</v>
+        <v>0.05727149230178437</v>
       </c>
       <c r="O64" t="n">
-        <v>0.04845584955097712</v>
+        <v>0.08113598706427079</v>
       </c>
       <c r="P64" t="n">
-        <v>0.07527584176295693</v>
+        <v>0.04026606032787767</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.03694129993414549</v>
+        <v>0.01490394863582916</v>
       </c>
       <c r="R64" t="n">
-        <v>0.05032822562104301</v>
+        <v>0.07395758400941946</v>
       </c>
       <c r="S64" t="n">
-        <v>0.02433992638993095</v>
+        <v>0.08105242484177047</v>
       </c>
       <c r="T64" t="n">
-        <v>0.05715773938650472</v>
+        <v>0.05298068740816465</v>
       </c>
       <c r="U64" t="n">
-        <v>0.06094691392842733</v>
+        <v>0.05809746506196396</v>
       </c>
       <c r="V64" t="n">
-        <v>0.007592589166919376</v>
+        <v>0.00190829394838966</v>
       </c>
       <c r="W64" t="n">
-        <v>0.03739220175059082</v>
+        <v>0.05851058263416331</v>
       </c>
       <c r="X64" t="n">
-        <v>0.06621562775198563</v>
+        <v>0.06690600962091925</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.0137501813194209</v>
+        <v>0.01302587424316984</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.03351142718199119</v>
+        <v>0.001355942148201917</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.03225652285263222</v>
+        <v>0.0335154285742667</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.02163547230674822</v>
+        <v>0.02284832929296944</v>
       </c>
       <c r="AC64" t="n">
-        <v>-0.03535014524168426</v>
+        <v>-0.04895457915879339</v>
       </c>
     </row>
     <row r="65">
@@ -6576,79 +6576,79 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.2828899031833945</v>
+        <v>0.2921045713799784</v>
       </c>
       <c r="F65" t="n">
-        <v>0.05215261357820092</v>
+        <v>0.1024995197588269</v>
       </c>
       <c r="G65" t="n">
-        <v>0.06702654393823179</v>
+        <v>0.05356496272473363</v>
       </c>
       <c r="H65" t="n">
-        <v>0.05734725200965329</v>
+        <v>0.02385609075503376</v>
       </c>
       <c r="I65" t="n">
-        <v>0.005212555111377935</v>
+        <v>0.02540950216687608</v>
       </c>
       <c r="J65" t="n">
-        <v>0.001244619955368925</v>
+        <v>0.003373618219678478</v>
       </c>
       <c r="K65" t="n">
-        <v>0.005427442092851681</v>
+        <v>0.005781709051863125</v>
       </c>
       <c r="L65" t="n">
-        <v>0.03974807984496635</v>
+        <v>0.003665612610208662</v>
       </c>
       <c r="M65" t="n">
-        <v>0.004199414593320282</v>
+        <v>0.04061967203739075</v>
       </c>
       <c r="N65" t="n">
-        <v>0.009410831320792587</v>
+        <v>0.02978417846760984</v>
       </c>
       <c r="O65" t="n">
-        <v>0.06623912423623911</v>
+        <v>0.04623259626942879</v>
       </c>
       <c r="P65" t="n">
-        <v>0.04731729510111459</v>
+        <v>0.04100834325647634</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.09259455960335417</v>
+        <v>0.1135754852705809</v>
       </c>
       <c r="R65" t="n">
-        <v>0.02149962156205264</v>
+        <v>0.05204044242246857</v>
       </c>
       <c r="S65" t="n">
-        <v>0.02479898883526245</v>
+        <v>0.06280715857890971</v>
       </c>
       <c r="T65" t="n">
-        <v>0.09104123527025368</v>
+        <v>0.03316949680923204</v>
       </c>
       <c r="U65" t="n">
-        <v>0.08314732479139939</v>
+        <v>0.00534275327760308</v>
       </c>
       <c r="V65" t="n">
-        <v>0.04213971984694347</v>
+        <v>0.01871464214717519</v>
       </c>
       <c r="W65" t="n">
-        <v>0.0019510924682792</v>
+        <v>0.07075187803044646</v>
       </c>
       <c r="X65" t="n">
-        <v>0.06505131804737344</v>
+        <v>0.01421287716209898</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.09203172401784784</v>
+        <v>0.1077035765617489</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.05520490719512125</v>
+        <v>0.0129553287153294</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.06961528121401217</v>
+        <v>0.06417053808139708</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.0055984553659828</v>
+        <v>0.0687600176248834</v>
       </c>
       <c r="AC65" t="n">
-        <v>0.01803228992548703</v>
+        <v>0.02155267568765331</v>
       </c>
     </row>
     <row r="66">
@@ -6671,79 +6671,79 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.1899909107348107</v>
+        <v>0.1885008010261621</v>
       </c>
       <c r="F66" t="n">
-        <v>0.01451019501770528</v>
+        <v>0.04269759830104659</v>
       </c>
       <c r="G66" t="n">
-        <v>0.004958757440072579</v>
+        <v>0.006248125464294325</v>
       </c>
       <c r="H66" t="n">
-        <v>0.02995668000541575</v>
+        <v>0.09592442911341294</v>
       </c>
       <c r="I66" t="n">
-        <v>0.07249882368008695</v>
+        <v>0.08700941258798009</v>
       </c>
       <c r="J66" t="n">
-        <v>0.05652402211359169</v>
+        <v>0.06800844089720331</v>
       </c>
       <c r="K66" t="n">
-        <v>0.07761296424154168</v>
+        <v>0.08764056240571549</v>
       </c>
       <c r="L66" t="n">
-        <v>0.00546308001648103</v>
+        <v>0.04862795754021906</v>
       </c>
       <c r="M66" t="n">
-        <v>0.05110759021104988</v>
+        <v>0.08925034495566951</v>
       </c>
       <c r="N66" t="n">
-        <v>0.06971862628463743</v>
+        <v>0.01293096225488031</v>
       </c>
       <c r="O66" t="n">
-        <v>0.00412607240873717</v>
+        <v>0.001219702325087601</v>
       </c>
       <c r="P66" t="n">
-        <v>0.03785178372229388</v>
+        <v>0.01744405677713045</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.04006672524818895</v>
+        <v>0.01538481689376633</v>
       </c>
       <c r="R66" t="n">
-        <v>0.004959545250061547</v>
+        <v>0.07017706828704676</v>
       </c>
       <c r="S66" t="n">
-        <v>0.09400271439624976</v>
+        <v>0.04208035279280372</v>
       </c>
       <c r="T66" t="n">
-        <v>0.0164554921004249</v>
+        <v>0.02634227987620259</v>
       </c>
       <c r="U66" t="n">
-        <v>0.09231645081206537</v>
+        <v>0.04541087750496837</v>
       </c>
       <c r="V66" t="n">
-        <v>0.03746694105841361</v>
+        <v>0.002177685430108915</v>
       </c>
       <c r="W66" t="n">
-        <v>0.08651744349888542</v>
+        <v>0.05458085741628228</v>
       </c>
       <c r="X66" t="n">
-        <v>0.07574250399060921</v>
+        <v>0.06575669433331081</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.01985887936862446</v>
+        <v>0.05211016911477442</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.0008980578887034435</v>
+        <v>0.0167115039675572</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.09076591187844242</v>
+        <v>0.04623742586872633</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.01662073936771778</v>
+        <v>0.006028675891812494</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.03136840711406265</v>
+        <v>0.03586475203789064</v>
       </c>
     </row>
     <row r="67">
@@ -6766,79 +6766,79 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.5857580700758762</v>
+        <v>0.2296665026690232</v>
       </c>
       <c r="F67" t="n">
-        <v>0.03744566509852985</v>
+        <v>0.09849716985125874</v>
       </c>
       <c r="G67" t="n">
-        <v>0.006124158662890073</v>
+        <v>0.03397502945624788</v>
       </c>
       <c r="H67" t="n">
-        <v>0.06645357223295494</v>
+        <v>0.0893747595881791</v>
       </c>
       <c r="I67" t="n">
-        <v>0.03893597364278408</v>
+        <v>0.06395194174310408</v>
       </c>
       <c r="J67" t="n">
-        <v>0.06929117277571023</v>
+        <v>0.02667232264250783</v>
       </c>
       <c r="K67" t="n">
-        <v>0.006970864887002198</v>
+        <v>0.03543421515295434</v>
       </c>
       <c r="L67" t="n">
-        <v>0.007848740568899601</v>
+        <v>0.02644795657616077</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0853975571285296</v>
+        <v>0.04915899630394117</v>
       </c>
       <c r="N67" t="n">
-        <v>0.04794112819567007</v>
+        <v>0.0088031295163292</v>
       </c>
       <c r="O67" t="n">
-        <v>0.1117194314928444</v>
+        <v>0.001201835573373625</v>
       </c>
       <c r="P67" t="n">
-        <v>0.01674372819104821</v>
+        <v>0.005126082127276258</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.11143654090111</v>
+        <v>0.05284430913756587</v>
       </c>
       <c r="R67" t="n">
-        <v>0.06012014316290915</v>
+        <v>0.01369042107394247</v>
       </c>
       <c r="S67" t="n">
-        <v>0.03333122159615327</v>
+        <v>0.06964301227678578</v>
       </c>
       <c r="T67" t="n">
-        <v>0.05503069722835029</v>
+        <v>0.01252353631186133</v>
       </c>
       <c r="U67" t="n">
-        <v>0.008835766639109927</v>
+        <v>0.04541375832881331</v>
       </c>
       <c r="V67" t="n">
-        <v>0.01146493205599259</v>
+        <v>0.01858639706751242</v>
       </c>
       <c r="W67" t="n">
-        <v>0.05647155480675262</v>
+        <v>0.02478910144680187</v>
       </c>
       <c r="X67" t="n">
-        <v>0.06446271039746901</v>
+        <v>0.03862176889261064</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.03266695799699706</v>
+        <v>0.09980692871991148</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.0003123475825263096</v>
+        <v>0.06565589534992688</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.006878114511118813</v>
+        <v>0.04651449857587055</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.06411702024464785</v>
+        <v>0.07326693428706446</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.05162462178504321</v>
+        <v>0.01278534331237594</v>
       </c>
     </row>
     <row r="68">
@@ -6861,79 +6861,79 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.157488079759207</v>
+        <v>0.1594666348598167</v>
       </c>
       <c r="F68" t="n">
-        <v>0.08399868908697627</v>
+        <v>0.06715234734945634</v>
       </c>
       <c r="G68" t="n">
-        <v>0.07992821526957687</v>
+        <v>0.0828923002700849</v>
       </c>
       <c r="H68" t="n">
-        <v>0.03723073167515971</v>
+        <v>0.003258647818536277</v>
       </c>
       <c r="I68" t="n">
-        <v>0.08806343271108101</v>
+        <v>0.03398699180301669</v>
       </c>
       <c r="J68" t="n">
-        <v>0.05217779754432295</v>
+        <v>0.05637850824883759</v>
       </c>
       <c r="K68" t="n">
-        <v>0.03187443884838933</v>
+        <v>0.04768942288927398</v>
       </c>
       <c r="L68" t="n">
-        <v>0.01511039939492898</v>
+        <v>0.006814537832613618</v>
       </c>
       <c r="M68" t="n">
-        <v>0.01793790016855227</v>
+        <v>0.0422111399929692</v>
       </c>
       <c r="N68" t="n">
-        <v>0.02692845387435423</v>
+        <v>0.03157516822699662</v>
       </c>
       <c r="O68" t="n">
-        <v>0.01002730734924879</v>
+        <v>0.004562916823635791</v>
       </c>
       <c r="P68" t="n">
-        <v>0.07974211271518465</v>
+        <v>0.09518204350417482</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.02642521154079931</v>
+        <v>0.02402976664623646</v>
       </c>
       <c r="R68" t="n">
-        <v>0.05134363100745147</v>
+        <v>0.0421364553890945</v>
       </c>
       <c r="S68" t="n">
-        <v>0.04981855328014066</v>
+        <v>0.02475805616745682</v>
       </c>
       <c r="T68" t="n">
-        <v>0.06375509769737132</v>
+        <v>0.07560032183992414</v>
       </c>
       <c r="U68" t="n">
-        <v>0.06758791498364083</v>
+        <v>0.04358403928715566</v>
       </c>
       <c r="V68" t="n">
-        <v>0.005201279491089777</v>
+        <v>0.0004506578437275388</v>
       </c>
       <c r="W68" t="n">
-        <v>0.001890147943066146</v>
+        <v>0.05862601087684285</v>
       </c>
       <c r="X68" t="n">
-        <v>0.06895244819230149</v>
+        <v>0.05817651567934908</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.05185670286481863</v>
+        <v>0.0133009648378031</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.004434225816770849</v>
+        <v>0.0895452692546385</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.07717739774826381</v>
+        <v>0.08438117027601048</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.008537910796510574</v>
+        <v>0.01370674714216496</v>
       </c>
       <c r="AC68" t="n">
-        <v>-0.001515185505012106</v>
+        <v>-0.009967766394147162</v>
       </c>
     </row>
     <row r="69">
@@ -6956,79 +6956,79 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.4385599114181533</v>
+        <v>0.3363705253717501</v>
       </c>
       <c r="F69" t="n">
-        <v>0.03595853444813892</v>
+        <v>0.06474521072054074</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03148485049949164</v>
+        <v>0.05207780662090562</v>
       </c>
       <c r="H69" t="n">
-        <v>0.01811540884415333</v>
+        <v>0.03313693980880358</v>
       </c>
       <c r="I69" t="n">
-        <v>0.04717016988747169</v>
+        <v>0.05059153763045607</v>
       </c>
       <c r="J69" t="n">
-        <v>0.00774338669591896</v>
+        <v>0.0867196764440165</v>
       </c>
       <c r="K69" t="n">
-        <v>0.01836871333471972</v>
+        <v>0.09153823298588827</v>
       </c>
       <c r="L69" t="n">
-        <v>0.01124952617332395</v>
+        <v>0.008023473183672979</v>
       </c>
       <c r="M69" t="n">
-        <v>0.02410667630104833</v>
+        <v>0.001966760895879927</v>
       </c>
       <c r="N69" t="n">
-        <v>0.01549548399417052</v>
+        <v>0.01690429591371478</v>
       </c>
       <c r="O69" t="n">
-        <v>0.136171990736735</v>
+        <v>0.1015304731649613</v>
       </c>
       <c r="P69" t="n">
-        <v>0.003402668689710957</v>
+        <v>0.0846115406997333</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.05695457083109419</v>
+        <v>0.01486004390246601</v>
       </c>
       <c r="R69" t="n">
-        <v>0.1383998826395165</v>
+        <v>0.02858603730147965</v>
       </c>
       <c r="S69" t="n">
-        <v>0.01355176490881982</v>
+        <v>0.04824623740671302</v>
       </c>
       <c r="T69" t="n">
-        <v>0.05196592808194147</v>
+        <v>0.01846805665533435</v>
       </c>
       <c r="U69" t="n">
-        <v>0.05655243313069507</v>
+        <v>0.008424845027155721</v>
       </c>
       <c r="V69" t="n">
-        <v>0.003341983508646569</v>
+        <v>0.02517966906657019</v>
       </c>
       <c r="W69" t="n">
-        <v>0.01017146175476837</v>
+        <v>0.03293749554753053</v>
       </c>
       <c r="X69" t="n">
-        <v>0.0508745392421134</v>
+        <v>0.07850267255848972</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.06679521434620189</v>
+        <v>0.0379514225094464</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.1211597512513137</v>
+        <v>0.04475339831249265</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.05058538509091447</v>
+        <v>0.06894553447675611</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.03037967560909145</v>
+        <v>0.001298639166992578</v>
       </c>
       <c r="AC69" t="n">
-        <v>-0.01414314016496307</v>
+        <v>-0.00834586323387913</v>
       </c>
     </row>
     <row r="70">
@@ -7051,79 +7051,79 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.1328091887376507</v>
+        <v>0.1334905683569112</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0698449711760593</v>
+        <v>0.05471985550119026</v>
       </c>
       <c r="G70" t="n">
-        <v>0.003073638509330678</v>
+        <v>0.03777380091520385</v>
       </c>
       <c r="H70" t="n">
-        <v>0.01042198569082931</v>
+        <v>0.01141082807167088</v>
       </c>
       <c r="I70" t="n">
-        <v>0.006545284304321586</v>
+        <v>0.07453549509291542</v>
       </c>
       <c r="J70" t="n">
-        <v>0.03669090520828692</v>
+        <v>0.07208771525650108</v>
       </c>
       <c r="K70" t="n">
-        <v>0.0218071269252153</v>
+        <v>0.006842579865992049</v>
       </c>
       <c r="L70" t="n">
-        <v>0.1242047708769078</v>
+        <v>0.009033806930046597</v>
       </c>
       <c r="M70" t="n">
-        <v>0.04877345008847378</v>
+        <v>0.03202135046201621</v>
       </c>
       <c r="N70" t="n">
-        <v>0.005497889690663701</v>
+        <v>0.008574053529154489</v>
       </c>
       <c r="O70" t="n">
-        <v>0.002865059918995163</v>
+        <v>0.04992839303820981</v>
       </c>
       <c r="P70" t="n">
-        <v>0.1209176586211276</v>
+        <v>0.0532405728695378</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.02145453575405506</v>
+        <v>0.0520387041307788</v>
       </c>
       <c r="R70" t="n">
-        <v>0.09094271939998154</v>
+        <v>0.08155809515769646</v>
       </c>
       <c r="S70" t="n">
-        <v>0.01462238112437115</v>
+        <v>0.05898526488114039</v>
       </c>
       <c r="T70" t="n">
-        <v>0.08920600725367983</v>
+        <v>0.05966716837702452</v>
       </c>
       <c r="U70" t="n">
-        <v>0.06077103514546464</v>
+        <v>0.06892822321245508</v>
       </c>
       <c r="V70" t="n">
-        <v>0.05311578962767483</v>
+        <v>0.01353914092808426</v>
       </c>
       <c r="W70" t="n">
-        <v>0.07693110496294209</v>
+        <v>0.09111940541969929</v>
       </c>
       <c r="X70" t="n">
-        <v>0.1102758093197801</v>
+        <v>0.01568946186573299</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.007997396998530285</v>
+        <v>0.001428790775435173</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.001686790475262238</v>
+        <v>0.07537473028177157</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.01829772261975964</v>
+        <v>0.06289364004256792</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.004055966308287345</v>
+        <v>0.008608923395175067</v>
       </c>
       <c r="AC70" t="n">
-        <v>-0.0482052701084016</v>
+        <v>-0.02930175174880338</v>
       </c>
     </row>
     <row r="71">
@@ -7146,79 +7146,79 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.1600251441004328</v>
+        <v>0.165772538830283</v>
       </c>
       <c r="F71" t="n">
-        <v>0.04533603026533322</v>
+        <v>0.0006343915223453511</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07588176310207796</v>
+        <v>0.09944619925204136</v>
       </c>
       <c r="H71" t="n">
-        <v>0.002661115184450025</v>
+        <v>0.06272965891033468</v>
       </c>
       <c r="I71" t="n">
-        <v>0.02903263975614801</v>
+        <v>0.05277135013197948</v>
       </c>
       <c r="J71" t="n">
-        <v>0.007496830100072997</v>
+        <v>0.04518660938669601</v>
       </c>
       <c r="K71" t="n">
-        <v>0.1044773441271831</v>
+        <v>0.1029323121779237</v>
       </c>
       <c r="L71" t="n">
-        <v>0.01198672164546872</v>
+        <v>0.0130740384086031</v>
       </c>
       <c r="M71" t="n">
-        <v>0.03665567955344894</v>
+        <v>0.08386708973311698</v>
       </c>
       <c r="N71" t="n">
-        <v>0.09647789255717854</v>
+        <v>0.04533049442161609</v>
       </c>
       <c r="O71" t="n">
-        <v>0.04073782870460798</v>
+        <v>7.8094737822619e-06</v>
       </c>
       <c r="P71" t="n">
-        <v>0.05414131009790261</v>
+        <v>0.02672760147677508</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.02978006290565613</v>
+        <v>0.09762634542218715</v>
       </c>
       <c r="R71" t="n">
-        <v>0.03853235240225628</v>
+        <v>0.03867156701306226</v>
       </c>
       <c r="S71" t="n">
-        <v>0.004363661495295686</v>
+        <v>0.03255185245714837</v>
       </c>
       <c r="T71" t="n">
-        <v>0.01038646855712034</v>
+        <v>0.05924573024312682</v>
       </c>
       <c r="U71" t="n">
-        <v>0.06747866992644883</v>
+        <v>0.03183229491763057</v>
       </c>
       <c r="V71" t="n">
-        <v>0.1024793293348981</v>
+        <v>0.003508756803155421</v>
       </c>
       <c r="W71" t="n">
-        <v>0.0113839810080885</v>
+        <v>0.04106190513463292</v>
       </c>
       <c r="X71" t="n">
-        <v>0.0947005069124414</v>
+        <v>0.00997261783869023</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.104470703640038</v>
+        <v>0.1007481610962681</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.0009571337317933925</v>
+        <v>0.01620112925674542</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.0267303224074171</v>
+        <v>0.003161028605570702</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.003851652584674399</v>
+        <v>0.03271105631656818</v>
       </c>
       <c r="AC71" t="n">
-        <v>-0.06732241194170754</v>
+        <v>-0.07799862044958733</v>
       </c>
     </row>
     <row r="72">
@@ -7241,79 +7241,79 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.1170472760574884</v>
+        <v>0.1166693204840951</v>
       </c>
       <c r="F72" t="n">
-        <v>0.04939040383702031</v>
+        <v>0.01376276549865255</v>
       </c>
       <c r="G72" t="n">
-        <v>0.008430625036413158</v>
+        <v>0.0912627674740366</v>
       </c>
       <c r="H72" t="n">
-        <v>0.04882577736854377</v>
+        <v>0.01885351069420815</v>
       </c>
       <c r="I72" t="n">
-        <v>0.01484339868526165</v>
+        <v>0.006158016639540652</v>
       </c>
       <c r="J72" t="n">
-        <v>0.08240451680457307</v>
+        <v>0.08948722566114214</v>
       </c>
       <c r="K72" t="n">
-        <v>0.1004006730245698</v>
+        <v>0.05185561257584006</v>
       </c>
       <c r="L72" t="n">
-        <v>0.05340969959388196</v>
+        <v>0.007100962310216348</v>
       </c>
       <c r="M72" t="n">
-        <v>0.005825290620730257</v>
+        <v>0.02323672828650519</v>
       </c>
       <c r="N72" t="n">
-        <v>0.03709892373981419</v>
+        <v>0.003655049755102898</v>
       </c>
       <c r="O72" t="n">
-        <v>0.1037500366925393</v>
+        <v>0.009184675168092364</v>
       </c>
       <c r="P72" t="n">
-        <v>0.09745868523594908</v>
+        <v>0.1154418853133716</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.001823187575251691</v>
+        <v>0.03048078880030113</v>
       </c>
       <c r="R72" t="n">
-        <v>0.003461957492091339</v>
+        <v>0.07057678194814331</v>
       </c>
       <c r="S72" t="n">
-        <v>0.04845461826896148</v>
+        <v>0.01134158547926487</v>
       </c>
       <c r="T72" t="n">
-        <v>0.0166364473953375</v>
+        <v>0.02981740574868777</v>
       </c>
       <c r="U72" t="n">
-        <v>0.0864043006854377</v>
+        <v>0.04348702952918461</v>
       </c>
       <c r="V72" t="n">
-        <v>0.009305432679249681</v>
+        <v>0.01938316947426922</v>
       </c>
       <c r="W72" t="n">
-        <v>0.09643685295682608</v>
+        <v>0.1015278408951537</v>
       </c>
       <c r="X72" t="n">
-        <v>0.04456476177042737</v>
+        <v>0.04775019983357907</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.02657173131106226</v>
+        <v>0.01580004425131013</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.01897468656139723</v>
+        <v>0.04335964347686081</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.02170619160889732</v>
+        <v>0.1075906401723015</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.02382180105576379</v>
+        <v>0.04888567101423529</v>
       </c>
       <c r="AC72" t="n">
-        <v>-0.1623879228114489</v>
+        <v>-0.1220531011688165</v>
       </c>
     </row>
     <row r="73">
@@ -7336,79 +7336,79 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.1468888664420256</v>
+        <v>0.1359550926176026</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0257973450023402</v>
+        <v>0.09027946172820558</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1100024023517591</v>
+        <v>0.06156629089786671</v>
       </c>
       <c r="H73" t="n">
-        <v>0.007990726029315281</v>
+        <v>0.003601354213120693</v>
       </c>
       <c r="I73" t="n">
-        <v>0.001855966331247206</v>
+        <v>0.001321714604176274</v>
       </c>
       <c r="J73" t="n">
-        <v>0.005053591681697704</v>
+        <v>0.0140408280027057</v>
       </c>
       <c r="K73" t="n">
-        <v>0.1086041833911194</v>
+        <v>0.08649980756625163</v>
       </c>
       <c r="L73" t="n">
-        <v>0.01759598510543091</v>
+        <v>0.0003679614504303324</v>
       </c>
       <c r="M73" t="n">
-        <v>0.02560760623701687</v>
+        <v>0.04448585918180594</v>
       </c>
       <c r="N73" t="n">
-        <v>0.03440097530503303</v>
+        <v>0.007365092303606759</v>
       </c>
       <c r="O73" t="n">
-        <v>0.01935768658599991</v>
+        <v>0.07072400214734376</v>
       </c>
       <c r="P73" t="n">
-        <v>0.008043642355148073</v>
+        <v>0.02345240451102026</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.09970164440116493</v>
+        <v>0.08182041012833047</v>
       </c>
       <c r="R73" t="n">
-        <v>0.00562142054687178</v>
+        <v>0.09035513052145003</v>
       </c>
       <c r="S73" t="n">
-        <v>0.03944717345943065</v>
+        <v>0.01274804521730102</v>
       </c>
       <c r="T73" t="n">
-        <v>0.00984838600108252</v>
+        <v>0.03308061863147339</v>
       </c>
       <c r="U73" t="n">
-        <v>0.01205527964432636</v>
+        <v>0.02668516174530845</v>
       </c>
       <c r="V73" t="n">
-        <v>0.05972164304428979</v>
+        <v>0.06102289298047474</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1144948896874927</v>
+        <v>0.006708309786719887</v>
       </c>
       <c r="X73" t="n">
-        <v>0.00294933401862269</v>
+        <v>0.04842236277960653</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.1309738468733194</v>
+        <v>0.0996309332975919</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.09604831519086217</v>
+        <v>0.06570616644403614</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.03704925965468642</v>
+        <v>0.01250390358555339</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.02777869710174286</v>
+        <v>0.05761128827562061</v>
       </c>
       <c r="AC73" t="n">
-        <v>-0.1501816591960114</v>
+        <v>-0.1723665064113477</v>
       </c>
     </row>
     <row r="74">
@@ -7431,79 +7431,79 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.1256635312225801</v>
+        <v>0.1256220753991971</v>
       </c>
       <c r="F74" t="n">
-        <v>0.06671304468634916</v>
+        <v>0.04625891333343179</v>
       </c>
       <c r="G74" t="n">
-        <v>0.00369510739289338</v>
+        <v>0.04929576699229046</v>
       </c>
       <c r="H74" t="n">
-        <v>0.05304211874520784</v>
+        <v>0.02100681822294682</v>
       </c>
       <c r="I74" t="n">
-        <v>0.001278063752562664</v>
+        <v>0.07472961950230514</v>
       </c>
       <c r="J74" t="n">
-        <v>0.08464512081314447</v>
+        <v>0.09169387769839134</v>
       </c>
       <c r="K74" t="n">
-        <v>0.00969807184861834</v>
+        <v>0.02601627477825778</v>
       </c>
       <c r="L74" t="n">
-        <v>0.02193359210836059</v>
+        <v>0.01357486670429224</v>
       </c>
       <c r="M74" t="n">
-        <v>0.07167665891575752</v>
+        <v>0.09138018666283919</v>
       </c>
       <c r="N74" t="n">
-        <v>0.0170793781609913</v>
+        <v>0.001937573992735712</v>
       </c>
       <c r="O74" t="n">
-        <v>0.08186270135907672</v>
+        <v>0.02264981391150102</v>
       </c>
       <c r="P74" t="n">
-        <v>0.05096749496462998</v>
+        <v>0.03266799783462181</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.04069105543058639</v>
+        <v>0.03457555035828438</v>
       </c>
       <c r="R74" t="n">
-        <v>0.02203488461158831</v>
+        <v>0.03837445348556852</v>
       </c>
       <c r="S74" t="n">
-        <v>0.007701274072489758</v>
+        <v>0.03158017052951679</v>
       </c>
       <c r="T74" t="n">
-        <v>0.04731576637886872</v>
+        <v>0.01509190318618433</v>
       </c>
       <c r="U74" t="n">
-        <v>0.07144483892561054</v>
+        <v>0.09908758042669613</v>
       </c>
       <c r="V74" t="n">
-        <v>0.0009191778132761128</v>
+        <v>0.01219716097926626</v>
       </c>
       <c r="W74" t="n">
-        <v>0.04928838278866859</v>
+        <v>0.08093590657533267</v>
       </c>
       <c r="X74" t="n">
-        <v>0.05464001761138314</v>
+        <v>0.08830194826906398</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.09458835842668585</v>
+        <v>0.0833297384165524</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.08380575089242932</v>
+        <v>0.03266383862544683</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.03326355671267731</v>
+        <v>0.008566802361860717</v>
       </c>
       <c r="AB74" t="n">
-        <v>0.031715583588144</v>
+        <v>0.004083237152613622</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.1466494249418579</v>
+        <v>0.1166404176091191</v>
       </c>
     </row>
     <row r="75">
@@ -7526,79 +7526,79 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.1467766278981652</v>
+        <v>0.1472929524620617</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1155304404026803</v>
+        <v>0.07973447899191642</v>
       </c>
       <c r="G75" t="n">
-        <v>0.06869151315485636</v>
+        <v>0.001210693575757198</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1187356262092793</v>
+        <v>0.09670086756252493</v>
       </c>
       <c r="I75" t="n">
-        <v>0.003856876412531535</v>
+        <v>0.1051777079474151</v>
       </c>
       <c r="J75" t="n">
-        <v>0.001228826875314039</v>
+        <v>0.09224875467664051</v>
       </c>
       <c r="K75" t="n">
-        <v>0.00496483848026037</v>
+        <v>0.0009169103496068507</v>
       </c>
       <c r="L75" t="n">
-        <v>0.02157127628093753</v>
+        <v>0.01572823652793378</v>
       </c>
       <c r="M75" t="n">
-        <v>0.01860650386656093</v>
+        <v>0.0207629279212415</v>
       </c>
       <c r="N75" t="n">
-        <v>0.03009863685394805</v>
+        <v>0.01238915070097096</v>
       </c>
       <c r="O75" t="n">
-        <v>0.11597209938979</v>
+        <v>0.03047675005898173</v>
       </c>
       <c r="P75" t="n">
-        <v>0.0833706718167805</v>
+        <v>0.111467186733034</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.1013869597283959</v>
+        <v>0.02178237668790702</v>
       </c>
       <c r="R75" t="n">
-        <v>0.009064209238481894</v>
+        <v>0.0220656636613576</v>
       </c>
       <c r="S75" t="n">
-        <v>0.01586520747117625</v>
+        <v>0.01455184912904873</v>
       </c>
       <c r="T75" t="n">
-        <v>0.003443577247760539</v>
+        <v>0.02395293301193368</v>
       </c>
       <c r="U75" t="n">
-        <v>0.02979802350354841</v>
+        <v>0.0007414696048688861</v>
       </c>
       <c r="V75" t="n">
-        <v>0.0486034727660476</v>
+        <v>0.08115699955225576</v>
       </c>
       <c r="W75" t="n">
-        <v>0.102756822203672</v>
+        <v>0.004073338047662904</v>
       </c>
       <c r="X75" t="n">
-        <v>0.03214655836876488</v>
+        <v>0.1097759487313919</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.03329047729792315</v>
+        <v>0.04371269485783173</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.009640006486699963</v>
+        <v>0.1017612322772653</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.001792659186388136</v>
+        <v>0.008382955223492347</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.02958471675820243</v>
+        <v>0.001228874168961094</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.1429515578838513</v>
+        <v>0.1424192656590357</v>
       </c>
     </row>
     <row r="76">
@@ -7621,79 +7621,79 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.1316056787379693</v>
+        <v>0.1286599702618415</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0005884222912616584</v>
+        <v>0.0004493846064576782</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1031124626146055</v>
+        <v>0.02582842051909281</v>
       </c>
       <c r="H76" t="n">
-        <v>0.05180596532009241</v>
+        <v>0.03646227878491554</v>
       </c>
       <c r="I76" t="n">
-        <v>0.02022173354120909</v>
+        <v>0.04722356171981735</v>
       </c>
       <c r="J76" t="n">
-        <v>0.07517790160042896</v>
+        <v>0.07085446978363878</v>
       </c>
       <c r="K76" t="n">
-        <v>0.04140268657292671</v>
+        <v>0.09545744044010068</v>
       </c>
       <c r="L76" t="n">
-        <v>0.01050297825635131</v>
+        <v>0.007603762003577752</v>
       </c>
       <c r="M76" t="n">
-        <v>0.06015054629886331</v>
+        <v>0.07313798777184001</v>
       </c>
       <c r="N76" t="n">
-        <v>0.009061167985142376</v>
+        <v>0.02808841797309159</v>
       </c>
       <c r="O76" t="n">
-        <v>0.01518361822643832</v>
+        <v>0.03887016165643626</v>
       </c>
       <c r="P76" t="n">
-        <v>0.08420532359435516</v>
+        <v>0.08311676549015366</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.04656154990580087</v>
+        <v>0.04789490188353961</v>
       </c>
       <c r="R76" t="n">
-        <v>0.01619961743795701</v>
+        <v>0.01747685012445847</v>
       </c>
       <c r="S76" t="n">
-        <v>0.02009257766202274</v>
+        <v>0.02414974358468756</v>
       </c>
       <c r="T76" t="n">
-        <v>0.09397606316608989</v>
+        <v>0.03790302615175765</v>
       </c>
       <c r="U76" t="n">
-        <v>0.02718563838584643</v>
+        <v>0.09241367513101822</v>
       </c>
       <c r="V76" t="n">
-        <v>0.02620304518358028</v>
+        <v>0.04166558966504125</v>
       </c>
       <c r="W76" t="n">
-        <v>0.03366351029918749</v>
+        <v>0.023999422319997</v>
       </c>
       <c r="X76" t="n">
-        <v>0.04565799926890404</v>
+        <v>0.0802190632691281</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.002853607379793325</v>
+        <v>0.001830534699745879</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.1089460383765244</v>
+        <v>0.02617321142780374</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.01270619397375396</v>
+        <v>0.08246467010706157</v>
       </c>
       <c r="AB76" t="n">
-        <v>0.09454135265886497</v>
+        <v>0.01671666088663867</v>
       </c>
       <c r="AC76" t="n">
-        <v>-0.0854431989084769</v>
+        <v>-0.08696600642884081</v>
       </c>
     </row>
     <row r="77">
@@ -7716,79 +7716,79 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.32003376825969</v>
+        <v>0.7976956223272617</v>
       </c>
       <c r="F77" t="n">
-        <v>2.643307106210561e-05</v>
+        <v>0.01970230271842669</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0144522639886187</v>
+        <v>0.000712738621562193</v>
       </c>
       <c r="H77" t="n">
-        <v>0.02811769126816238</v>
+        <v>0.006192117284357348</v>
       </c>
       <c r="I77" t="n">
-        <v>0.01904917491775019</v>
+        <v>0.00431021741319146</v>
       </c>
       <c r="J77" t="n">
-        <v>0.06960222188635566</v>
+        <v>0.0135686388992467</v>
       </c>
       <c r="K77" t="n">
-        <v>0.0784006335573742</v>
+        <v>0.06264463623174435</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05685315417154544</v>
+        <v>0.09591332904581074</v>
       </c>
       <c r="M77" t="n">
-        <v>0.06034457024022761</v>
+        <v>0.09643825008126979</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07002127839536502</v>
+        <v>0.02746848104100929</v>
       </c>
       <c r="O77" t="n">
-        <v>0.08069840369694586</v>
+        <v>0.03660401253703051</v>
       </c>
       <c r="P77" t="n">
-        <v>0.04534704542262324</v>
+        <v>0.03128450672875405</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.0781111022156409</v>
+        <v>0.05039741573934393</v>
       </c>
       <c r="R77" t="n">
-        <v>0.07668456869796188</v>
+        <v>0.008552386802391107</v>
       </c>
       <c r="S77" t="n">
-        <v>0.009660157253189463</v>
+        <v>0.01188589370128252</v>
       </c>
       <c r="T77" t="n">
-        <v>0.01323862970009747</v>
+        <v>0.006834123994223663</v>
       </c>
       <c r="U77" t="n">
-        <v>0.02566296042859597</v>
+        <v>0.02336009562468096</v>
       </c>
       <c r="V77" t="n">
-        <v>0.01903799283555251</v>
+        <v>0.008457362343566428</v>
       </c>
       <c r="W77" t="n">
-        <v>0.01746879012319799</v>
+        <v>0.1040363000045004</v>
       </c>
       <c r="X77" t="n">
-        <v>0.02973143325723053</v>
+        <v>0.0739376040158983</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.07287353027762579</v>
+        <v>0.1128970028820701</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.04463939170954574</v>
+        <v>0.08501683111697912</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.04656043686840427</v>
+        <v>0.01987915775511908</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.04341813601692709</v>
+        <v>0.09990659541754125</v>
       </c>
       <c r="AC77" t="n">
-        <v>-0.09863998301548565</v>
+        <v>-0.04955804658092382</v>
       </c>
     </row>
     <row r="78">
@@ -7811,79 +7811,79 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.1288251565539044</v>
+        <v>0.1290707501155427</v>
       </c>
       <c r="F78" t="n">
-        <v>0.03966987800138157</v>
+        <v>0.02850734810990681</v>
       </c>
       <c r="G78" t="n">
-        <v>0.060117132975639</v>
+        <v>0.03765332873399605</v>
       </c>
       <c r="H78" t="n">
-        <v>0.05784577851779679</v>
+        <v>0.06253463773430575</v>
       </c>
       <c r="I78" t="n">
-        <v>0.032384175768086</v>
+        <v>0.008187363521102206</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03784646240076907</v>
+        <v>0.05661023617938234</v>
       </c>
       <c r="K78" t="n">
-        <v>0.006180902195178271</v>
+        <v>0.04209420695001578</v>
       </c>
       <c r="L78" t="n">
-        <v>0.009432791634951525</v>
+        <v>0.00340760523006237</v>
       </c>
       <c r="M78" t="n">
-        <v>0.07584874765884576</v>
+        <v>0.07907828393549025</v>
       </c>
       <c r="N78" t="n">
-        <v>0.003140048093557197</v>
+        <v>0.01352570798976418</v>
       </c>
       <c r="O78" t="n">
-        <v>0.08793532543939342</v>
+        <v>0.02441782371446188</v>
       </c>
       <c r="P78" t="n">
-        <v>0.06884179457658253</v>
+        <v>0.08189693987903832</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.08127439708324517</v>
+        <v>0.0735608414487141</v>
       </c>
       <c r="R78" t="n">
-        <v>0.07511795364881238</v>
+        <v>0.03484925729723007</v>
       </c>
       <c r="S78" t="n">
-        <v>0.05322077159523169</v>
+        <v>0.007640370255000862</v>
       </c>
       <c r="T78" t="n">
-        <v>0.009832054564923545</v>
+        <v>0.002054799193735571</v>
       </c>
       <c r="U78" t="n">
-        <v>0.04986957631377156</v>
+        <v>0.06435997408535005</v>
       </c>
       <c r="V78" t="n">
-        <v>0.01045864284433991</v>
+        <v>0.02712568105826733</v>
       </c>
       <c r="W78" t="n">
-        <v>0.08365557755931538</v>
+        <v>0.06892624105709597</v>
       </c>
       <c r="X78" t="n">
-        <v>0.03226706316525639</v>
+        <v>0.06037422332416529</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.01459960093581138</v>
+        <v>0.0113616760846776</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.01600762751236804</v>
+        <v>0.05668470946111259</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.05617296727869675</v>
+        <v>0.08051135896361734</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.03828073023604676</v>
+        <v>0.0746373857935074</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.09570286514399941</v>
+        <v>0.1033959196699648</v>
       </c>
     </row>
     <row r="79">
@@ -7906,79 +7906,79 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.2015120580505799</v>
+        <v>0.2181768674573793</v>
       </c>
       <c r="F79" t="n">
-        <v>0.02402856671502905</v>
+        <v>0.02938886607280701</v>
       </c>
       <c r="G79" t="n">
-        <v>0.002510738408149077</v>
+        <v>0.0872614332559084</v>
       </c>
       <c r="H79" t="n">
-        <v>0.03691841520691759</v>
+        <v>0.01012116032085636</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1245637826134964</v>
+        <v>0.07320872580116911</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01462961781140115</v>
+        <v>0.02317520037061448</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02831872054520092</v>
+        <v>0.01150836937846644</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04687809078482445</v>
+        <v>0.08425403184992224</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0704689545725201</v>
+        <v>0.04453782866157752</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0002360678205367188</v>
+        <v>0.03061225884218767</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01872109868148738</v>
+        <v>0.0003754586102226665</v>
       </c>
       <c r="P79" t="n">
-        <v>0.1111939221482435</v>
+        <v>0.0002093634334386221</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.06675996130486389</v>
+        <v>0.02562840286433896</v>
       </c>
       <c r="R79" t="n">
-        <v>0.06057563346999647</v>
+        <v>0.1087101024922269</v>
       </c>
       <c r="S79" t="n">
-        <v>0.0143167984116322</v>
+        <v>0.02250422589349985</v>
       </c>
       <c r="T79" t="n">
-        <v>0.002622010003265777</v>
+        <v>0.005696338524327986</v>
       </c>
       <c r="U79" t="n">
-        <v>0.05620845504170979</v>
+        <v>0.003491031750863152</v>
       </c>
       <c r="V79" t="n">
-        <v>0.02425251322971667</v>
+        <v>0.07399811957061615</v>
       </c>
       <c r="W79" t="n">
-        <v>0.05305001729124023</v>
+        <v>0.07288442730292448</v>
       </c>
       <c r="X79" t="n">
-        <v>0.02793534911506285</v>
+        <v>0.008715281960673957</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.1192161293931671</v>
+        <v>0.1260391481358639</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.04388830782765614</v>
+        <v>0.04702621962556537</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.03842521707187597</v>
+        <v>0.07367789270719433</v>
       </c>
       <c r="AB79" t="n">
-        <v>0.01428163253200631</v>
+        <v>0.03697611257473433</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.07576976962448762</v>
+        <v>0.109711089081868</v>
       </c>
     </row>
     <row r="80">
@@ -8001,79 +8001,79 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.1494903675525939</v>
+        <v>0.1514270108820654</v>
       </c>
       <c r="F80" t="n">
-        <v>0.03721955669814766</v>
+        <v>0.002296468363503135</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01799930293297262</v>
+        <v>0.04912795624500204</v>
       </c>
       <c r="H80" t="n">
-        <v>0.01356631852930944</v>
+        <v>0.07005044987226956</v>
       </c>
       <c r="I80" t="n">
-        <v>0.06815571765407039</v>
+        <v>0.02201759566565201</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02134810951698322</v>
+        <v>0.04963384242412176</v>
       </c>
       <c r="K80" t="n">
-        <v>0.04057907728044165</v>
+        <v>0.06247247660469665</v>
       </c>
       <c r="L80" t="n">
-        <v>0.01483780719971333</v>
+        <v>0.05980703432444295</v>
       </c>
       <c r="M80" t="n">
-        <v>0.03175710011799251</v>
+        <v>0.01681690478203196</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01678753029448495</v>
+        <v>0.04886179880383652</v>
       </c>
       <c r="O80" t="n">
-        <v>0.06697649115152199</v>
+        <v>0.06440003119155682</v>
       </c>
       <c r="P80" t="n">
-        <v>0.02128215963333217</v>
+        <v>0.0217084585228557</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.08904994975268732</v>
+        <v>0.06121277362826781</v>
       </c>
       <c r="R80" t="n">
-        <v>0.08993268388505685</v>
+        <v>0.07248505236545612</v>
       </c>
       <c r="S80" t="n">
-        <v>0.01608181463494488</v>
+        <v>0.02030508929141601</v>
       </c>
       <c r="T80" t="n">
-        <v>0.04147657498929153</v>
+        <v>0.02394600135970953</v>
       </c>
       <c r="U80" t="n">
-        <v>0.04800661571094603</v>
+        <v>0.01604983393177289</v>
       </c>
       <c r="V80" t="n">
-        <v>0.01698210721357543</v>
+        <v>0.0254702300366745</v>
       </c>
       <c r="W80" t="n">
-        <v>0.07591260025729314</v>
+        <v>0.07180793196071006</v>
       </c>
       <c r="X80" t="n">
-        <v>0.03745377023705497</v>
+        <v>0.06406362818071443</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.08618799879698688</v>
+        <v>0.0612829642768299</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.07790388198780253</v>
+        <v>0.03574236093470129</v>
       </c>
       <c r="AA80" t="n">
-        <v>0.05234846438987893</v>
+        <v>0.07232799520406777</v>
       </c>
       <c r="AB80" t="n">
-        <v>0.01815436713551152</v>
+        <v>0.008113122029710505</v>
       </c>
       <c r="AC80" t="n">
-        <v>-0.1570960312002562</v>
+        <v>-0.2040925757826397</v>
       </c>
     </row>
     <row r="81">
@@ -8096,79 +8096,79 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.1853270245052782</v>
+        <v>0.2137710825291912</v>
       </c>
       <c r="F81" t="n">
-        <v>0.06896377904085081</v>
+        <v>0.007639621921704654</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01073761969982963</v>
+        <v>0.004801399804078899</v>
       </c>
       <c r="H81" t="n">
-        <v>0.06550999996205163</v>
+        <v>0.004207573751150724</v>
       </c>
       <c r="I81" t="n">
-        <v>0.04631456809314301</v>
+        <v>0.1031226436704283</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02724759131004722</v>
+        <v>0.00857145241408295</v>
       </c>
       <c r="K81" t="n">
-        <v>0.09049979786352789</v>
+        <v>0.0433220158021203</v>
       </c>
       <c r="L81" t="n">
-        <v>0.01123961897739418</v>
+        <v>0.02908514633426654</v>
       </c>
       <c r="M81" t="n">
-        <v>0.1030716196011291</v>
+        <v>0.1352344093076407</v>
       </c>
       <c r="N81" t="n">
-        <v>0.03160337451300727</v>
+        <v>0.07532416341832308</v>
       </c>
       <c r="O81" t="n">
-        <v>0.05242512607209498</v>
+        <v>0.1203090500547158</v>
       </c>
       <c r="P81" t="n">
-        <v>0.04109294569002253</v>
+        <v>0.01111072056604105</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.05366910290525781</v>
+        <v>0.1213085626602778</v>
       </c>
       <c r="R81" t="n">
-        <v>0.08886289656656741</v>
+        <v>0.01757094581374071</v>
       </c>
       <c r="S81" t="n">
-        <v>0.002454148756200029</v>
+        <v>0.03134646404296116</v>
       </c>
       <c r="T81" t="n">
-        <v>0.0300709385392906</v>
+        <v>0.06007409935369914</v>
       </c>
       <c r="U81" t="n">
-        <v>0.004401797507107591</v>
+        <v>0.004004011721207</v>
       </c>
       <c r="V81" t="n">
-        <v>0.03670476546908255</v>
+        <v>0.08898306338643321</v>
       </c>
       <c r="W81" t="n">
-        <v>0.05179905311415329</v>
+        <v>0.03690908769267228</v>
       </c>
       <c r="X81" t="n">
-        <v>0.01726655172127256</v>
+        <v>0.02202707226131127</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.05131194474776204</v>
+        <v>0.05352490454565226</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.0989734004370294</v>
+        <v>0.018030963261369</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.00573648070812225</v>
+        <v>0.003474098433500124</v>
       </c>
       <c r="AB81" t="n">
-        <v>0.01004287870505608</v>
+        <v>1.852978262313494e-05</v>
       </c>
       <c r="AC81" t="n">
-        <v>-0.1677007349458716</v>
+        <v>-0.1599783064750002</v>
       </c>
     </row>
     <row r="82">
@@ -8191,79 +8191,79 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.1995908482867824</v>
+        <v>0.200993376506344</v>
       </c>
       <c r="F82" t="n">
-        <v>0.07270323872612296</v>
+        <v>0.007249594399547399</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02757566633600788</v>
+        <v>0.03239840215279968</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1077385124499882</v>
+        <v>0.05208874872296421</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0302253655979573</v>
+        <v>0.0764139205552463</v>
       </c>
       <c r="J82" t="n">
-        <v>0.04431193991631444</v>
+        <v>0.02547133371519024</v>
       </c>
       <c r="K82" t="n">
-        <v>0.021590110294011</v>
+        <v>0.0185600241288464</v>
       </c>
       <c r="L82" t="n">
-        <v>0.008650609009771876</v>
+        <v>0.006529287783121496</v>
       </c>
       <c r="M82" t="n">
-        <v>0.1073845446058643</v>
+        <v>0.0240620559987546</v>
       </c>
       <c r="N82" t="n">
-        <v>0.001609124026267454</v>
+        <v>0.04567606467272643</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0225977601800108</v>
+        <v>0.0285271278746658</v>
       </c>
       <c r="P82" t="n">
-        <v>0.04827950417930604</v>
+        <v>0.06721397154020232</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.07734274203231799</v>
+        <v>0.09898652005508396</v>
       </c>
       <c r="R82" t="n">
-        <v>0.0790978059713181</v>
+        <v>0.07648281098141652</v>
       </c>
       <c r="S82" t="n">
-        <v>0.04430118961347498</v>
+        <v>0.07185451617668152</v>
       </c>
       <c r="T82" t="n">
-        <v>0.04105887067221737</v>
+        <v>0.004792121381780395</v>
       </c>
       <c r="U82" t="n">
-        <v>0.09718005470061974</v>
+        <v>0.04419185566575252</v>
       </c>
       <c r="V82" t="n">
-        <v>0.003710760908259994</v>
+        <v>0.04663003058154096</v>
       </c>
       <c r="W82" t="n">
-        <v>0.00816753994628755</v>
+        <v>0.1001207762360878</v>
       </c>
       <c r="X82" t="n">
-        <v>0.02382431956080047</v>
+        <v>0.07548237664932866</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.06702379479310115</v>
+        <v>0.0517226559871197</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.04106668264612499</v>
+        <v>0.0325494963370123</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.01767440751896798</v>
+        <v>0.005414163520049452</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.006885456314887536</v>
+        <v>0.00758214488408156</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.1475813847152427</v>
+        <v>0.1403147815018311</v>
       </c>
     </row>
     <row r="83">
@@ -8286,79 +8286,79 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.2370418428725517</v>
+        <v>0.2238880493009953</v>
       </c>
       <c r="F83" t="n">
-        <v>0.05902868189842039</v>
+        <v>0.07912175483904053</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0791363968945427</v>
+        <v>0.04679962949043745</v>
       </c>
       <c r="H83" t="n">
-        <v>0.01845832462988025</v>
+        <v>0.01522997195544019</v>
       </c>
       <c r="I83" t="n">
-        <v>0.02350987792033616</v>
+        <v>0.0682103164840263</v>
       </c>
       <c r="J83" t="n">
-        <v>0.008334178504063181</v>
+        <v>0.03898180527951053</v>
       </c>
       <c r="K83" t="n">
-        <v>0.006735615800113417</v>
+        <v>0.002253695815550202</v>
       </c>
       <c r="L83" t="n">
-        <v>0.008248545400538713</v>
+        <v>0.01298781595437275</v>
       </c>
       <c r="M83" t="n">
-        <v>0.08030239860281156</v>
+        <v>0.08642073583386108</v>
       </c>
       <c r="N83" t="n">
-        <v>0.02639637430955599</v>
+        <v>0.007522402620170645</v>
       </c>
       <c r="O83" t="n">
-        <v>0.06841661259495677</v>
+        <v>0.09076321893504871</v>
       </c>
       <c r="P83" t="n">
-        <v>0.05702705558824243</v>
+        <v>0.05867551735982449</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.1006466456437856</v>
+        <v>0.02488761793773291</v>
       </c>
       <c r="R83" t="n">
-        <v>0.02953718447869041</v>
+        <v>0.07908447691970241</v>
       </c>
       <c r="S83" t="n">
-        <v>0.00407466410490292</v>
+        <v>0.004474957953612378</v>
       </c>
       <c r="T83" t="n">
-        <v>0.01311404529055139</v>
+        <v>0.08176278794242074</v>
       </c>
       <c r="U83" t="n">
-        <v>0.04463388960939116</v>
+        <v>0.01994310368325024</v>
       </c>
       <c r="V83" t="n">
-        <v>0.03842031693681151</v>
+        <v>0.02241843333066408</v>
       </c>
       <c r="W83" t="n">
-        <v>0.006347208984798955</v>
+        <v>0.09175999323398953</v>
       </c>
       <c r="X83" t="n">
-        <v>0.06815464776125103</v>
+        <v>0.01292870892988082</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.0331343833604111</v>
+        <v>0.04360870301229557</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.09847283023359008</v>
+        <v>0.08585052508722074</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.09374234676064823</v>
+        <v>0.01859225755012289</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.03412777469170613</v>
+        <v>0.007721569851824693</v>
       </c>
       <c r="AC83" t="n">
-        <v>0.2040110508529877</v>
+        <v>0.1830719356419409</v>
       </c>
     </row>
     <row r="84">
@@ -8381,79 +8381,79 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.2181260959700907</v>
+        <v>0.2203048250206122</v>
       </c>
       <c r="F84" t="n">
-        <v>0.02175032103284183</v>
+        <v>0.1164501355851891</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01346730473835487</v>
+        <v>0.01120437305630383</v>
       </c>
       <c r="H84" t="n">
-        <v>0.07122476725680817</v>
+        <v>0.03065536399094406</v>
       </c>
       <c r="I84" t="n">
-        <v>0.02112002252864107</v>
+        <v>0.05204790038647444</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03765963791618263</v>
+        <v>0.01097447456446294</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01043536126841307</v>
+        <v>0.01338921284446627</v>
       </c>
       <c r="L84" t="n">
-        <v>0.001496940639025659</v>
+        <v>0.0132397695826508</v>
       </c>
       <c r="M84" t="n">
-        <v>0.08009774773733801</v>
+        <v>0.06811276181221274</v>
       </c>
       <c r="N84" t="n">
-        <v>0.02339272756008941</v>
+        <v>0.005266555544347585</v>
       </c>
       <c r="O84" t="n">
-        <v>0.09451949601282753</v>
+        <v>0.0474688032467812</v>
       </c>
       <c r="P84" t="n">
-        <v>0.02751343254283467</v>
+        <v>0.1078128948764015</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.09179563082457821</v>
+        <v>0.104525799763213</v>
       </c>
       <c r="R84" t="n">
-        <v>0.100578018275703</v>
+        <v>0.06523830936609626</v>
       </c>
       <c r="S84" t="n">
-        <v>0.02966940301632395</v>
+        <v>0.02830103613883269</v>
       </c>
       <c r="T84" t="n">
-        <v>0.07525427259951196</v>
+        <v>0.008256890017755234</v>
       </c>
       <c r="U84" t="n">
-        <v>0.0658168723867644</v>
+        <v>0.02594340395758558</v>
       </c>
       <c r="V84" t="n">
-        <v>0.003981434557177</v>
+        <v>0.06106035313146887</v>
       </c>
       <c r="W84" t="n">
-        <v>0.09671049752315929</v>
+        <v>0.0508950954795759</v>
       </c>
       <c r="X84" t="n">
-        <v>0.008392543969217865</v>
+        <v>0.03742357703195134</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.04640065517800503</v>
+        <v>0.03038293805276267</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.01533469678615632</v>
+        <v>0.08045213294839278</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.0625718488727935</v>
+        <v>0.02890777856976954</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.0008163667772525893</v>
+        <v>0.001990440052361517</v>
       </c>
       <c r="AC84" t="n">
-        <v>0.04946741685997214</v>
+        <v>0.02642731903676478</v>
       </c>
     </row>
     <row r="85">
@@ -8476,82 +8476,82 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.2312761083078224</v>
+        <v>0.2353205636224542</v>
       </c>
       <c r="F85" t="n">
-        <v>0.09913097574247129</v>
+        <v>0.08225505820967377</v>
       </c>
       <c r="G85" t="n">
-        <v>0.09537659994465776</v>
+        <v>0.09493240566345368</v>
       </c>
       <c r="H85" t="n">
-        <v>0.001026049233688133</v>
+        <v>0.004277410861906551</v>
       </c>
       <c r="I85" t="n">
-        <v>0.01563153885443562</v>
+        <v>0.01233433846054652</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04867139612580113</v>
+        <v>0.009486047803088975</v>
       </c>
       <c r="K85" t="n">
-        <v>0.00108729278948915</v>
+        <v>0.03346583486599317</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03314159586710347</v>
+        <v>0.01681555894820977</v>
       </c>
       <c r="M85" t="n">
-        <v>0.1138691132215592</v>
+        <v>0.07393063977125137</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06224415176371711</v>
+        <v>0.01801079828763709</v>
       </c>
       <c r="O85" t="n">
-        <v>0.05098387935787097</v>
+        <v>0.01252901813820113</v>
       </c>
       <c r="P85" t="n">
-        <v>0.03393479642629715</v>
+        <v>0.0629073396339024</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.08049633677657707</v>
+        <v>0.06203825709129979</v>
       </c>
       <c r="R85" t="n">
-        <v>0.07623001404656014</v>
+        <v>0.0759525893461203</v>
       </c>
       <c r="S85" t="n">
-        <v>0.03287687781937088</v>
+        <v>0.02585006107828228</v>
       </c>
       <c r="T85" t="n">
-        <v>0.01413685709813057</v>
+        <v>0.004281840813406063</v>
       </c>
       <c r="U85" t="n">
-        <v>0.01303925433959455</v>
+        <v>0.01917862707765282</v>
       </c>
       <c r="V85" t="n">
-        <v>0.004174712676717347</v>
+        <v>0.01167601039665292</v>
       </c>
       <c r="W85" t="n">
-        <v>0.05247745394691226</v>
+        <v>0.03285813517083899</v>
       </c>
       <c r="X85" t="n">
-        <v>0.03308222313528407</v>
+        <v>0.06168362335705939</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.04272650442270799</v>
+        <v>0.08167021057300344</v>
       </c>
       <c r="Z85" t="n">
-        <v>0.06282429216375331</v>
+        <v>0.08944699417466694</v>
       </c>
       <c r="AA85" t="n">
-        <v>0.0149368230097528</v>
+        <v>0.02800296875974713</v>
       </c>
       <c r="AB85" t="n">
-        <v>0.01790126123754804</v>
+        <v>0.0864162315174053</v>
       </c>
       <c r="AC85" t="n">
-        <v>0.03036770679534123</v>
+        <v>0.02504265789046577</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>